--- a/data/procesados/drimel.xlsx
+++ b/data/procesados/drimel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="499">
   <si>
     <t>Nombre</t>
   </si>
@@ -40,6 +40,9 @@
     <t>PAMPERS CONFORT XTR HIPER XXGx34</t>
   </si>
   <si>
+    <t>PAMPERS SUPER XTR ULTRA XXGx30</t>
+  </si>
+  <si>
     <t>BABYSEC PREMIUM HIPER Mx48</t>
   </si>
   <si>
@@ -367,9 +370,6 @@
     <t>BABYSEC ULTRA REGULAR XGx8</t>
   </si>
   <si>
-    <t>ESTRELLA PAÑOS MAXI ALGODONx50</t>
-  </si>
-  <si>
     <t>CANDY TOALLAS HUMEDASx70</t>
   </si>
   <si>
@@ -379,9 +379,6 @@
     <t>HUGGIES SUPREME Px17</t>
   </si>
   <si>
-    <t>PAMPERS CONFORT XTR HIPER XGx36</t>
-  </si>
-  <si>
     <t>DUFFY PAÑAL HIPER Mx38</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
     <t>PAMPERS PANTS CS HIPER XXGx32</t>
   </si>
   <si>
+    <t>PAMPERS PANTS PC MES XXGx52</t>
+  </si>
+  <si>
     <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
   </si>
   <si>
@@ -502,18 +502,12 @@
     <t>DUFFY PAÑAL HIPER Px44</t>
   </si>
   <si>
-    <t>ESTRELLA OLEO ALGODONx500</t>
-  </si>
-  <si>
     <t>PAMPERS CONFORT XTR RN+ x36</t>
   </si>
   <si>
     <t>PAMPERS PREMIUM JUMBO Gx96</t>
   </si>
   <si>
-    <t>PAMPERS PREMIUM MES XXGx54</t>
-  </si>
-  <si>
     <t>PAMPERS PREMIUM HIPER XXGx34</t>
   </si>
   <si>
@@ -559,6 +553,9 @@
     <t>7500435189085</t>
   </si>
   <si>
+    <t>7500435189293</t>
+  </si>
+  <si>
     <t>7790250047346</t>
   </si>
   <si>
@@ -886,9 +883,6 @@
     <t>7790250044239</t>
   </si>
   <si>
-    <t>7790064002173</t>
-  </si>
-  <si>
     <t>7798269140065</t>
   </si>
   <si>
@@ -898,9 +892,6 @@
     <t>7794626010408</t>
   </si>
   <si>
-    <t>7500435189071</t>
-  </si>
-  <si>
     <t>7798350082380</t>
   </si>
   <si>
@@ -964,6 +955,9 @@
     <t>7500435207577</t>
   </si>
   <si>
+    <t>7500435189668</t>
+  </si>
+  <si>
     <t>7791274198359</t>
   </si>
   <si>
@@ -1021,18 +1015,12 @@
     <t>7798350084322</t>
   </si>
   <si>
-    <t>7790064104808</t>
-  </si>
-  <si>
     <t>7500435188920</t>
   </si>
   <si>
     <t>7500435155953</t>
   </si>
   <si>
-    <t>7500435188906</t>
-  </si>
-  <si>
     <t>7500435182881</t>
   </si>
   <si>
@@ -1045,6 +1033,9 @@
     <t>PAMPERS-CONFORT-XTR-HIPER-XXGx34</t>
   </si>
   <si>
+    <t>PAMPERS-SUPER-XTR-ULTRA-XXGx30</t>
+  </si>
+  <si>
     <t>BABYSEC-PREMIUM-HIPER-Mx48</t>
   </si>
   <si>
@@ -1372,9 +1363,6 @@
     <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
   </si>
   <si>
-    <t>ESTRELLA-PA-OS-MAXI-ALGODONx50</t>
-  </si>
-  <si>
     <t>CANDY-TOALLAS-HUMEDASx70</t>
   </si>
   <si>
@@ -1384,9 +1372,6 @@
     <t>HUGGIES-SUPREME-Px17</t>
   </si>
   <si>
-    <t>PAMPERS-CONFORT-XTR-HIPER-XGx36</t>
-  </si>
-  <si>
     <t>DUFFY-PA-AL-HIPER-Mx38</t>
   </si>
   <si>
@@ -1450,6 +1435,9 @@
     <t>PAMPERS-PANTS-CS-HIPER-XXGx32</t>
   </si>
   <si>
+    <t>PAMPERS-PANTS-PC-MES-XXGx52</t>
+  </si>
+  <si>
     <t>AVENGERS-SPIDERMAN-SHAMPOOx200</t>
   </si>
   <si>
@@ -1507,16 +1495,10 @@
     <t>DUFFY-PA-AL-HIPER-Px44</t>
   </si>
   <si>
-    <t>ESTRELLA-OLEO-ALGODONx500</t>
-  </si>
-  <si>
     <t>PAMPERS-CONFORT-XTR-RN-x36</t>
   </si>
   <si>
     <t>PAMPERS-PREMIUM-JUMBO-Gx96</t>
-  </si>
-  <si>
-    <t>PAMPERS-PREMIUM-MES-XXGx54</t>
   </si>
   <si>
     <t>PAMPERS-PREMIUM-HIPER-XXGx34</t>
@@ -1886,7 +1868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1923,19 +1905,19 @@
         <v>2938</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D2">
         <v>872</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G2" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1943,22 +1925,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2157</v>
+        <v>1777</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D3">
-        <v>908</v>
+        <v>877</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G3" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1966,19 +1948,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3015</v>
+        <v>2182</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
       </c>
       <c r="D4">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G4" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1989,16 +1974,16 @@
         <v>3015</v>
       </c>
       <c r="D5">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G5" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2006,22 +1991,19 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3138</v>
-      </c>
-      <c r="C6" t="s">
-        <v>170</v>
+        <v>3015</v>
       </c>
       <c r="D6">
-        <v>949</v>
+        <v>924</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G6" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2029,22 +2011,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>3138</v>
+        <v>3176</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D7">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2052,22 +2034,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>3138</v>
+        <v>3176</v>
       </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D8">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G8" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2075,22 +2057,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>554</v>
+        <v>3176</v>
       </c>
       <c r="C9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D9">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2098,22 +2080,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>2668</v>
+        <v>582</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F10" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2124,19 +2106,19 @@
         <v>2668</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G11" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2147,19 +2129,19 @@
         <v>2668</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D12">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G12" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2170,19 +2152,19 @@
         <v>2668</v>
       </c>
       <c r="C13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D13">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G13" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2190,22 +2172,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>231</v>
+        <v>2668</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D14">
-        <v>992</v>
+        <v>965</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G14" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2213,22 +2195,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>1077</v>
+        <v>266</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D15">
-        <v>1004</v>
+        <v>992</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G15" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2236,22 +2218,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>4166</v>
+        <v>1131</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D16">
-        <v>1036</v>
+        <v>1004</v>
       </c>
       <c r="E16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F16" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G16" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2262,19 +2244,19 @@
         <v>4166</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D17">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G17" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2285,19 +2267,19 @@
         <v>4166</v>
       </c>
       <c r="C18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D18">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G18" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2308,19 +2290,19 @@
         <v>4166</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F19" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G19" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2328,22 +2310,22 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>2200</v>
+        <v>4166</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D20">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F20" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G20" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2351,22 +2333,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>3123</v>
+        <v>2200</v>
       </c>
       <c r="C21" t="s">
         <v>171</v>
       </c>
       <c r="D21">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G21" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2377,19 +2359,19 @@
         <v>3123</v>
       </c>
       <c r="C22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F22" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G22" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2400,19 +2382,19 @@
         <v>3123</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D23">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F23" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G23" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2423,19 +2405,19 @@
         <v>3123</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D24">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F24" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G24" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2443,22 +2425,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>1613</v>
+        <v>3123</v>
       </c>
       <c r="C25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D25">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F25" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G25" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2466,22 +2448,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>2375</v>
+        <v>1694</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D26">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F26" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G26" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2489,22 +2471,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>3603</v>
+        <v>2494</v>
       </c>
       <c r="C27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D27">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F27" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G27" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2512,22 +2494,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>1033</v>
+        <v>3603</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28">
-        <v>1076</v>
+        <v>1056</v>
       </c>
       <c r="E28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F28" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G28" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2535,22 +2517,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>369</v>
+        <v>1085</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D29">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F29" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G29" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2558,22 +2540,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>652</v>
+        <v>388</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D30">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F30" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G30" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2581,22 +2563,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>1076</v>
+        <v>684</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F31" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G31" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2604,22 +2586,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D32">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G32" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2627,22 +2609,22 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>922</v>
+        <v>1240</v>
       </c>
       <c r="C33" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D33">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F33" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2650,22 +2632,22 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>1652</v>
+        <v>968</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D34">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G34" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2673,22 +2655,22 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>1652</v>
+        <v>1735</v>
       </c>
       <c r="C35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D35">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="G35" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2696,22 +2678,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>3603</v>
+        <v>1735</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E36" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F36" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G36" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2722,19 +2704,19 @@
         <v>3603</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D37">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F37" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2742,22 +2724,22 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>2117</v>
+        <v>3603</v>
       </c>
       <c r="C38" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D38">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="E38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F38" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G38" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2765,22 +2747,22 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>1874</v>
+        <v>2223</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D39">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="E39" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F39" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G39" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2788,19 +2770,22 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>1844</v>
+        <v>1967</v>
+      </c>
+      <c r="C40" t="s">
+        <v>169</v>
       </c>
       <c r="D40">
-        <v>1166</v>
+        <v>1091</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F40" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G40" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2811,16 +2796,16 @@
         <v>1844</v>
       </c>
       <c r="D41">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F41" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G41" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2828,22 +2813,19 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>3034</v>
-      </c>
-      <c r="C42" t="s">
-        <v>171</v>
+        <v>1844</v>
       </c>
       <c r="D42">
-        <v>1211</v>
+        <v>1168</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F42" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G42" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2854,19 +2836,19 @@
         <v>3034</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D43">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="E43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="G43" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2877,19 +2859,19 @@
         <v>3034</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D44">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F44" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G44" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2897,22 +2879,22 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>3804</v>
+        <v>3034</v>
       </c>
       <c r="C45" t="s">
         <v>169</v>
       </c>
       <c r="D45">
-        <v>1293</v>
+        <v>1213</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F45" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G45" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2920,22 +2902,22 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>724</v>
+        <v>3804</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D46">
-        <v>1318</v>
+        <v>1293</v>
       </c>
       <c r="E46" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F46" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G46" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2943,22 +2925,22 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>3034</v>
+        <v>760</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D47">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="E47" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F47" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G47" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2966,22 +2948,22 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>710</v>
+        <v>3034</v>
       </c>
       <c r="C48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D48">
-        <v>1350</v>
+        <v>1321</v>
       </c>
       <c r="E48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F48" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G48" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2989,22 +2971,22 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>501</v>
+        <v>745</v>
       </c>
       <c r="C49" t="s">
         <v>169</v>
       </c>
       <c r="D49">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="E49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F49" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="G49" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3012,22 +2994,22 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>2125</v>
+        <v>501</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D50">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="E50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F50" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G50" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3035,22 +3017,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>416</v>
+        <v>2125</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D51">
-        <v>1393</v>
+        <v>1367</v>
       </c>
       <c r="E51" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F51" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="G51" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3058,22 +3040,22 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D52">
-        <v>1479</v>
+        <v>1393</v>
       </c>
       <c r="E52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F52" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G52" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3081,22 +3063,22 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>2157</v>
+        <v>374</v>
       </c>
       <c r="C53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D53">
-        <v>1572</v>
+        <v>1479</v>
       </c>
       <c r="E53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F53" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G53" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3104,22 +3086,22 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>2157</v>
+        <v>2182</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F54" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G54" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3127,22 +3109,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>501</v>
+        <v>2182</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55">
-        <v>1586</v>
+        <v>1573</v>
       </c>
       <c r="E55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F55" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G55" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3150,22 +3132,22 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>300</v>
+        <v>501</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D56">
-        <v>1709</v>
+        <v>1586</v>
       </c>
       <c r="E56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F56" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G56" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3173,19 +3155,22 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>3015</v>
+        <v>328</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
       </c>
       <c r="D57">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="E57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F57" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G57" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3193,22 +3178,19 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>2117</v>
-      </c>
-      <c r="C58" t="s">
-        <v>171</v>
+        <v>3015</v>
       </c>
       <c r="D58">
-        <v>2734</v>
+        <v>1716</v>
       </c>
       <c r="E58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G58" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3216,22 +3198,22 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>501</v>
+        <v>2223</v>
       </c>
       <c r="C59" t="s">
         <v>169</v>
       </c>
       <c r="D59">
-        <v>2774</v>
+        <v>2734</v>
       </c>
       <c r="E59" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F59" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G59" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3239,22 +3221,22 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>3763</v>
+        <v>501</v>
       </c>
       <c r="C60" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D60">
-        <v>2792</v>
+        <v>2774</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F60" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G60" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3262,22 +3244,22 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>2302</v>
+        <v>3763</v>
       </c>
       <c r="C61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D61">
-        <v>2809</v>
+        <v>2792</v>
       </c>
       <c r="E61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F61" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G61" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3285,22 +3267,22 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>179</v>
+        <v>2302</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D62">
-        <v>2820</v>
+        <v>2809</v>
       </c>
       <c r="E62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F62" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G62" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3308,22 +3290,22 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>1598</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D63">
-        <v>3533</v>
+        <v>2820</v>
       </c>
       <c r="E63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F63" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G63" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3331,22 +3313,22 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>3603</v>
+        <v>1598</v>
       </c>
       <c r="C64" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D64">
-        <v>5521</v>
+        <v>3533</v>
       </c>
       <c r="E64" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F64" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G64" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3354,22 +3336,22 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>3123</v>
+        <v>3603</v>
       </c>
       <c r="C65" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D65">
-        <v>5522</v>
+        <v>5521</v>
       </c>
       <c r="E65" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F65" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G65" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3377,19 +3359,22 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>1844</v>
+        <v>3123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>169</v>
       </c>
       <c r="D66">
-        <v>5580</v>
+        <v>5522</v>
       </c>
       <c r="E66" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F66" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G66" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3397,22 +3382,19 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>1440</v>
-      </c>
-      <c r="C67" t="s">
-        <v>171</v>
+        <v>1844</v>
       </c>
       <c r="D67">
-        <v>5659</v>
+        <v>5580</v>
       </c>
       <c r="E67" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F67" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G67" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3420,22 +3402,22 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>3603</v>
+        <v>1512</v>
       </c>
       <c r="C68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D68">
-        <v>5662</v>
+        <v>5659</v>
       </c>
       <c r="E68" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F68" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G68" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3443,22 +3425,22 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>1598</v>
+        <v>3603</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D69">
-        <v>5695</v>
+        <v>5662</v>
       </c>
       <c r="E69" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F69" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G69" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3466,22 +3448,22 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>2200</v>
+        <v>1598</v>
       </c>
       <c r="C70" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D70">
-        <v>5718</v>
+        <v>5695</v>
       </c>
       <c r="E70" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F70" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G70" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3489,22 +3471,22 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>536</v>
+        <v>2200</v>
       </c>
       <c r="C71" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D71">
-        <v>5865</v>
+        <v>5718</v>
       </c>
       <c r="E71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F71" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G71" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3512,22 +3494,22 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>4166</v>
+        <v>536</v>
       </c>
       <c r="C72" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D72">
-        <v>6662</v>
+        <v>5865</v>
       </c>
       <c r="E72" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F72" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G72" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3535,22 +3517,22 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>2200</v>
+        <v>4166</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D73">
-        <v>6663</v>
+        <v>6662</v>
       </c>
       <c r="E73" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F73" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="G73" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3558,22 +3540,22 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>1125</v>
+        <v>2200</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D74">
-        <v>6699</v>
+        <v>6663</v>
       </c>
       <c r="E74" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F74" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G74" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3581,22 +3563,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>768</v>
+        <v>1125</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D75">
-        <v>6759</v>
+        <v>6699</v>
       </c>
       <c r="E75" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F75" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G75" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3607,19 +3589,19 @@
         <v>768</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D76">
-        <v>6760</v>
+        <v>6759</v>
       </c>
       <c r="E76" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F76" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G76" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3630,19 +3612,19 @@
         <v>768</v>
       </c>
       <c r="C77" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D77">
-        <v>6761</v>
+        <v>6760</v>
       </c>
       <c r="E77" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F77" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G77" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3650,22 +3632,22 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>496</v>
+        <v>768</v>
       </c>
       <c r="C78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D78">
-        <v>6764</v>
+        <v>6761</v>
       </c>
       <c r="E78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F78" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G78" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3676,19 +3658,19 @@
         <v>496</v>
       </c>
       <c r="C79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D79">
-        <v>6765</v>
+        <v>6764</v>
       </c>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F79" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G79" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3696,22 +3678,22 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>768</v>
+        <v>496</v>
       </c>
       <c r="C80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D80">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="E80" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F80" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G80" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3722,19 +3704,19 @@
         <v>768</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D81">
-        <v>6767</v>
+        <v>6766</v>
       </c>
       <c r="E81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F81" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G81" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3742,22 +3724,22 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>496</v>
+        <v>768</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D82">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F82" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G82" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3768,19 +3750,19 @@
         <v>496</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D83">
-        <v>6769</v>
+        <v>6768</v>
       </c>
       <c r="E83" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F83" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G83" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3788,22 +3770,22 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>2302</v>
+        <v>496</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D84">
-        <v>6770</v>
+        <v>6769</v>
       </c>
       <c r="E84" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F84" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G84" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3811,22 +3793,22 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>3763</v>
+        <v>2302</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D85">
-        <v>6781</v>
+        <v>6770</v>
       </c>
       <c r="E85" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F85" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G85" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3837,19 +3819,19 @@
         <v>3763</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D86">
-        <v>6782</v>
+        <v>6781</v>
       </c>
       <c r="E86" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F86" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G86" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3860,19 +3842,19 @@
         <v>3763</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D87">
-        <v>6783</v>
+        <v>6782</v>
       </c>
       <c r="E87" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F87" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G87" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3880,22 +3862,22 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>1598</v>
+        <v>3763</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D88">
-        <v>6789</v>
+        <v>6783</v>
       </c>
       <c r="E88" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F88" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G88" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3903,22 +3885,22 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>672</v>
+        <v>1598</v>
       </c>
       <c r="C89" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D89">
-        <v>6791</v>
+        <v>6789</v>
       </c>
       <c r="E89" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F89" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G89" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3926,22 +3908,22 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>474</v>
+        <v>672</v>
       </c>
       <c r="C90" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D90">
-        <v>6795</v>
+        <v>6791</v>
       </c>
       <c r="E90" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F90" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G90" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3949,22 +3931,22 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>474</v>
+        <v>546</v>
       </c>
       <c r="C91" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D91">
-        <v>6796</v>
+        <v>6795</v>
       </c>
       <c r="E91" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F91" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G91" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3972,22 +3954,22 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="C92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D92">
-        <v>6797</v>
+        <v>6796</v>
       </c>
       <c r="E92" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F92" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G92" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3995,22 +3977,22 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="C93" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D93">
-        <v>6798</v>
+        <v>6797</v>
       </c>
       <c r="E93" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F93" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="G93" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4018,22 +4000,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D94">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="E94" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F94" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G94" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4041,22 +4023,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>186</v>
+        <v>498</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D95">
-        <v>6808</v>
+        <v>6799</v>
       </c>
       <c r="E95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F95" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G95" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4067,19 +4049,19 @@
         <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D96">
-        <v>6809</v>
+        <v>6808</v>
       </c>
       <c r="E96" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F96" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G96" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4087,22 +4069,22 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>420</v>
+        <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D97">
-        <v>6814</v>
+        <v>6809</v>
       </c>
       <c r="E97" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F97" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G97" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4110,22 +4092,22 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>2302</v>
+        <v>420</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D98">
-        <v>6847</v>
+        <v>6814</v>
       </c>
       <c r="E98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F98" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G98" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4136,19 +4118,19 @@
         <v>2302</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D99">
-        <v>6848</v>
+        <v>6847</v>
       </c>
       <c r="E99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F99" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G99" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4156,22 +4138,22 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>1335</v>
+        <v>2302</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D100">
-        <v>6849</v>
+        <v>6848</v>
       </c>
       <c r="E100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F100" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G100" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4179,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>650</v>
+        <v>1335</v>
       </c>
       <c r="C101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D101">
-        <v>6852</v>
+        <v>6849</v>
       </c>
       <c r="E101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F101" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G101" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4202,22 +4184,22 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="C102" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D102">
-        <v>6853</v>
+        <v>6852</v>
       </c>
       <c r="E102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F102" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G102" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4225,22 +4207,22 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>494</v>
+        <v>682</v>
       </c>
       <c r="C103" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D103">
-        <v>6857</v>
+        <v>6853</v>
       </c>
       <c r="E103" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F103" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="G103" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4248,22 +4230,22 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C104" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D104">
-        <v>6858</v>
+        <v>6857</v>
       </c>
       <c r="E104" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F104" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G104" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4271,22 +4253,22 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D105">
-        <v>6859</v>
+        <v>6858</v>
       </c>
       <c r="E105" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F105" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G105" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4294,22 +4276,22 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D106">
-        <v>6860</v>
+        <v>6859</v>
       </c>
       <c r="E106" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F106" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G106" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4317,22 +4299,22 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C107" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D107">
-        <v>6861</v>
+        <v>6860</v>
       </c>
       <c r="E107" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F107" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G107" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4340,22 +4322,22 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>380</v>
+        <v>508</v>
       </c>
       <c r="C108" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D108">
-        <v>6875</v>
+        <v>6861</v>
       </c>
       <c r="E108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F108" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G108" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4363,22 +4345,22 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D109">
-        <v>6894</v>
+        <v>6875</v>
       </c>
       <c r="E109" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F109" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G109" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4386,22 +4368,22 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C110" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D110">
-        <v>6896</v>
+        <v>6894</v>
       </c>
       <c r="E110" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F110" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G110" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4409,22 +4391,22 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="C111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D111">
-        <v>6897</v>
+        <v>6896</v>
       </c>
       <c r="E111" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F111" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="G111" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4432,22 +4414,22 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>823</v>
+        <v>429</v>
       </c>
       <c r="C112" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D112">
-        <v>6934</v>
+        <v>6897</v>
       </c>
       <c r="E112" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F112" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G112" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4455,22 +4437,22 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="C113" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D113">
         <v>7674</v>
       </c>
       <c r="E113" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F113" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G113" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4478,22 +4460,22 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="C114" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D114">
         <v>7675</v>
       </c>
       <c r="E114" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F114" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G114" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4501,22 +4483,22 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>1181</v>
+        <v>1240</v>
       </c>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D115">
         <v>7695</v>
       </c>
       <c r="E115" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F115" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G115" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4524,22 +4506,22 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>2938</v>
+        <v>1367</v>
       </c>
       <c r="C116" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D116">
-        <v>7781</v>
+        <v>7860</v>
       </c>
       <c r="E116" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F116" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G116" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4550,19 +4532,19 @@
         <v>1367</v>
       </c>
       <c r="C117" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D117">
-        <v>7860</v>
+        <v>7862</v>
       </c>
       <c r="E117" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F117" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G117" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4573,19 +4555,19 @@
         <v>1367</v>
       </c>
       <c r="C118" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D118">
-        <v>7862</v>
+        <v>7873</v>
       </c>
       <c r="E118" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F118" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G118" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4593,22 +4575,22 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>1367</v>
+        <v>387</v>
       </c>
       <c r="C119" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D119">
-        <v>7873</v>
+        <v>7936</v>
       </c>
       <c r="E119" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F119" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G119" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4616,22 +4598,22 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>387</v>
+        <v>682</v>
       </c>
       <c r="C120" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D120">
-        <v>7936</v>
+        <v>7939</v>
       </c>
       <c r="E120" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F120" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G120" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4639,22 +4621,22 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>650</v>
+        <v>2182</v>
       </c>
       <c r="C121" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D121">
-        <v>7939</v>
+        <v>7943</v>
       </c>
       <c r="E121" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F121" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G121" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4662,22 +4644,22 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>2157</v>
+        <v>1598</v>
       </c>
       <c r="C122" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D122">
-        <v>7943</v>
+        <v>7945</v>
       </c>
       <c r="E122" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F122" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G122" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4685,22 +4667,22 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>1598</v>
+        <v>2453</v>
       </c>
       <c r="C123" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D123">
-        <v>7945</v>
+        <v>7959</v>
       </c>
       <c r="E123" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F123" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G123" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4708,22 +4690,22 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>2453</v>
+        <v>2125</v>
       </c>
       <c r="C124" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D124">
-        <v>7959</v>
+        <v>7961</v>
       </c>
       <c r="E124" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F124" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G124" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4731,22 +4713,22 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>2125</v>
+        <v>4953</v>
       </c>
       <c r="C125" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D125">
-        <v>7961</v>
+        <v>7962</v>
       </c>
       <c r="E125" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F125" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G125" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4754,22 +4736,22 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>4953</v>
+        <v>2125</v>
       </c>
       <c r="C126" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D126">
-        <v>7962</v>
+        <v>8283</v>
       </c>
       <c r="E126" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F126" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G126" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4777,22 +4759,22 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>2125</v>
+        <v>2453</v>
       </c>
       <c r="C127" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D127">
-        <v>8283</v>
+        <v>8284</v>
       </c>
       <c r="E127" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F127" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G127" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4800,22 +4782,22 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>2453</v>
+        <v>2182</v>
       </c>
       <c r="C128" t="s">
         <v>169</v>
       </c>
       <c r="D128">
-        <v>8284</v>
+        <v>8294</v>
       </c>
       <c r="E128" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F128" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G128" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4823,22 +4805,22 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>2182</v>
+        <v>429</v>
       </c>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D129">
-        <v>8294</v>
+        <v>8504</v>
       </c>
       <c r="E129" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F129" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G129" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4846,22 +4828,22 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>416</v>
+        <v>2182</v>
       </c>
       <c r="C130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D130">
-        <v>8504</v>
+        <v>8577</v>
       </c>
       <c r="E130" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F130" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G130" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4869,22 +4851,22 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>2182</v>
+        <v>2212</v>
       </c>
       <c r="C131" t="s">
         <v>171</v>
       </c>
       <c r="D131">
-        <v>8577</v>
+        <v>8700</v>
       </c>
       <c r="E131" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F131" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G131" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4895,19 +4877,19 @@
         <v>2212</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D132">
-        <v>8700</v>
+        <v>8701</v>
       </c>
       <c r="E132" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F132" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G132" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4918,19 +4900,19 @@
         <v>2212</v>
       </c>
       <c r="C133" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D133">
-        <v>8701</v>
+        <v>8702</v>
       </c>
       <c r="E133" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F133" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G133" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4941,19 +4923,19 @@
         <v>2212</v>
       </c>
       <c r="C134" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D134">
-        <v>8702</v>
+        <v>8703</v>
       </c>
       <c r="E134" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F134" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G134" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4961,22 +4943,22 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>2212</v>
+        <v>1367</v>
       </c>
       <c r="C135" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D135">
-        <v>8703</v>
+        <v>8710</v>
       </c>
       <c r="E135" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F135" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G135" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4984,22 +4966,22 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>1367</v>
+        <v>3018</v>
       </c>
       <c r="C136" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D136">
-        <v>8710</v>
+        <v>8748</v>
       </c>
       <c r="E136" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F136" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G136" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5007,22 +4989,22 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>3018</v>
+        <v>4953</v>
       </c>
       <c r="C137" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D137">
-        <v>8748</v>
+        <v>8769</v>
       </c>
       <c r="E137" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F137" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G137" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5036,13 +5018,13 @@
         <v>8774</v>
       </c>
       <c r="E138" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F138" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G138" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5050,22 +5032,22 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>2804</v>
+        <v>2944</v>
       </c>
       <c r="C139" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D139">
         <v>9456</v>
       </c>
       <c r="E139" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F139" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G139" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5076,19 +5058,19 @@
         <v>4662</v>
       </c>
       <c r="C140" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D140">
         <v>9517</v>
       </c>
       <c r="E140" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F140" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G140" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5099,19 +5081,19 @@
         <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D141">
         <v>11961</v>
       </c>
       <c r="E141" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F141" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G141" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5122,19 +5104,19 @@
         <v>2409</v>
       </c>
       <c r="C142" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D142">
         <v>12065</v>
       </c>
       <c r="E142" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F142" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G142" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5148,13 +5130,13 @@
         <v>12112</v>
       </c>
       <c r="E143" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F143" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G143" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5165,19 +5147,19 @@
         <v>3904</v>
       </c>
       <c r="C144" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D144">
         <v>12410</v>
       </c>
       <c r="E144" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F144" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G144" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5188,19 +5170,19 @@
         <v>3904</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D145">
         <v>12412</v>
       </c>
       <c r="E145" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F145" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G145" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5211,19 +5193,19 @@
         <v>6293</v>
       </c>
       <c r="C146" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D146">
         <v>12414</v>
       </c>
       <c r="E146" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F146" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G146" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5234,19 +5216,19 @@
         <v>6293</v>
       </c>
       <c r="C147" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D147">
         <v>12415</v>
       </c>
       <c r="E147" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F147" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G147" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5257,19 +5239,19 @@
         <v>6293</v>
       </c>
       <c r="C148" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D148">
         <v>12416</v>
       </c>
       <c r="E148" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F148" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G148" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5280,19 +5262,19 @@
         <v>9325</v>
       </c>
       <c r="C149" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D149">
         <v>12419</v>
       </c>
       <c r="E149" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F149" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G149" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5303,19 +5285,19 @@
         <v>9325</v>
       </c>
       <c r="C150" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D150">
         <v>12420</v>
       </c>
       <c r="E150" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F150" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G150" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5326,19 +5308,19 @@
         <v>6712</v>
       </c>
       <c r="C151" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D151">
         <v>12518</v>
       </c>
       <c r="E151" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F151" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G151" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5349,19 +5331,19 @@
         <v>3904</v>
       </c>
       <c r="C152" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D152">
         <v>13016</v>
       </c>
       <c r="E152" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F152" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G152" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5372,19 +5354,19 @@
         <v>1482</v>
       </c>
       <c r="C153" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D153">
         <v>14517</v>
       </c>
       <c r="E153" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F153" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G153" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5395,19 +5377,19 @@
         <v>2750</v>
       </c>
       <c r="C154" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D154">
         <v>14542</v>
       </c>
       <c r="E154" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F154" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G154" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5418,19 +5400,19 @@
         <v>2182</v>
       </c>
       <c r="C155" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D155">
         <v>15310</v>
       </c>
       <c r="E155" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F155" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G155" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5441,19 +5423,19 @@
         <v>1581</v>
       </c>
       <c r="C156" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D156">
         <v>15371</v>
       </c>
       <c r="E156" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F156" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G156" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5461,22 +5443,22 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>889</v>
+        <v>1497</v>
       </c>
       <c r="C157" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D157">
-        <v>15761</v>
+        <v>15773</v>
       </c>
       <c r="E157" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F157" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G157" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5484,22 +5466,22 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>1497</v>
+        <v>6638</v>
       </c>
       <c r="C158" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D158">
-        <v>15773</v>
+        <v>15777</v>
       </c>
       <c r="E158" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F158" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G158" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5507,22 +5489,22 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>6638</v>
+        <v>3804</v>
       </c>
       <c r="C159" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D159">
-        <v>15777</v>
+        <v>15779</v>
       </c>
       <c r="E159" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F159" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G159" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5530,22 +5512,22 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>4662</v>
+        <v>542</v>
       </c>
       <c r="C160" t="s">
         <v>169</v>
       </c>
       <c r="D160">
-        <v>15778</v>
+        <v>15953</v>
       </c>
       <c r="E160" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F160" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G160" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5553,68 +5535,22 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>3804</v>
+        <v>932</v>
       </c>
       <c r="C161" t="s">
         <v>169</v>
       </c>
       <c r="D161">
-        <v>15779</v>
+        <v>15956</v>
       </c>
       <c r="E161" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F161" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G161" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" t="s">
-        <v>167</v>
-      </c>
-      <c r="B162">
-        <v>517</v>
-      </c>
-      <c r="C162" t="s">
-        <v>171</v>
-      </c>
-      <c r="D162">
-        <v>15953</v>
-      </c>
-      <c r="E162" t="s">
-        <v>340</v>
-      </c>
-      <c r="F162" t="s">
-        <v>502</v>
-      </c>
-      <c r="G162" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" t="s">
-        <v>168</v>
-      </c>
-      <c r="B163">
-        <v>887</v>
-      </c>
-      <c r="C163" t="s">
-        <v>171</v>
-      </c>
-      <c r="D163">
-        <v>15956</v>
-      </c>
-      <c r="E163" t="s">
-        <v>341</v>
-      </c>
-      <c r="F163" t="s">
-        <v>503</v>
-      </c>
-      <c r="G163" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/data/procesados/drimel.xlsx
+++ b/data/procesados/drimel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="544">
   <si>
     <t>Nombre</t>
   </si>
@@ -40,9 +40,6 @@
     <t>PAMPERS CONFORT XTR HIPER XXGx34</t>
   </si>
   <si>
-    <t>PAMPERS SUPER XTR ULTRA XXGx30</t>
-  </si>
-  <si>
     <t>BABYSEC PREMIUM HIPER Mx48</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
     <t>HUGGIES FLEXI COMFORT Px50</t>
   </si>
   <si>
+    <t>PAMPERS SUPER XTR REG.XGx8</t>
+  </si>
+  <si>
     <t>SELEC.EST.HIPER Gx40</t>
   </si>
   <si>
@@ -502,6 +502,9 @@
     <t>DUFFY PAÑAL HIPER Px44</t>
   </si>
   <si>
+    <t>PAMPERS CONFORT XTR MES XGx58</t>
+  </si>
+  <si>
     <t>PAMPERS CONFORT XTR RN+ x36</t>
   </si>
   <si>
@@ -517,6 +520,48 @@
     <t>HUGGIES TOALLA PUROx48</t>
   </si>
   <si>
+    <t>PAMPERS SUPER XTR ULTRA XGx32</t>
+  </si>
+  <si>
+    <t>PAMPERS SUPER XTR REG.XXGx8</t>
+  </si>
+  <si>
+    <t>PAMPERS CONFORT XTR REG.XXGx8</t>
+  </si>
+  <si>
+    <t>PAMPERS TOTAL PROTECT Mx52</t>
+  </si>
+  <si>
+    <t>PAMPERS TOTAL PROTECT Gx44</t>
+  </si>
+  <si>
+    <t>PAMPERS TOTAL PROTECT XGx36</t>
+  </si>
+  <si>
+    <t>PAMPERS BabyDry JUMBO Gx110</t>
+  </si>
+  <si>
+    <t>PAMPERS CONFORT XTR JUMBO Gx110</t>
+  </si>
+  <si>
+    <t>PAMPERS CONFORT XTR MES Mx72</t>
+  </si>
+  <si>
+    <t>PAMPERS CONFORT XTR MES XXGx54</t>
+  </si>
+  <si>
+    <t>PAMPERS PREMIUM JUMBO XXGx88</t>
+  </si>
+  <si>
+    <t>PAMPERS SUPER HYP XGx36</t>
+  </si>
+  <si>
+    <t>PAMPERS SUPER HYP XXGx34</t>
+  </si>
+  <si>
+    <t>ESTRELLA TOALLAS HUMEDAS RELAJANTEx50</t>
+  </si>
+  <si>
     <t>Pampers</t>
   </si>
   <si>
@@ -553,9 +598,6 @@
     <t>7500435189085</t>
   </si>
   <si>
-    <t>7500435189293</t>
-  </si>
-  <si>
     <t>7790250047346</t>
   </si>
   <si>
@@ -667,6 +709,9 @@
     <t>7794626010675</t>
   </si>
   <si>
+    <t>7500435168694</t>
+  </si>
+  <si>
     <t>1512</t>
   </si>
   <si>
@@ -1015,6 +1060,9 @@
     <t>7798350084322</t>
   </si>
   <si>
+    <t>7500435189118</t>
+  </si>
+  <si>
     <t>7500435188920</t>
   </si>
   <si>
@@ -1030,12 +1078,51 @@
     <t>7794626007217</t>
   </si>
   <si>
+    <t>7500435189286</t>
+  </si>
+  <si>
+    <t>7500435168687</t>
+  </si>
+  <si>
+    <t>750043588982</t>
+  </si>
+  <si>
+    <t>7500435167949</t>
+  </si>
+  <si>
+    <t>7500435167956</t>
+  </si>
+  <si>
+    <t>7500435167963</t>
+  </si>
+  <si>
+    <t>7500435228664</t>
+  </si>
+  <si>
+    <t>7500435189132</t>
+  </si>
+  <si>
+    <t>7500435189095</t>
+  </si>
+  <si>
+    <t>7500435189125</t>
+  </si>
+  <si>
+    <t>7500435222433</t>
+  </si>
+  <si>
+    <t>7500435205344</t>
+  </si>
+  <si>
+    <t>7500435205351</t>
+  </si>
+  <si>
+    <t>7790064104679</t>
+  </si>
+  <si>
     <t>PAMPERS-CONFORT-XTR-HIPER-XXGx34</t>
   </si>
   <si>
-    <t>PAMPERS-SUPER-XTR-ULTRA-XXGx30</t>
-  </si>
-  <si>
     <t>BABYSEC-PREMIUM-HIPER-Mx48</t>
   </si>
   <si>
@@ -1147,6 +1234,9 @@
     <t>HUGGIES-FLEXI-COMFORT-Px50</t>
   </si>
   <si>
+    <t>PAMPERS-SUPER-XTR-REG-XGx8</t>
+  </si>
+  <si>
     <t>SELEC-EST-HIPER-Gx40</t>
   </si>
   <si>
@@ -1495,6 +1585,9 @@
     <t>DUFFY-PA-AL-HIPER-Px44</t>
   </si>
   <si>
+    <t>PAMPERS-CONFORT-XTR-MES-XGx58</t>
+  </si>
+  <si>
     <t>PAMPERS-CONFORT-XTR-RN-x36</t>
   </si>
   <si>
@@ -1508,6 +1601,48 @@
   </si>
   <si>
     <t>HUGGIES-TOALLA-PUROx48</t>
+  </si>
+  <si>
+    <t>PAMPERS-SUPER-XTR-ULTRA-XGx32</t>
+  </si>
+  <si>
+    <t>PAMPERS-SUPER-XTR-REG-XXGx8</t>
+  </si>
+  <si>
+    <t>PAMPERS-CONFORT-XTR-REG-XXGx8</t>
+  </si>
+  <si>
+    <t>PAMPERS-TOTAL-PROTECT-Mx52</t>
+  </si>
+  <si>
+    <t>PAMPERS-TOTAL-PROTECT-Gx44</t>
+  </si>
+  <si>
+    <t>PAMPERS-TOTAL-PROTECT-XGx36</t>
+  </si>
+  <si>
+    <t>PAMPERS-BabyDry-JUMBO-Gx110</t>
+  </si>
+  <si>
+    <t>PAMPERS-CONFORT-XTR-JUMBO-Gx110</t>
+  </si>
+  <si>
+    <t>PAMPERS-CONFORT-XTR-MES-Mx72</t>
+  </si>
+  <si>
+    <t>PAMPERS-CONFORT-XTR-MES-XXGx54</t>
+  </si>
+  <si>
+    <t>PAMPERS-PREMIUM-JUMBO-XXGx88</t>
+  </si>
+  <si>
+    <t>PAMPERS-SUPER-HYP-XGx36</t>
+  </si>
+  <si>
+    <t>PAMPERS-SUPER-HYP-XXGx34</t>
+  </si>
+  <si>
+    <t>ESTRELLA-TOALLAS-HUMEDAS-RELAJANTEx50</t>
   </si>
   <si>
     <t>Drimel</t>
@@ -1868,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1905,19 +2040,19 @@
         <v>2938</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D2">
         <v>872</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1925,22 +2060,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1777</v>
+        <v>2182</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="D3">
-        <v>877</v>
+        <v>908</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="G3" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1948,22 +2083,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2182</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
+        <v>3015</v>
       </c>
       <c r="D4">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="G4" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1974,16 +2106,16 @@
         <v>3015</v>
       </c>
       <c r="D5">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="G5" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1991,19 +2123,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3015</v>
+        <v>3176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>183</v>
       </c>
       <c r="D6">
-        <v>924</v>
+        <v>949</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="G6" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2014,19 +2149,19 @@
         <v>3176</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D7">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F7" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="G7" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2037,19 +2172,19 @@
         <v>3176</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D8">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="F8" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2057,22 +2192,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>3176</v>
+        <v>582</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="D9">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="F9" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="G9" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2080,22 +2215,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>582</v>
+        <v>2668</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D10">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="G10" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2106,19 +2241,19 @@
         <v>2668</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D11">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="F11" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="G11" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2129,19 +2264,19 @@
         <v>2668</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D12">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F12" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="G12" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2152,19 +2287,19 @@
         <v>2668</v>
       </c>
       <c r="C13" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D13">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="F13" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="G13" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2172,22 +2307,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>2668</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D14">
-        <v>965</v>
+        <v>992</v>
       </c>
       <c r="E14" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F14" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="G14" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2195,22 +2330,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>266</v>
+        <v>1131</v>
       </c>
       <c r="C15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D15">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F15" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="G15" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2218,22 +2353,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>1131</v>
+        <v>4166</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D16">
-        <v>1004</v>
+        <v>1036</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F16" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="G16" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2244,19 +2379,19 @@
         <v>4166</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D17">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F17" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="G17" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2267,19 +2402,19 @@
         <v>4166</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D18">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="G18" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2290,19 +2425,19 @@
         <v>4166</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D19">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="G19" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2310,22 +2445,22 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>4166</v>
+        <v>2200</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D20">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="F20" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="G20" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2333,22 +2468,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>2200</v>
+        <v>3123</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D21">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="G21" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2359,19 +2494,19 @@
         <v>3123</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D22">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="G22" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2382,19 +2517,19 @@
         <v>3123</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D23">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F23" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="G23" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2405,19 +2540,19 @@
         <v>3123</v>
       </c>
       <c r="C24" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D24">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F24" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="G24" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2425,22 +2560,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>3123</v>
+        <v>1694</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D25">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F25" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="G25" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2448,22 +2583,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>1694</v>
+        <v>2494</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D26">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="E26" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
       <c r="G26" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2471,22 +2606,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>2494</v>
+        <v>3603</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D27">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E27" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F27" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="G27" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2494,22 +2629,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>3603</v>
+        <v>1085</v>
       </c>
       <c r="C28" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D28">
-        <v>1056</v>
+        <v>1076</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F28" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="G28" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2517,22 +2652,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>1085</v>
+        <v>388</v>
       </c>
       <c r="C29" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D29">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E29" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="F29" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="G29" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2540,22 +2675,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>388</v>
+        <v>684</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D30">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E30" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F30" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="G30" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2563,22 +2698,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>684</v>
+        <v>1184</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D31">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E31" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F31" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="G31" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2586,22 +2721,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>1184</v>
+        <v>1240</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D32">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E32" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F32" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="G32" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2609,22 +2744,22 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>1240</v>
+        <v>968</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D33">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E33" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F33" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="G33" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2632,22 +2767,22 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>968</v>
+        <v>1735</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D34">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E34" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F34" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="G34" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2658,19 +2793,19 @@
         <v>1735</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D35">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F35" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="G35" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2678,22 +2813,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>1735</v>
+        <v>3603</v>
       </c>
       <c r="C36" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D36">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="G36" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2704,19 +2839,19 @@
         <v>3603</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D37">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F37" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="G37" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2724,22 +2859,22 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>3603</v>
+        <v>2223</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D38">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="F38" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="G38" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2747,22 +2882,22 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>2223</v>
+        <v>1967</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D39">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F39" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="G39" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2770,22 +2905,22 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>1967</v>
+        <v>501</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D40">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="G40" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2799,13 +2934,13 @@
         <v>1166</v>
       </c>
       <c r="E41" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F41" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="G41" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2819,13 +2954,13 @@
         <v>1168</v>
       </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F42" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="G42" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2836,19 +2971,19 @@
         <v>3034</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D43">
         <v>1211</v>
       </c>
       <c r="E43" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F43" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="G43" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2859,19 +2994,19 @@
         <v>3034</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D44">
         <v>1212</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="F44" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="G44" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2882,19 +3017,19 @@
         <v>3034</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D45">
         <v>1213</v>
       </c>
       <c r="E45" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="F45" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="G45" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2905,19 +3040,19 @@
         <v>3804</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D46">
         <v>1293</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="G46" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2928,19 +3063,19 @@
         <v>760</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D47">
         <v>1318</v>
       </c>
       <c r="E47" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="F47" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="G47" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2951,19 +3086,19 @@
         <v>3034</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D48">
         <v>1321</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="F48" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="G48" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2974,19 +3109,19 @@
         <v>745</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D49">
         <v>1350</v>
       </c>
       <c r="E49" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="F49" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="G49" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2997,19 +3132,19 @@
         <v>501</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D50">
         <v>1359</v>
       </c>
       <c r="E50" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F50" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="G50" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3020,19 +3155,19 @@
         <v>2125</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D51">
         <v>1367</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="G51" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3043,19 +3178,19 @@
         <v>429</v>
       </c>
       <c r="C52" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D52">
         <v>1393</v>
       </c>
       <c r="E52" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="G52" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3066,19 +3201,19 @@
         <v>374</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D53">
         <v>1479</v>
       </c>
       <c r="E53" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="F53" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="G53" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3089,19 +3224,19 @@
         <v>2182</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D54">
         <v>1572</v>
       </c>
       <c r="E54" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="F54" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="G54" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3112,19 +3247,19 @@
         <v>2182</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D55">
         <v>1573</v>
       </c>
       <c r="E55" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="F55" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="G55" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3135,19 +3270,19 @@
         <v>501</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D56">
         <v>1586</v>
       </c>
       <c r="E56" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="F56" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="G56" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3158,19 +3293,19 @@
         <v>328</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D57">
         <v>1709</v>
       </c>
       <c r="E57" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F57" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="G57" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3184,13 +3319,13 @@
         <v>1716</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F58" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
       <c r="G58" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3201,19 +3336,19 @@
         <v>2223</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D59">
         <v>2734</v>
       </c>
       <c r="E59" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F59" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="G59" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3224,19 +3359,19 @@
         <v>501</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D60">
         <v>2774</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="F60" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
       <c r="G60" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3247,19 +3382,19 @@
         <v>3763</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D61">
         <v>2792</v>
       </c>
       <c r="E61" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F61" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="G61" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3270,19 +3405,19 @@
         <v>2302</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D62">
         <v>2809</v>
       </c>
       <c r="E62" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F62" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="G62" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3293,19 +3428,19 @@
         <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D63">
         <v>2820</v>
       </c>
       <c r="E63" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="F63" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="G63" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3316,19 +3451,19 @@
         <v>1598</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D64">
         <v>3533</v>
       </c>
       <c r="E64" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F64" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="G64" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3339,19 +3474,19 @@
         <v>3603</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D65">
         <v>5521</v>
       </c>
       <c r="E65" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="F65" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="G65" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3362,19 +3497,19 @@
         <v>3123</v>
       </c>
       <c r="C66" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D66">
         <v>5522</v>
       </c>
       <c r="E66" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F66" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
       <c r="G66" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3388,13 +3523,13 @@
         <v>5580</v>
       </c>
       <c r="E67" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F67" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="G67" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3405,19 +3540,19 @@
         <v>1512</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D68">
         <v>5659</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="F68" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
       <c r="G68" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3428,19 +3563,19 @@
         <v>3603</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D69">
         <v>5662</v>
       </c>
       <c r="E69" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F69" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
       <c r="G69" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3451,19 +3586,19 @@
         <v>1598</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D70">
         <v>5695</v>
       </c>
       <c r="E70" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="F70" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="G70" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3474,19 +3609,19 @@
         <v>2200</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D71">
         <v>5718</v>
       </c>
       <c r="E71" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="F71" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="G71" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3497,19 +3632,19 @@
         <v>536</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D72">
         <v>5865</v>
       </c>
       <c r="E72" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="F72" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="G72" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3520,19 +3655,19 @@
         <v>4166</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D73">
         <v>6662</v>
       </c>
       <c r="E73" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F73" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="G73" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3543,19 +3678,19 @@
         <v>2200</v>
       </c>
       <c r="C74" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D74">
         <v>6663</v>
       </c>
       <c r="E74" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="F74" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="G74" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3566,19 +3701,19 @@
         <v>1125</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="D75">
         <v>6699</v>
       </c>
       <c r="E75" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="F75" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="G75" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3589,19 +3724,19 @@
         <v>768</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D76">
         <v>6759</v>
       </c>
       <c r="E76" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="F76" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="G76" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3612,19 +3747,19 @@
         <v>768</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D77">
         <v>6760</v>
       </c>
       <c r="E77" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="F77" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
       <c r="G77" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3635,19 +3770,19 @@
         <v>768</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D78">
         <v>6761</v>
       </c>
       <c r="E78" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F78" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
       <c r="G78" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3658,19 +3793,19 @@
         <v>496</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D79">
         <v>6764</v>
       </c>
       <c r="E79" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="F79" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="G79" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3681,19 +3816,19 @@
         <v>496</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D80">
         <v>6765</v>
       </c>
       <c r="E80" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="F80" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="G80" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3704,19 +3839,19 @@
         <v>768</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D81">
         <v>6766</v>
       </c>
       <c r="E81" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="F81" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="G81" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3727,19 +3862,19 @@
         <v>768</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D82">
         <v>6767</v>
       </c>
       <c r="E82" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="F82" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="G82" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3750,19 +3885,19 @@
         <v>496</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D83">
         <v>6768</v>
       </c>
       <c r="E83" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="F83" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="G83" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3773,19 +3908,19 @@
         <v>496</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D84">
         <v>6769</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="F84" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="G84" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3796,19 +3931,19 @@
         <v>2302</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D85">
         <v>6770</v>
       </c>
       <c r="E85" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="F85" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="G85" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3819,19 +3954,19 @@
         <v>3763</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D86">
         <v>6781</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="F86" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="G86" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3842,19 +3977,19 @@
         <v>3763</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D87">
         <v>6782</v>
       </c>
       <c r="E87" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F87" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="G87" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3865,19 +4000,19 @@
         <v>3763</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D88">
         <v>6783</v>
       </c>
       <c r="E88" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="F88" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="G88" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3888,19 +4023,19 @@
         <v>1598</v>
       </c>
       <c r="C89" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D89">
         <v>6789</v>
       </c>
       <c r="E89" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F89" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="G89" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3911,19 +4046,19 @@
         <v>672</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D90">
         <v>6791</v>
       </c>
       <c r="E90" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F90" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="G90" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3934,19 +4069,19 @@
         <v>546</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D91">
         <v>6795</v>
       </c>
       <c r="E91" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="F91" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="G91" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3957,19 +4092,19 @@
         <v>498</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D92">
         <v>6796</v>
       </c>
       <c r="E92" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="F92" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="G92" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3980,19 +4115,19 @@
         <v>498</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D93">
         <v>6797</v>
       </c>
       <c r="E93" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="F93" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="G93" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4003,19 +4138,19 @@
         <v>498</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D94">
         <v>6798</v>
       </c>
       <c r="E94" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="F94" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="G94" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4026,19 +4161,19 @@
         <v>498</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D95">
         <v>6799</v>
       </c>
       <c r="E95" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="F95" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="G95" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4049,19 +4184,19 @@
         <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D96">
         <v>6808</v>
       </c>
       <c r="E96" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F96" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="G96" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4072,19 +4207,19 @@
         <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D97">
         <v>6809</v>
       </c>
       <c r="E97" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F97" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="G97" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4095,19 +4230,19 @@
         <v>420</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D98">
         <v>6814</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="F98" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="G98" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4118,19 +4253,19 @@
         <v>2302</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D99">
         <v>6847</v>
       </c>
       <c r="E99" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="F99" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="G99" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4141,19 +4276,19 @@
         <v>2302</v>
       </c>
       <c r="C100" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D100">
         <v>6848</v>
       </c>
       <c r="E100" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F100" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="G100" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4164,19 +4299,19 @@
         <v>1335</v>
       </c>
       <c r="C101" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D101">
         <v>6849</v>
       </c>
       <c r="E101" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F101" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="G101" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4187,19 +4322,19 @@
         <v>682</v>
       </c>
       <c r="C102" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D102">
         <v>6852</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="F102" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="G102" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4210,19 +4345,19 @@
         <v>682</v>
       </c>
       <c r="C103" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D103">
         <v>6853</v>
       </c>
       <c r="E103" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="F103" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="G103" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4233,19 +4368,19 @@
         <v>508</v>
       </c>
       <c r="C104" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D104">
         <v>6857</v>
       </c>
       <c r="E104" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="F104" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="G104" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4256,19 +4391,19 @@
         <v>508</v>
       </c>
       <c r="C105" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D105">
         <v>6858</v>
       </c>
       <c r="E105" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F105" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="G105" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4279,19 +4414,19 @@
         <v>508</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D106">
         <v>6859</v>
       </c>
       <c r="E106" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="F106" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="G106" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4302,19 +4437,19 @@
         <v>508</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D107">
         <v>6860</v>
       </c>
       <c r="E107" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="F107" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="G107" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4325,19 +4460,19 @@
         <v>508</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D108">
         <v>6861</v>
       </c>
       <c r="E108" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="F108" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="G108" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4348,19 +4483,19 @@
         <v>380</v>
       </c>
       <c r="C109" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D109">
         <v>6875</v>
       </c>
       <c r="E109" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="F109" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="G109" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4371,19 +4506,19 @@
         <v>429</v>
       </c>
       <c r="C110" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D110">
         <v>6894</v>
       </c>
       <c r="E110" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F110" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="G110" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4394,19 +4529,19 @@
         <v>429</v>
       </c>
       <c r="C111" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D111">
         <v>6896</v>
       </c>
       <c r="E111" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="F111" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="G111" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4417,19 +4552,19 @@
         <v>429</v>
       </c>
       <c r="C112" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D112">
         <v>6897</v>
       </c>
       <c r="E112" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F112" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="G112" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4440,19 +4575,19 @@
         <v>229</v>
       </c>
       <c r="C113" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D113">
         <v>7674</v>
       </c>
       <c r="E113" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F113" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="G113" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4463,19 +4598,19 @@
         <v>463</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D114">
         <v>7675</v>
       </c>
       <c r="E114" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="F114" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="G114" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4486,19 +4621,19 @@
         <v>1240</v>
       </c>
       <c r="C115" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D115">
         <v>7695</v>
       </c>
       <c r="E115" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F115" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="G115" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4509,19 +4644,19 @@
         <v>1367</v>
       </c>
       <c r="C116" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D116">
         <v>7860</v>
       </c>
       <c r="E116" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="F116" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="G116" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4532,19 +4667,19 @@
         <v>1367</v>
       </c>
       <c r="C117" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D117">
         <v>7862</v>
       </c>
       <c r="E117" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="F117" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="G117" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4555,19 +4690,19 @@
         <v>1367</v>
       </c>
       <c r="C118" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D118">
         <v>7873</v>
       </c>
       <c r="E118" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="F118" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="G118" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4578,19 +4713,19 @@
         <v>387</v>
       </c>
       <c r="C119" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D119">
         <v>7936</v>
       </c>
       <c r="E119" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="F119" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="G119" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4601,19 +4736,19 @@
         <v>682</v>
       </c>
       <c r="C120" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D120">
         <v>7939</v>
       </c>
       <c r="E120" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="F120" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="G120" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4624,19 +4759,19 @@
         <v>2182</v>
       </c>
       <c r="C121" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D121">
         <v>7943</v>
       </c>
       <c r="E121" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="F121" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="G121" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4647,19 +4782,19 @@
         <v>1598</v>
       </c>
       <c r="C122" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D122">
         <v>7945</v>
       </c>
       <c r="E122" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="F122" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="G122" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4670,19 +4805,19 @@
         <v>2453</v>
       </c>
       <c r="C123" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D123">
         <v>7959</v>
       </c>
       <c r="E123" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F123" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="G123" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4693,19 +4828,19 @@
         <v>2125</v>
       </c>
       <c r="C124" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D124">
         <v>7961</v>
       </c>
       <c r="E124" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F124" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="G124" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4716,19 +4851,19 @@
         <v>4953</v>
       </c>
       <c r="C125" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D125">
         <v>7962</v>
       </c>
       <c r="E125" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="F125" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="G125" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4739,19 +4874,19 @@
         <v>2125</v>
       </c>
       <c r="C126" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D126">
         <v>8283</v>
       </c>
       <c r="E126" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="F126" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="G126" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4762,19 +4897,19 @@
         <v>2453</v>
       </c>
       <c r="C127" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D127">
         <v>8284</v>
       </c>
       <c r="E127" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="F127" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="G127" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4785,19 +4920,19 @@
         <v>2182</v>
       </c>
       <c r="C128" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D128">
         <v>8294</v>
       </c>
       <c r="E128" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="F128" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="G128" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4808,19 +4943,19 @@
         <v>429</v>
       </c>
       <c r="C129" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D129">
         <v>8504</v>
       </c>
       <c r="E129" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F129" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="G129" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4831,19 +4966,19 @@
         <v>2182</v>
       </c>
       <c r="C130" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D130">
         <v>8577</v>
       </c>
       <c r="E130" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F130" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="G130" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4854,19 +4989,19 @@
         <v>2212</v>
       </c>
       <c r="C131" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D131">
         <v>8700</v>
       </c>
       <c r="E131" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="F131" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="G131" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4877,19 +5012,19 @@
         <v>2212</v>
       </c>
       <c r="C132" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D132">
         <v>8701</v>
       </c>
       <c r="E132" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F132" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="G132" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4900,19 +5035,19 @@
         <v>2212</v>
       </c>
       <c r="C133" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D133">
         <v>8702</v>
       </c>
       <c r="E133" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F133" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="G133" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4923,19 +5058,19 @@
         <v>2212</v>
       </c>
       <c r="C134" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D134">
         <v>8703</v>
       </c>
       <c r="E134" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="F134" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="G134" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4946,19 +5081,19 @@
         <v>1367</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D135">
         <v>8710</v>
       </c>
       <c r="E135" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="F135" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="G135" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4969,19 +5104,19 @@
         <v>3018</v>
       </c>
       <c r="C136" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D136">
         <v>8748</v>
       </c>
       <c r="E136" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="F136" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="G136" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4992,19 +5127,19 @@
         <v>4953</v>
       </c>
       <c r="C137" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D137">
         <v>8769</v>
       </c>
       <c r="E137" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F137" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="G137" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5018,13 +5153,13 @@
         <v>8774</v>
       </c>
       <c r="E138" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F138" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="G138" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5035,19 +5170,19 @@
         <v>2944</v>
       </c>
       <c r="C139" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D139">
         <v>9456</v>
       </c>
       <c r="E139" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="F139" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="G139" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5058,19 +5193,19 @@
         <v>4662</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D140">
         <v>9517</v>
       </c>
       <c r="E140" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F140" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
       <c r="G140" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5081,19 +5216,19 @@
         <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="D141">
         <v>11961</v>
       </c>
       <c r="E141" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="F141" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="G141" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5104,19 +5239,19 @@
         <v>2409</v>
       </c>
       <c r="C142" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D142">
         <v>12065</v>
       </c>
       <c r="E142" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F142" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
       <c r="G142" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5130,13 +5265,13 @@
         <v>12112</v>
       </c>
       <c r="E143" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="F143" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="G143" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5147,19 +5282,19 @@
         <v>3904</v>
       </c>
       <c r="C144" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D144">
         <v>12410</v>
       </c>
       <c r="E144" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="F144" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="G144" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5170,19 +5305,19 @@
         <v>3904</v>
       </c>
       <c r="C145" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D145">
         <v>12412</v>
       </c>
       <c r="E145" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="F145" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="G145" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5193,19 +5328,19 @@
         <v>6293</v>
       </c>
       <c r="C146" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D146">
         <v>12414</v>
       </c>
       <c r="E146" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F146" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="G146" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5216,19 +5351,19 @@
         <v>6293</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D147">
         <v>12415</v>
       </c>
       <c r="E147" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="F147" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="G147" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5239,19 +5374,19 @@
         <v>6293</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D148">
         <v>12416</v>
       </c>
       <c r="E148" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F148" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="G148" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5262,19 +5397,19 @@
         <v>9325</v>
       </c>
       <c r="C149" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D149">
         <v>12419</v>
       </c>
       <c r="E149" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="F149" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="G149" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5285,19 +5420,19 @@
         <v>9325</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D150">
         <v>12420</v>
       </c>
       <c r="E150" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="F150" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="G150" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5308,19 +5443,19 @@
         <v>6712</v>
       </c>
       <c r="C151" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D151">
         <v>12518</v>
       </c>
       <c r="E151" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F151" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="G151" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5331,19 +5466,19 @@
         <v>3904</v>
       </c>
       <c r="C152" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D152">
         <v>13016</v>
       </c>
       <c r="E152" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F152" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="G152" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5354,19 +5489,19 @@
         <v>1482</v>
       </c>
       <c r="C153" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D153">
         <v>14517</v>
       </c>
       <c r="E153" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="F153" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="G153" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5377,19 +5512,19 @@
         <v>2750</v>
       </c>
       <c r="C154" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D154">
         <v>14542</v>
       </c>
       <c r="E154" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F154" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="G154" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5400,19 +5535,19 @@
         <v>2182</v>
       </c>
       <c r="C155" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D155">
         <v>15310</v>
       </c>
       <c r="E155" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F155" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="G155" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5423,19 +5558,19 @@
         <v>1581</v>
       </c>
       <c r="C156" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D156">
         <v>15371</v>
       </c>
       <c r="E156" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="F156" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="G156" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5443,22 +5578,22 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>1497</v>
+        <v>4195</v>
       </c>
       <c r="C157" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D157">
-        <v>15773</v>
+        <v>15769</v>
       </c>
       <c r="E157" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="F157" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="G157" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5466,22 +5601,22 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>6638</v>
+        <v>1497</v>
       </c>
       <c r="C158" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D158">
-        <v>15777</v>
+        <v>15773</v>
       </c>
       <c r="E158" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="F158" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="G158" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5489,22 +5624,22 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>3804</v>
+        <v>6638</v>
       </c>
       <c r="C159" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D159">
-        <v>15779</v>
+        <v>15777</v>
       </c>
       <c r="E159" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="F159" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="G159" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5512,22 +5647,22 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>542</v>
+        <v>3804</v>
       </c>
       <c r="C160" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D160">
-        <v>15953</v>
+        <v>15779</v>
       </c>
       <c r="E160" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F160" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="G160" t="s">
-        <v>498</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5535,22 +5670,367 @@
         <v>166</v>
       </c>
       <c r="B161">
+        <v>542</v>
+      </c>
+      <c r="C161" t="s">
+        <v>184</v>
+      </c>
+      <c r="D161">
+        <v>15953</v>
+      </c>
+      <c r="E161" t="s">
+        <v>352</v>
+      </c>
+      <c r="F161" t="s">
+        <v>527</v>
+      </c>
+      <c r="G161" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>167</v>
+      </c>
+      <c r="B162">
         <v>932</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C162" t="s">
+        <v>184</v>
+      </c>
+      <c r="D162">
+        <v>15956</v>
+      </c>
+      <c r="E162" t="s">
+        <v>353</v>
+      </c>
+      <c r="F162" t="s">
+        <v>528</v>
+      </c>
+      <c r="G162" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163">
+        <v>1777</v>
+      </c>
+      <c r="C163" t="s">
+        <v>182</v>
+      </c>
+      <c r="D163">
+        <v>16262</v>
+      </c>
+      <c r="E163" t="s">
+        <v>354</v>
+      </c>
+      <c r="F163" t="s">
+        <v>529</v>
+      </c>
+      <c r="G163" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
         <v>169</v>
       </c>
-      <c r="D161">
-        <v>15956</v>
-      </c>
-      <c r="E161" t="s">
-        <v>337</v>
-      </c>
-      <c r="F161" t="s">
-        <v>497</v>
-      </c>
-      <c r="G161" t="s">
-        <v>498</v>
+      <c r="B164">
+        <v>501</v>
+      </c>
+      <c r="C164" t="s">
+        <v>182</v>
+      </c>
+      <c r="D164">
+        <v>16265</v>
+      </c>
+      <c r="E164" t="s">
+        <v>355</v>
+      </c>
+      <c r="F164" t="s">
+        <v>530</v>
+      </c>
+      <c r="G164" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>170</v>
+      </c>
+      <c r="B165">
+        <v>536</v>
+      </c>
+      <c r="C165" t="s">
+        <v>182</v>
+      </c>
+      <c r="D165">
+        <v>16267</v>
+      </c>
+      <c r="E165" t="s">
+        <v>356</v>
+      </c>
+      <c r="F165" t="s">
+        <v>531</v>
+      </c>
+      <c r="G165" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>171</v>
+      </c>
+      <c r="B166">
+        <v>2070</v>
+      </c>
+      <c r="C166" t="s">
+        <v>182</v>
+      </c>
+      <c r="D166">
+        <v>16269</v>
+      </c>
+      <c r="E166" t="s">
+        <v>357</v>
+      </c>
+      <c r="F166" t="s">
+        <v>532</v>
+      </c>
+      <c r="G166" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>172</v>
+      </c>
+      <c r="B167">
+        <v>2070</v>
+      </c>
+      <c r="C167" t="s">
+        <v>182</v>
+      </c>
+      <c r="D167">
+        <v>16270</v>
+      </c>
+      <c r="E167" t="s">
+        <v>358</v>
+      </c>
+      <c r="F167" t="s">
+        <v>533</v>
+      </c>
+      <c r="G167" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>173</v>
+      </c>
+      <c r="B168">
+        <v>2070</v>
+      </c>
+      <c r="C168" t="s">
+        <v>182</v>
+      </c>
+      <c r="D168">
+        <v>16271</v>
+      </c>
+      <c r="E168" t="s">
+        <v>359</v>
+      </c>
+      <c r="F168" t="s">
+        <v>534</v>
+      </c>
+      <c r="G168" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>174</v>
+      </c>
+      <c r="B169">
+        <v>9325</v>
+      </c>
+      <c r="C169" t="s">
+        <v>182</v>
+      </c>
+      <c r="D169">
+        <v>16277</v>
+      </c>
+      <c r="E169" t="s">
+        <v>360</v>
+      </c>
+      <c r="F169" t="s">
+        <v>535</v>
+      </c>
+      <c r="G169" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>175</v>
+      </c>
+      <c r="B170">
+        <v>6712</v>
+      </c>
+      <c r="C170" t="s">
+        <v>182</v>
+      </c>
+      <c r="D170">
+        <v>16278</v>
+      </c>
+      <c r="E170" t="s">
+        <v>361</v>
+      </c>
+      <c r="F170" t="s">
+        <v>536</v>
+      </c>
+      <c r="G170" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171">
+        <v>4195</v>
+      </c>
+      <c r="C171" t="s">
+        <v>182</v>
+      </c>
+      <c r="D171">
+        <v>16280</v>
+      </c>
+      <c r="E171" t="s">
+        <v>362</v>
+      </c>
+      <c r="F171" t="s">
+        <v>537</v>
+      </c>
+      <c r="G171" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172">
+        <v>4195</v>
+      </c>
+      <c r="C172" t="s">
+        <v>182</v>
+      </c>
+      <c r="D172">
+        <v>16281</v>
+      </c>
+      <c r="E172" t="s">
+        <v>363</v>
+      </c>
+      <c r="F172" t="s">
+        <v>538</v>
+      </c>
+      <c r="G172" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173">
+        <v>6638</v>
+      </c>
+      <c r="C173" t="s">
+        <v>182</v>
+      </c>
+      <c r="D173">
+        <v>16284</v>
+      </c>
+      <c r="E173" t="s">
+        <v>364</v>
+      </c>
+      <c r="F173" t="s">
+        <v>539</v>
+      </c>
+      <c r="G173" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174">
+        <v>2447</v>
+      </c>
+      <c r="C174" t="s">
+        <v>182</v>
+      </c>
+      <c r="D174">
+        <v>16289</v>
+      </c>
+      <c r="E174" t="s">
+        <v>365</v>
+      </c>
+      <c r="F174" t="s">
+        <v>540</v>
+      </c>
+      <c r="G174" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175">
+        <v>2447</v>
+      </c>
+      <c r="C175" t="s">
+        <v>182</v>
+      </c>
+      <c r="D175">
+        <v>16290</v>
+      </c>
+      <c r="E175" t="s">
+        <v>366</v>
+      </c>
+      <c r="F175" t="s">
+        <v>541</v>
+      </c>
+      <c r="G175" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176">
+        <v>487</v>
+      </c>
+      <c r="C176" t="s">
+        <v>189</v>
+      </c>
+      <c r="D176">
+        <v>16291</v>
+      </c>
+      <c r="E176" t="s">
+        <v>367</v>
+      </c>
+      <c r="F176" t="s">
+        <v>542</v>
+      </c>
+      <c r="G176" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>

--- a/data/procesados/drimel.xlsx
+++ b/data/procesados/drimel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="525">
   <si>
     <t>Nombre</t>
   </si>
@@ -145,9 +145,6 @@
     <t>HUGGIES FLEXI COMFORT Gx60</t>
   </si>
   <si>
-    <t>HUGGIES SUPREME RNx34</t>
-  </si>
-  <si>
     <t>HUGGIES FLEXI COMFORT Px50</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>HUGGIES TOALLA OLEO RNx48</t>
   </si>
   <si>
-    <t>PAMPERS SUPER XTR REG.Gx9</t>
-  </si>
-  <si>
     <t>PAMPERS PANTS PC Mx34</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
     <t>HUGGIES PROTECT AHORRO XXXGx48</t>
   </si>
   <si>
-    <t>SELEC.EST.HIPER Mx44</t>
-  </si>
-  <si>
     <t>HUGGIES SUPREME PREMATUROSx30</t>
   </si>
   <si>
@@ -256,9 +247,6 @@
     <t>DUFFY PAÑAL PREMIUM Gx36</t>
   </si>
   <si>
-    <t>CARICIA PANAL XXGx22</t>
-  </si>
-  <si>
     <t>ESTRELLA ACONDICIONADOR SUAVESx400</t>
   </si>
   <si>
@@ -325,7 +313,7 @@
     <t>ESTRELLA JABON BABY SUAVIDAD</t>
   </si>
   <si>
-    <t>ESTRELLA HISOPOSx100</t>
+    <t>ESTRELLA OLEO ALOEx250</t>
   </si>
   <si>
     <t>ESTRELLA PAÑAL HIPER XGx36</t>
@@ -361,6 +349,9 @@
     <t>ESTRELLA POMPONES x50</t>
   </si>
   <si>
+    <t>ESTRELLA JABON BABY DUERME FELIZ</t>
+  </si>
+  <si>
     <t>BABYSEC ULTRA REGULAR Px12</t>
   </si>
   <si>
@@ -370,6 +361,9 @@
     <t>BABYSEC ULTRA REGULAR XGx8</t>
   </si>
   <si>
+    <t>ESTRELLA PAÑOS MAXI ALGODONx50</t>
+  </si>
+  <si>
     <t>CANDY TOALLAS HUMEDASx70</t>
   </si>
   <si>
@@ -379,6 +373,9 @@
     <t>HUGGIES SUPREME Px17</t>
   </si>
   <si>
+    <t>PAMPERS CONFORT XTR HIPER XGx36</t>
+  </si>
+  <si>
     <t>DUFFY PAÑAL HIPER Mx38</t>
   </si>
   <si>
@@ -388,7 +385,7 @@
     <t>DUFFY PAÑAL HIPER XGx28</t>
   </si>
   <si>
-    <t>ESTRELLA HISOPOS BOLSAx125</t>
+    <t>ESTRELLA TOALLAS HUMEDAS SENSIBLEx50</t>
   </si>
   <si>
     <t>ESTRELLA PAÑAL REGULAR Gx9</t>
@@ -442,12 +439,12 @@
     <t>PAMPERS PANTS CS HIPER XXGx32</t>
   </si>
   <si>
-    <t>PAMPERS PANTS PC MES XXGx52</t>
-  </si>
-  <si>
     <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
   </si>
   <si>
+    <t>BABYSEC RECIEN NACIDOx20</t>
+  </si>
+  <si>
     <t>BABYSEC SUPER PREMIUM Gx44</t>
   </si>
   <si>
@@ -463,9 +460,6 @@
     <t>ST VALLEY HISOPOS x100</t>
   </si>
   <si>
-    <t>PAMPERS BABYSAN MES Gx72</t>
-  </si>
-  <si>
     <t>PAMPERS BABYSAN MES XXGx54</t>
   </si>
   <si>
@@ -493,16 +487,13 @@
     <t>ESTRELLA OLEO ALGODONx950</t>
   </si>
   <si>
-    <t>PAMPERS BABYSAN Px52</t>
-  </si>
-  <si>
     <t>HUGGIES PLUS PROTECT XXGx30</t>
   </si>
   <si>
     <t>DUFFY PAÑAL HIPER Px44</t>
   </si>
   <si>
-    <t>PAMPERS CONFORT XTR MES XGx58</t>
+    <t>ESTRELLA OLEO ALGODONx500</t>
   </si>
   <si>
     <t>PAMPERS CONFORT XTR RN+ x36</t>
@@ -511,15 +502,9 @@
     <t>PAMPERS PREMIUM JUMBO Gx96</t>
   </si>
   <si>
-    <t>PAMPERS PREMIUM HIPER XXGx34</t>
-  </si>
-  <si>
     <t>HUGGIES TOALLA 4en1 x48</t>
   </si>
   <si>
-    <t>HUGGIES TOALLA PUROx48</t>
-  </si>
-  <si>
     <t>PAMPERS SUPER XTR ULTRA XGx32</t>
   </si>
   <si>
@@ -529,9 +514,6 @@
     <t>PAMPERS CONFORT XTR REG.XXGx8</t>
   </si>
   <si>
-    <t>PAMPERS TOTAL PROTECT Mx52</t>
-  </si>
-  <si>
     <t>PAMPERS TOTAL PROTECT Gx44</t>
   </si>
   <si>
@@ -544,24 +526,24 @@
     <t>PAMPERS CONFORT XTR JUMBO Gx110</t>
   </si>
   <si>
-    <t>PAMPERS CONFORT XTR MES Mx72</t>
-  </si>
-  <si>
-    <t>PAMPERS CONFORT XTR MES XXGx54</t>
-  </si>
-  <si>
     <t>PAMPERS PREMIUM JUMBO XXGx88</t>
   </si>
   <si>
     <t>PAMPERS SUPER HYP XGx36</t>
   </si>
   <si>
-    <t>PAMPERS SUPER HYP XXGx34</t>
-  </si>
-  <si>
     <t>ESTRELLA TOALLAS HUMEDAS RELAJANTEx50</t>
   </si>
   <si>
+    <t>ESTRELLA PAÑAL NEW SUPER XXGx50</t>
+  </si>
+  <si>
+    <t>ESTRELLA PAÑAL NEW SUPER Gx60</t>
+  </si>
+  <si>
+    <t>HUGGIES CREMA PROTECTORAx80</t>
+  </si>
+  <si>
     <t>Pampers</t>
   </si>
   <si>
@@ -586,9 +568,6 @@
     <t>Estrella</t>
   </si>
   <si>
-    <t>Caricia</t>
-  </si>
-  <si>
     <t>Candy</t>
   </si>
   <si>
@@ -703,9 +682,6 @@
     <t>7794626010606</t>
   </si>
   <si>
-    <t>7794626010415</t>
-  </si>
-  <si>
     <t>7794626010675</t>
   </si>
   <si>
@@ -739,9 +715,6 @@
     <t>7794626997099</t>
   </si>
   <si>
-    <t>7500435183130</t>
-  </si>
-  <si>
     <t>7500435145930</t>
   </si>
   <si>
@@ -790,9 +763,6 @@
     <t>7794626011955</t>
   </si>
   <si>
-    <t>1511</t>
-  </si>
-  <si>
     <t>7794626007149</t>
   </si>
   <si>
@@ -814,9 +784,6 @@
     <t>7798350082366</t>
   </si>
   <si>
-    <t>7790250094180</t>
-  </si>
-  <si>
     <t>7790064007093</t>
   </si>
   <si>
@@ -883,7 +850,7 @@
     <t>7790064104501</t>
   </si>
   <si>
-    <t>7790064104662</t>
+    <t>7790064104846</t>
   </si>
   <si>
     <t>7790064004085</t>
@@ -919,6 +886,9 @@
     <t>7790064002029</t>
   </si>
   <si>
+    <t>7790064104518</t>
+  </si>
+  <si>
     <t>7790250044208</t>
   </si>
   <si>
@@ -928,6 +898,9 @@
     <t>7790250044239</t>
   </si>
   <si>
+    <t>7790064002173</t>
+  </si>
+  <si>
     <t>7798269140065</t>
   </si>
   <si>
@@ -937,6 +910,9 @@
     <t>7794626010408</t>
   </si>
   <si>
+    <t>7500435189071</t>
+  </si>
+  <si>
     <t>7798350082380</t>
   </si>
   <si>
@@ -946,7 +922,7 @@
     <t>7798350081284</t>
   </si>
   <si>
-    <t>7790064104709</t>
+    <t>7790064104693</t>
   </si>
   <si>
     <t>7790064004054</t>
@@ -1000,12 +976,12 @@
     <t>7500435207577</t>
   </si>
   <si>
-    <t>7500435189668</t>
-  </si>
-  <si>
     <t>7791274198359</t>
   </si>
   <si>
+    <t>7502247331549</t>
+  </si>
+  <si>
     <t>7730219049028</t>
   </si>
   <si>
@@ -1021,9 +997,6 @@
     <t>7791274200861</t>
   </si>
   <si>
-    <t>7500435228534</t>
-  </si>
-  <si>
     <t>7500435228565</t>
   </si>
   <si>
@@ -1051,16 +1024,13 @@
     <t>7790064104815</t>
   </si>
   <si>
-    <t>7500435230506</t>
-  </si>
-  <si>
     <t>7794626011900</t>
   </si>
   <si>
     <t>7798350084322</t>
   </si>
   <si>
-    <t>7500435189118</t>
+    <t>7790064104808</t>
   </si>
   <si>
     <t>7500435188920</t>
@@ -1069,15 +1039,9 @@
     <t>7500435155953</t>
   </si>
   <si>
-    <t>7500435182881</t>
-  </si>
-  <si>
     <t>7794626011054</t>
   </si>
   <si>
-    <t>7794626007217</t>
-  </si>
-  <si>
     <t>7500435189286</t>
   </si>
   <si>
@@ -1087,9 +1051,6 @@
     <t>750043588982</t>
   </si>
   <si>
-    <t>7500435167949</t>
-  </si>
-  <si>
     <t>7500435167956</t>
   </si>
   <si>
@@ -1102,24 +1063,24 @@
     <t>7500435189132</t>
   </si>
   <si>
-    <t>7500435189095</t>
-  </si>
-  <si>
-    <t>7500435189125</t>
-  </si>
-  <si>
     <t>7500435222433</t>
   </si>
   <si>
     <t>7500435205344</t>
   </si>
   <si>
-    <t>7500435205351</t>
-  </si>
-  <si>
     <t>7790064104679</t>
   </si>
   <si>
+    <t>7790064005525</t>
+  </si>
+  <si>
+    <t>7790064005501</t>
+  </si>
+  <si>
+    <t>7896018704411</t>
+  </si>
+  <si>
     <t>PAMPERS-CONFORT-XTR-HIPER-XXGx34</t>
   </si>
   <si>
@@ -1228,9 +1189,6 @@
     <t>HUGGIES-FLEXI-COMFORT-Gx60</t>
   </si>
   <si>
-    <t>HUGGIES-SUPREME-RNx34</t>
-  </si>
-  <si>
     <t>HUGGIES-FLEXI-COMFORT-Px50</t>
   </si>
   <si>
@@ -1264,9 +1222,6 @@
     <t>HUGGIES-TOALLA-OLEO-RNx48</t>
   </si>
   <si>
-    <t>PAMPERS-SUPER-XTR-REG-Gx9</t>
-  </si>
-  <si>
     <t>PAMPERS-PANTS-PC-Mx34</t>
   </si>
   <si>
@@ -1315,9 +1270,6 @@
     <t>HUGGIES-PROTECT-AHORRO-XXXGx48</t>
   </si>
   <si>
-    <t>SELEC-EST-HIPER-Mx44</t>
-  </si>
-  <si>
     <t>HUGGIES-SUPREME-PREMATUROSx30</t>
   </si>
   <si>
@@ -1339,9 +1291,6 @@
     <t>DUFFY-PA-AL-PREMIUM-Gx36</t>
   </si>
   <si>
-    <t>CARICIA-PANAL-XXGx22</t>
-  </si>
-  <si>
     <t>ESTRELLA-ACONDICIONADOR-SUAVESx400</t>
   </si>
   <si>
@@ -1408,7 +1357,7 @@
     <t>ESTRELLA-JABON-BABY-SUAVIDAD</t>
   </si>
   <si>
-    <t>ESTRELLA-HISOPOSx100</t>
+    <t>ESTRELLA-OLEO-ALOEx250</t>
   </si>
   <si>
     <t>ESTRELLA-PA-AL-HIPER-XGx36</t>
@@ -1444,6 +1393,9 @@
     <t>ESTRELLA-POMPONES-x50</t>
   </si>
   <si>
+    <t>ESTRELLA-JABON-BABY-DUERME-FELIZ</t>
+  </si>
+  <si>
     <t>BABYSEC-ULTRA-REGULAR-Px12</t>
   </si>
   <si>
@@ -1453,6 +1405,9 @@
     <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
   </si>
   <si>
+    <t>ESTRELLA-PA-OS-MAXI-ALGODONx50</t>
+  </si>
+  <si>
     <t>CANDY-TOALLAS-HUMEDASx70</t>
   </si>
   <si>
@@ -1462,6 +1417,9 @@
     <t>HUGGIES-SUPREME-Px17</t>
   </si>
   <si>
+    <t>PAMPERS-CONFORT-XTR-HIPER-XGx36</t>
+  </si>
+  <si>
     <t>DUFFY-PA-AL-HIPER-Mx38</t>
   </si>
   <si>
@@ -1471,7 +1429,7 @@
     <t>DUFFY-PA-AL-HIPER-XGx28</t>
   </si>
   <si>
-    <t>ESTRELLA-HISOPOS-BOLSAx125</t>
+    <t>ESTRELLA-TOALLAS-HUMEDAS-SENSIBLEx50</t>
   </si>
   <si>
     <t>ESTRELLA-PA-AL-REGULAR-Gx9</t>
@@ -1525,12 +1483,12 @@
     <t>PAMPERS-PANTS-CS-HIPER-XXGx32</t>
   </si>
   <si>
-    <t>PAMPERS-PANTS-PC-MES-XXGx52</t>
-  </si>
-  <si>
     <t>AVENGERS-SPIDERMAN-SHAMPOOx200</t>
   </si>
   <si>
+    <t>BABYSEC-RECIEN-NACIDOx20</t>
+  </si>
+  <si>
     <t>BABYSEC-SUPER-PREMIUM-Gx44</t>
   </si>
   <si>
@@ -1546,9 +1504,6 @@
     <t>ST-VALLEY-HISOPOS-x100</t>
   </si>
   <si>
-    <t>PAMPERS-BABYSAN-MES-Gx72</t>
-  </si>
-  <si>
     <t>PAMPERS-BABYSAN-MES-XXGx54</t>
   </si>
   <si>
@@ -1576,16 +1531,13 @@
     <t>ESTRELLA-OLEO-ALGODONx950</t>
   </si>
   <si>
-    <t>PAMPERS-BABYSAN-Px52</t>
-  </si>
-  <si>
     <t>HUGGIES-PLUS-PROTECT-XXGx30</t>
   </si>
   <si>
     <t>DUFFY-PA-AL-HIPER-Px44</t>
   </si>
   <si>
-    <t>PAMPERS-CONFORT-XTR-MES-XGx58</t>
+    <t>ESTRELLA-OLEO-ALGODONx500</t>
   </si>
   <si>
     <t>PAMPERS-CONFORT-XTR-RN-x36</t>
@@ -1594,15 +1546,9 @@
     <t>PAMPERS-PREMIUM-JUMBO-Gx96</t>
   </si>
   <si>
-    <t>PAMPERS-PREMIUM-HIPER-XXGx34</t>
-  </si>
-  <si>
     <t>HUGGIES-TOALLA-4en1-x48</t>
   </si>
   <si>
-    <t>HUGGIES-TOALLA-PUROx48</t>
-  </si>
-  <si>
     <t>PAMPERS-SUPER-XTR-ULTRA-XGx32</t>
   </si>
   <si>
@@ -1612,9 +1558,6 @@
     <t>PAMPERS-CONFORT-XTR-REG-XXGx8</t>
   </si>
   <si>
-    <t>PAMPERS-TOTAL-PROTECT-Mx52</t>
-  </si>
-  <si>
     <t>PAMPERS-TOTAL-PROTECT-Gx44</t>
   </si>
   <si>
@@ -1627,22 +1570,22 @@
     <t>PAMPERS-CONFORT-XTR-JUMBO-Gx110</t>
   </si>
   <si>
-    <t>PAMPERS-CONFORT-XTR-MES-Mx72</t>
-  </si>
-  <si>
-    <t>PAMPERS-CONFORT-XTR-MES-XXGx54</t>
-  </si>
-  <si>
     <t>PAMPERS-PREMIUM-JUMBO-XXGx88</t>
   </si>
   <si>
     <t>PAMPERS-SUPER-HYP-XGx36</t>
   </si>
   <si>
-    <t>PAMPERS-SUPER-HYP-XXGx34</t>
-  </si>
-  <si>
     <t>ESTRELLA-TOALLAS-HUMEDAS-RELAJANTEx50</t>
+  </si>
+  <si>
+    <t>ESTRELLA-PA-AL-NEW-SUPER-XXGx50</t>
+  </si>
+  <si>
+    <t>ESTRELLA-PA-AL-NEW-SUPER-Gx60</t>
+  </si>
+  <si>
+    <t>HUGGIES-CREMA-PROTECTORAx80</t>
   </si>
   <si>
     <t>Drimel</t>
@@ -2003,7 +1946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2037,22 +1980,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2938</v>
+        <v>3084</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D2">
         <v>872</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="G2" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2060,22 +2003,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2182</v>
+        <v>2218</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D3">
         <v>908</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="G3" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2083,19 +2026,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3015</v>
+        <v>3105</v>
       </c>
       <c r="D4">
         <v>923</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="G4" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2103,19 +2046,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>3015</v>
+        <v>3105</v>
       </c>
       <c r="D5">
         <v>924</v>
       </c>
       <c r="E5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="G5" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2123,22 +2066,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3176</v>
+        <v>3229</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D6">
         <v>949</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="G6" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2146,22 +2089,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>3176</v>
+        <v>3229</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D7">
         <v>950</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="G7" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2169,22 +2112,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>3176</v>
+        <v>3229</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D8">
         <v>951</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="G8" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2192,22 +2135,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>582</v>
+        <v>664</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D9">
         <v>959</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G9" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2215,22 +2158,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>2668</v>
+        <v>2755</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D10">
         <v>962</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="G10" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2238,22 +2181,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>2668</v>
+        <v>2755</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D11">
         <v>963</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F11" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="G11" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2261,22 +2204,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>2668</v>
+        <v>2755</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D12">
         <v>964</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="G12" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2284,22 +2227,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>2668</v>
+        <v>2755</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D13">
         <v>965</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="G13" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2310,19 +2253,19 @@
         <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D14">
         <v>992</v>
       </c>
       <c r="E14" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="G14" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2330,22 +2273,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>1131</v>
+        <v>1412</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D15">
         <v>1004</v>
       </c>
       <c r="E15" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="F15" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="G15" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2353,22 +2296,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>4166</v>
+        <v>4375</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D16">
         <v>1036</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="G16" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2376,22 +2319,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>4166</v>
+        <v>4375</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D17">
         <v>1037</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F17" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="G17" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2399,22 +2342,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>4166</v>
+        <v>4375</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D18">
         <v>1038</v>
       </c>
       <c r="E18" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F18" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="G18" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2422,22 +2365,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>4166</v>
+        <v>4375</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D19">
         <v>1039</v>
       </c>
       <c r="E19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F19" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="G19" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2448,19 +2391,19 @@
         <v>2200</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D20">
         <v>1041</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F20" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G20" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2468,22 +2411,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>3123</v>
+        <v>3239</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D21">
         <v>1045</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F21" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="G21" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2491,22 +2434,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>3123</v>
+        <v>3239</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D22">
         <v>1046</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F22" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G22" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2514,22 +2457,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>3123</v>
+        <v>3239</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D23">
         <v>1047</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F23" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="G23" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2537,22 +2480,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>3123</v>
+        <v>3239</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D24">
         <v>1048</v>
       </c>
       <c r="E24" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F24" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="G24" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2563,19 +2506,19 @@
         <v>1694</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D25">
         <v>1049</v>
       </c>
       <c r="E25" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F25" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G25" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2586,19 +2529,19 @@
         <v>2494</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D26">
         <v>1055</v>
       </c>
       <c r="E26" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G26" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2606,22 +2549,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>3603</v>
+        <v>3784</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D27">
         <v>1056</v>
       </c>
       <c r="E27" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F27" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="G27" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2632,19 +2575,19 @@
         <v>1085</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D28">
         <v>1076</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F28" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G28" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2652,22 +2595,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>388</v>
+        <v>475</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D29">
         <v>1077</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F29" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="G29" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2675,22 +2618,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>684</v>
+        <v>837</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D30">
         <v>1078</v>
       </c>
       <c r="E30" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F30" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G30" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2701,19 +2644,19 @@
         <v>1184</v>
       </c>
       <c r="C31" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D31">
         <v>1079</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F31" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="G31" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2724,19 +2667,19 @@
         <v>1240</v>
       </c>
       <c r="C32" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D32">
         <v>1080</v>
       </c>
       <c r="E32" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F32" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G32" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2747,19 +2690,19 @@
         <v>968</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D33">
         <v>1081</v>
       </c>
       <c r="E33" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F33" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G33" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2770,19 +2713,19 @@
         <v>1735</v>
       </c>
       <c r="C34" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D34">
         <v>1082</v>
       </c>
       <c r="E34" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="G34" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2793,19 +2736,19 @@
         <v>1735</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D35">
         <v>1083</v>
       </c>
       <c r="E35" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F35" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="G35" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2813,22 +2756,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>3603</v>
+        <v>3784</v>
       </c>
       <c r="C36" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D36">
         <v>1084</v>
       </c>
       <c r="E36" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F36" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G36" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2836,22 +2779,22 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>3603</v>
+        <v>3784</v>
       </c>
       <c r="C37" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D37">
         <v>1085</v>
       </c>
       <c r="E37" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F37" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="G37" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2859,22 +2802,22 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>2223</v>
+        <v>1967</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D38">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E38" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F38" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G38" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2882,22 +2825,22 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>1967</v>
+        <v>526</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D39">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E39" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F39" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="G39" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2905,22 +2848,19 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>501</v>
-      </c>
-      <c r="C40" t="s">
-        <v>182</v>
+        <v>1899</v>
       </c>
       <c r="D40">
-        <v>1092</v>
+        <v>1166</v>
       </c>
       <c r="E40" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F40" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G40" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2928,19 +2868,19 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>1844</v>
+        <v>1899</v>
       </c>
       <c r="D41">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="E41" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F41" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="G41" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2948,19 +2888,22 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>1844</v>
+        <v>3186</v>
+      </c>
+      <c r="C42" t="s">
+        <v>178</v>
       </c>
       <c r="D42">
-        <v>1168</v>
+        <v>1211</v>
       </c>
       <c r="E42" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F42" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="G42" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2968,22 +2911,22 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>3034</v>
+        <v>3186</v>
       </c>
       <c r="C43" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D43">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F43" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="G43" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2991,22 +2934,22 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>3034</v>
+        <v>3186</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D44">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E44" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F44" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3014,22 +2957,22 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>3034</v>
+        <v>3994</v>
       </c>
       <c r="C45" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D45">
-        <v>1213</v>
+        <v>1293</v>
       </c>
       <c r="E45" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F45" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="G45" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3037,22 +2980,22 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>3804</v>
+        <v>889</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D46">
-        <v>1293</v>
+        <v>1318</v>
       </c>
       <c r="E46" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F46" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G46" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3060,22 +3003,22 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>760</v>
+        <v>3186</v>
       </c>
       <c r="C47" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D47">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="G47" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3083,22 +3026,22 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>3034</v>
+        <v>931</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D48">
-        <v>1321</v>
+        <v>1350</v>
       </c>
       <c r="E48" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F48" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G48" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3106,22 +3049,22 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>745</v>
+        <v>2444</v>
       </c>
       <c r="C49" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D49">
-        <v>1350</v>
+        <v>1367</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F49" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="G49" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3129,22 +3072,22 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>501</v>
+        <v>429</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D50">
-        <v>1359</v>
+        <v>1393</v>
       </c>
       <c r="E50" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F50" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G50" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3152,22 +3095,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>2125</v>
+        <v>374</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51">
-        <v>1367</v>
+        <v>1479</v>
       </c>
       <c r="E51" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F51" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="G51" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3175,22 +3118,22 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>429</v>
+        <v>2218</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D52">
-        <v>1393</v>
+        <v>1572</v>
       </c>
       <c r="E52" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F52" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G52" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3198,22 +3141,22 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>374</v>
+        <v>2218</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D53">
-        <v>1479</v>
+        <v>1573</v>
       </c>
       <c r="E53" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="G53" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3221,22 +3164,22 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>2182</v>
+        <v>526</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D54">
-        <v>1572</v>
+        <v>1586</v>
       </c>
       <c r="E54" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F54" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G54" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3244,22 +3187,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>2182</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D55">
-        <v>1573</v>
+        <v>1709</v>
       </c>
       <c r="E55" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F55" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="G55" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3267,22 +3210,19 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>501</v>
-      </c>
-      <c r="C56" t="s">
-        <v>182</v>
+        <v>3105</v>
       </c>
       <c r="D56">
-        <v>1586</v>
+        <v>1716</v>
       </c>
       <c r="E56" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F56" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G56" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3290,22 +3230,22 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>328</v>
+        <v>2223</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D57">
-        <v>1709</v>
+        <v>2734</v>
       </c>
       <c r="E57" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="F57" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="G57" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3313,19 +3253,22 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>3015</v>
+        <v>526</v>
+      </c>
+      <c r="C58" t="s">
+        <v>176</v>
       </c>
       <c r="D58">
-        <v>1716</v>
+        <v>2774</v>
       </c>
       <c r="E58" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F58" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G58" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3333,22 +3276,22 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>2223</v>
+        <v>3865</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59">
-        <v>2734</v>
+        <v>2792</v>
       </c>
       <c r="E59" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F59" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="G59" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3356,22 +3299,22 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>501</v>
+        <v>2403</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60">
-        <v>2774</v>
+        <v>2809</v>
       </c>
       <c r="E60" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F60" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="G60" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3379,22 +3322,22 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>3763</v>
+        <v>197</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D61">
-        <v>2792</v>
+        <v>2820</v>
       </c>
       <c r="E61" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F61" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="G61" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3402,22 +3345,22 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>2302</v>
+        <v>1663</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D62">
-        <v>2809</v>
+        <v>3533</v>
       </c>
       <c r="E62" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F62" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G62" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3425,22 +3368,22 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>188</v>
+        <v>3784</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D63">
-        <v>2820</v>
+        <v>5521</v>
       </c>
       <c r="E63" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F63" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="G63" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3448,22 +3391,22 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>1598</v>
+        <v>3239</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D64">
-        <v>3533</v>
+        <v>5522</v>
       </c>
       <c r="E64" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F64" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="G64" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3471,22 +3414,22 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>3603</v>
+        <v>1512</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D65">
-        <v>5521</v>
+        <v>5659</v>
       </c>
       <c r="E65" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F65" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="G65" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3494,22 +3437,22 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>3123</v>
+        <v>3784</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D66">
-        <v>5522</v>
+        <v>5662</v>
       </c>
       <c r="E66" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F66" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G66" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3517,19 +3460,22 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>1844</v>
+        <v>1663</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
       </c>
       <c r="D67">
-        <v>5580</v>
+        <v>5695</v>
       </c>
       <c r="E67" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F67" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="G67" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3537,22 +3483,22 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>1512</v>
+        <v>2200</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D68">
-        <v>5659</v>
+        <v>5718</v>
       </c>
       <c r="E68" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F68" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="G68" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3560,22 +3506,22 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>3603</v>
+        <v>562</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D69">
-        <v>5662</v>
+        <v>5865</v>
       </c>
       <c r="E69" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="F69" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="G69" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3583,22 +3529,22 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>1598</v>
+        <v>4375</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D70">
-        <v>5695</v>
+        <v>6662</v>
       </c>
       <c r="E70" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F70" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="G70" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3609,19 +3555,19 @@
         <v>2200</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D71">
-        <v>5718</v>
+        <v>6663</v>
       </c>
       <c r="E71" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F71" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="G71" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3629,22 +3575,22 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>536</v>
+        <v>842</v>
       </c>
       <c r="C72" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D72">
-        <v>5865</v>
+        <v>6759</v>
       </c>
       <c r="E72" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F72" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="G72" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3652,22 +3598,22 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>4166</v>
+        <v>842</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D73">
-        <v>6662</v>
+        <v>6760</v>
       </c>
       <c r="E73" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F73" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="G73" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3675,22 +3621,22 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>2200</v>
+        <v>842</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D74">
-        <v>6663</v>
+        <v>6761</v>
       </c>
       <c r="E74" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F74" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="G74" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3698,22 +3644,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>1125</v>
+        <v>544</v>
       </c>
       <c r="C75" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D75">
-        <v>6699</v>
+        <v>6764</v>
       </c>
       <c r="E75" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="F75" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="G75" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3721,22 +3667,22 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>768</v>
+        <v>544</v>
       </c>
       <c r="C76" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D76">
-        <v>6759</v>
+        <v>6765</v>
       </c>
       <c r="E76" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F76" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="G76" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3744,22 +3690,22 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>768</v>
+        <v>842</v>
       </c>
       <c r="C77" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D77">
-        <v>6760</v>
+        <v>6766</v>
       </c>
       <c r="E77" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F77" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="G77" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3767,22 +3713,22 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>768</v>
+        <v>842</v>
       </c>
       <c r="C78" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D78">
-        <v>6761</v>
+        <v>6767</v>
       </c>
       <c r="E78" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F78" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="G78" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3790,22 +3736,22 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="C79" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D79">
-        <v>6764</v>
+        <v>6768</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F79" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="G79" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3813,22 +3759,22 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="C80" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D80">
-        <v>6765</v>
+        <v>6769</v>
       </c>
       <c r="E80" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F80" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G80" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3836,22 +3782,22 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>768</v>
+        <v>2403</v>
       </c>
       <c r="C81" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D81">
-        <v>6766</v>
+        <v>6770</v>
       </c>
       <c r="E81" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F81" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="G81" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3859,22 +3805,22 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>768</v>
+        <v>3865</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D82">
-        <v>6767</v>
+        <v>6781</v>
       </c>
       <c r="E82" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F82" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="G82" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3882,22 +3828,22 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>496</v>
+        <v>3865</v>
       </c>
       <c r="C83" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D83">
-        <v>6768</v>
+        <v>6782</v>
       </c>
       <c r="E83" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F83" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="G83" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3905,22 +3851,22 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>496</v>
+        <v>3865</v>
       </c>
       <c r="C84" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D84">
-        <v>6769</v>
+        <v>6783</v>
       </c>
       <c r="E84" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F84" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="G84" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3928,22 +3874,22 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>2302</v>
+        <v>1663</v>
       </c>
       <c r="C85" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D85">
-        <v>6770</v>
+        <v>6789</v>
       </c>
       <c r="E85" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F85" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="G85" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3951,22 +3897,22 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>3763</v>
+        <v>738</v>
       </c>
       <c r="C86" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D86">
-        <v>6781</v>
+        <v>6791</v>
       </c>
       <c r="E86" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F86" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="G86" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3974,22 +3920,22 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>3763</v>
+        <v>546</v>
       </c>
       <c r="C87" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D87">
-        <v>6782</v>
+        <v>6795</v>
       </c>
       <c r="E87" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F87" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="G87" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3997,22 +3943,22 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>3763</v>
+        <v>508</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D88">
-        <v>6783</v>
+        <v>6796</v>
       </c>
       <c r="E88" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F88" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G88" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4020,22 +3966,22 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>1598</v>
+        <v>508</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D89">
-        <v>6789</v>
+        <v>6797</v>
       </c>
       <c r="E89" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F89" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="G89" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4043,22 +3989,22 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>672</v>
+        <v>508</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D90">
-        <v>6791</v>
+        <v>6798</v>
       </c>
       <c r="E90" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F90" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="G90" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4066,22 +4012,22 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D91">
-        <v>6795</v>
+        <v>6799</v>
       </c>
       <c r="E91" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="F91" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="G91" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4089,22 +4035,22 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>498</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D92">
-        <v>6796</v>
+        <v>6808</v>
       </c>
       <c r="E92" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F92" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="G92" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4112,22 +4058,22 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>498</v>
+        <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D93">
-        <v>6797</v>
+        <v>6809</v>
       </c>
       <c r="E93" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="F93" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="G93" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4135,22 +4081,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>498</v>
+        <v>738</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D94">
-        <v>6798</v>
+        <v>6815</v>
       </c>
       <c r="E94" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F94" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="G94" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4158,22 +4104,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>498</v>
+        <v>2403</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D95">
-        <v>6799</v>
+        <v>6847</v>
       </c>
       <c r="E95" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F95" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G95" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4181,22 +4127,22 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>186</v>
+        <v>2403</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D96">
-        <v>6808</v>
+        <v>6848</v>
       </c>
       <c r="E96" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F96" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="G96" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4204,22 +4150,22 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>186</v>
+        <v>1448</v>
       </c>
       <c r="C97" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D97">
-        <v>6809</v>
+        <v>6849</v>
       </c>
       <c r="E97" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F97" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="G97" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4227,22 +4173,22 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>420</v>
+        <v>678</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D98">
-        <v>6814</v>
+        <v>6852</v>
       </c>
       <c r="E98" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F98" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="G98" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4250,22 +4196,22 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>2302</v>
+        <v>678</v>
       </c>
       <c r="C99" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D99">
-        <v>6847</v>
+        <v>6853</v>
       </c>
       <c r="E99" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F99" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G99" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4273,22 +4219,22 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>2302</v>
+        <v>508</v>
       </c>
       <c r="C100" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D100">
-        <v>6848</v>
+        <v>6857</v>
       </c>
       <c r="E100" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F100" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="G100" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4296,22 +4242,22 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>1335</v>
+        <v>508</v>
       </c>
       <c r="C101" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D101">
-        <v>6849</v>
+        <v>6858</v>
       </c>
       <c r="E101" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F101" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="G101" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4319,22 +4265,22 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>682</v>
+        <v>508</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D102">
-        <v>6852</v>
+        <v>6859</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F102" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G102" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4342,22 +4288,22 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>682</v>
+        <v>508</v>
       </c>
       <c r="C103" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D103">
-        <v>6853</v>
+        <v>6860</v>
       </c>
       <c r="E103" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="F103" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="G103" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4368,19 +4314,19 @@
         <v>508</v>
       </c>
       <c r="C104" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D104">
-        <v>6857</v>
+        <v>6861</v>
       </c>
       <c r="E104" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F104" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G104" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4388,22 +4334,22 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>508</v>
+        <v>417</v>
       </c>
       <c r="C105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D105">
-        <v>6858</v>
+        <v>6875</v>
       </c>
       <c r="E105" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F105" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="G105" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4411,22 +4357,22 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>508</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D106">
-        <v>6859</v>
+        <v>6882</v>
       </c>
       <c r="E106" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F106" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G106" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4434,22 +4380,22 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="C107" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D107">
-        <v>6860</v>
+        <v>6894</v>
       </c>
       <c r="E107" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="F107" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G107" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4457,22 +4403,22 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>508</v>
+        <v>429</v>
       </c>
       <c r="C108" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D108">
-        <v>6861</v>
+        <v>6896</v>
       </c>
       <c r="E108" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F108" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G108" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4480,22 +4426,22 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>380</v>
+        <v>429</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D109">
-        <v>6875</v>
+        <v>6897</v>
       </c>
       <c r="E109" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="F109" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="G109" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4503,22 +4449,22 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>429</v>
+        <v>903</v>
       </c>
       <c r="C110" t="s">
         <v>183</v>
       </c>
       <c r="D110">
-        <v>6894</v>
+        <v>6934</v>
       </c>
       <c r="E110" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F110" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G110" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4526,22 +4472,22 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>429</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D111">
-        <v>6896</v>
+        <v>7674</v>
       </c>
       <c r="E111" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="F111" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="G111" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4549,22 +4495,22 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>429</v>
+        <v>559</v>
       </c>
       <c r="C112" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D112">
-        <v>6897</v>
+        <v>7675</v>
       </c>
       <c r="E112" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F112" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="G112" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4572,22 +4518,22 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>229</v>
+        <v>1240</v>
       </c>
       <c r="C113" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="D113">
-        <v>7674</v>
+        <v>7695</v>
       </c>
       <c r="E113" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F113" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="G113" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4595,22 +4541,22 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>463</v>
+        <v>3084</v>
       </c>
       <c r="C114" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D114">
-        <v>7675</v>
+        <v>7781</v>
       </c>
       <c r="E114" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F114" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="G114" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4618,22 +4564,22 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>1240</v>
+        <v>1399</v>
       </c>
       <c r="C115" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D115">
-        <v>7695</v>
+        <v>7860</v>
       </c>
       <c r="E115" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="F115" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="G115" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4641,22 +4587,22 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>1367</v>
+        <v>1399</v>
       </c>
       <c r="C116" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D116">
-        <v>7860</v>
+        <v>7862</v>
       </c>
       <c r="E116" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F116" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G116" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4664,22 +4610,22 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>1367</v>
+        <v>1399</v>
       </c>
       <c r="C117" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D117">
-        <v>7862</v>
+        <v>7873</v>
       </c>
       <c r="E117" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="F117" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="G117" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4687,22 +4633,22 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>1367</v>
+        <v>535</v>
       </c>
       <c r="C118" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D118">
-        <v>7873</v>
+        <v>7927</v>
       </c>
       <c r="E118" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F118" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G118" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4710,22 +4656,22 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>387</v>
+        <v>678</v>
       </c>
       <c r="C119" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D119">
-        <v>7936</v>
+        <v>7939</v>
       </c>
       <c r="E119" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F119" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="G119" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4733,22 +4679,22 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>682</v>
+        <v>2218</v>
       </c>
       <c r="C120" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D120">
-        <v>7939</v>
+        <v>7943</v>
       </c>
       <c r="E120" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F120" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="G120" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4756,22 +4702,22 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>2182</v>
+        <v>1663</v>
       </c>
       <c r="C121" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D121">
-        <v>7943</v>
+        <v>7945</v>
       </c>
       <c r="E121" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="F121" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="G121" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4779,22 +4725,22 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>1598</v>
+        <v>2822</v>
       </c>
       <c r="C122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D122">
-        <v>7945</v>
+        <v>7959</v>
       </c>
       <c r="E122" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F122" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G122" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4802,22 +4748,22 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>2453</v>
+        <v>2444</v>
       </c>
       <c r="C123" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D123">
-        <v>7959</v>
+        <v>7961</v>
       </c>
       <c r="E123" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="F123" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="G123" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4825,22 +4771,22 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>2125</v>
+        <v>5201</v>
       </c>
       <c r="C124" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D124">
-        <v>7961</v>
+        <v>7962</v>
       </c>
       <c r="E124" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F124" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G124" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4848,22 +4794,22 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>4953</v>
+        <v>2444</v>
       </c>
       <c r="C125" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D125">
-        <v>7962</v>
+        <v>8283</v>
       </c>
       <c r="E125" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F125" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="G125" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4871,22 +4817,22 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>2125</v>
+        <v>2822</v>
       </c>
       <c r="C126" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D126">
-        <v>8283</v>
+        <v>8284</v>
       </c>
       <c r="E126" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F126" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="G126" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4894,22 +4840,22 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>2453</v>
+        <v>2291</v>
       </c>
       <c r="C127" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D127">
-        <v>8284</v>
+        <v>8294</v>
       </c>
       <c r="E127" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F127" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="G127" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4917,22 +4863,22 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>2182</v>
+        <v>429</v>
       </c>
       <c r="C128" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D128">
-        <v>8294</v>
+        <v>8504</v>
       </c>
       <c r="E128" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="F128" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="G128" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4940,22 +4886,22 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>429</v>
+        <v>2291</v>
       </c>
       <c r="C129" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D129">
-        <v>8504</v>
+        <v>8577</v>
       </c>
       <c r="E129" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="F129" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="G129" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4963,22 +4909,22 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>2182</v>
+        <v>2263</v>
       </c>
       <c r="C130" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D130">
-        <v>8577</v>
+        <v>8700</v>
       </c>
       <c r="E130" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F130" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G130" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4986,22 +4932,22 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>2212</v>
+        <v>2263</v>
       </c>
       <c r="C131" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D131">
-        <v>8700</v>
+        <v>8701</v>
       </c>
       <c r="E131" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="F131" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="G131" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5009,22 +4955,22 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>2212</v>
+        <v>2263</v>
       </c>
       <c r="C132" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D132">
-        <v>8701</v>
+        <v>8702</v>
       </c>
       <c r="E132" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="F132" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="G132" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5032,22 +4978,22 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>2212</v>
+        <v>2263</v>
       </c>
       <c r="C133" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D133">
-        <v>8702</v>
+        <v>8703</v>
       </c>
       <c r="E133" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F133" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="G133" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5055,22 +5001,22 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>2212</v>
+        <v>1399</v>
       </c>
       <c r="C134" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D134">
-        <v>8703</v>
+        <v>8710</v>
       </c>
       <c r="E134" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F134" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="G134" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5078,22 +5024,22 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>1367</v>
+        <v>3018</v>
       </c>
       <c r="C135" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D135">
-        <v>8710</v>
+        <v>8748</v>
       </c>
       <c r="E135" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="F135" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="G135" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5101,22 +5047,19 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>3018</v>
-      </c>
-      <c r="C136" t="s">
-        <v>182</v>
+        <v>494</v>
       </c>
       <c r="D136">
-        <v>8748</v>
+        <v>8774</v>
       </c>
       <c r="E136" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="F136" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="G136" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5124,22 +5067,22 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>4953</v>
+        <v>1477</v>
       </c>
       <c r="C137" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D137">
-        <v>8769</v>
+        <v>9453</v>
       </c>
       <c r="E137" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="F137" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="G137" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5147,19 +5090,22 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>462</v>
+        <v>2944</v>
+      </c>
+      <c r="C138" t="s">
+        <v>177</v>
       </c>
       <c r="D138">
-        <v>8774</v>
+        <v>9456</v>
       </c>
       <c r="E138" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F138" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="G138" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5167,22 +5113,22 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>2944</v>
+        <v>4895</v>
       </c>
       <c r="C139" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D139">
-        <v>9456</v>
+        <v>9517</v>
       </c>
       <c r="E139" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F139" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="G139" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5190,22 +5136,22 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>4662</v>
+        <v>294</v>
       </c>
       <c r="C140" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D140">
-        <v>9517</v>
+        <v>11961</v>
       </c>
       <c r="E140" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F140" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="G140" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5213,22 +5159,22 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>294</v>
+        <v>2444</v>
       </c>
       <c r="C141" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="D141">
-        <v>11961</v>
+        <v>12065</v>
       </c>
       <c r="E141" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F141" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="G141" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5236,22 +5182,19 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>2409</v>
-      </c>
-      <c r="C142" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="D142">
-        <v>12065</v>
+        <v>12112</v>
       </c>
       <c r="E142" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F142" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G142" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5259,19 +5202,22 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>294</v>
+        <v>4100</v>
+      </c>
+      <c r="C143" t="s">
+        <v>176</v>
       </c>
       <c r="D143">
-        <v>12112</v>
+        <v>12412</v>
       </c>
       <c r="E143" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F143" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="G143" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5279,22 +5225,22 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>3904</v>
+        <v>6608</v>
       </c>
       <c r="C144" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D144">
-        <v>12410</v>
+        <v>12414</v>
       </c>
       <c r="E144" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F144" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="G144" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5302,22 +5248,22 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>3904</v>
+        <v>6608</v>
       </c>
       <c r="C145" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D145">
-        <v>12412</v>
+        <v>12415</v>
       </c>
       <c r="E145" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="F145" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="G145" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5325,22 +5271,22 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>6293</v>
+        <v>6608</v>
       </c>
       <c r="C146" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D146">
-        <v>12414</v>
+        <v>12416</v>
       </c>
       <c r="E146" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F146" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="G146" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5348,22 +5294,22 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>6293</v>
+        <v>9791</v>
       </c>
       <c r="C147" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D147">
-        <v>12415</v>
+        <v>12419</v>
       </c>
       <c r="E147" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="F147" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="G147" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5371,22 +5317,22 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>6293</v>
+        <v>9791</v>
       </c>
       <c r="C148" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D148">
-        <v>12416</v>
+        <v>12420</v>
       </c>
       <c r="E148" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F148" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="G148" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5394,22 +5340,22 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>9325</v>
+        <v>7048</v>
       </c>
       <c r="C149" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D149">
-        <v>12419</v>
+        <v>12518</v>
       </c>
       <c r="E149" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="F149" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="G149" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5417,22 +5363,22 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>9325</v>
+        <v>4100</v>
       </c>
       <c r="C150" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D150">
-        <v>12420</v>
+        <v>13016</v>
       </c>
       <c r="E150" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F150" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G150" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5440,22 +5386,22 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>6712</v>
+        <v>1627</v>
       </c>
       <c r="C151" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D151">
-        <v>12518</v>
+        <v>14517</v>
       </c>
       <c r="E151" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="F151" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="G151" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5463,22 +5409,22 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>3904</v>
+        <v>2291</v>
       </c>
       <c r="C152" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D152">
-        <v>13016</v>
+        <v>15310</v>
       </c>
       <c r="E152" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F152" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G152" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5486,22 +5432,22 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>1482</v>
+        <v>1617</v>
       </c>
       <c r="C153" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D153">
-        <v>14517</v>
+        <v>15371</v>
       </c>
       <c r="E153" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F153" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="G153" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5509,22 +5455,22 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>2750</v>
+        <v>976</v>
       </c>
       <c r="C154" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D154">
-        <v>14542</v>
+        <v>15761</v>
       </c>
       <c r="E154" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F154" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="G154" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5532,22 +5478,22 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>2182</v>
+        <v>1571</v>
       </c>
       <c r="C155" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D155">
-        <v>15310</v>
+        <v>15773</v>
       </c>
       <c r="E155" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="F155" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="G155" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5555,22 +5501,22 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>1581</v>
+        <v>6970</v>
       </c>
       <c r="C156" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D156">
-        <v>15371</v>
+        <v>15777</v>
       </c>
       <c r="E156" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F156" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="G156" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5578,22 +5524,22 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>4195</v>
+        <v>635</v>
       </c>
       <c r="C157" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D157">
-        <v>15769</v>
+        <v>15953</v>
       </c>
       <c r="E157" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F157" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="G157" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5601,22 +5547,22 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>1497</v>
+        <v>1865</v>
       </c>
       <c r="C158" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D158">
-        <v>15773</v>
+        <v>16262</v>
       </c>
       <c r="E158" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F158" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="G158" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5624,22 +5570,22 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>6638</v>
+        <v>526</v>
       </c>
       <c r="C159" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D159">
-        <v>15777</v>
+        <v>16265</v>
       </c>
       <c r="E159" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F159" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="G159" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5647,22 +5593,22 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>3804</v>
+        <v>562</v>
       </c>
       <c r="C160" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D160">
-        <v>15779</v>
+        <v>16267</v>
       </c>
       <c r="E160" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F160" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="G160" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5670,22 +5616,22 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>542</v>
+        <v>2110</v>
       </c>
       <c r="C161" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D161">
-        <v>15953</v>
+        <v>16270</v>
       </c>
       <c r="E161" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F161" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="G161" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5693,22 +5639,22 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>932</v>
+        <v>2110</v>
       </c>
       <c r="C162" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="D162">
-        <v>15956</v>
+        <v>16271</v>
       </c>
       <c r="E162" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F162" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="G162" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5716,22 +5662,22 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>1777</v>
+        <v>9791</v>
       </c>
       <c r="C163" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D163">
-        <v>16262</v>
+        <v>16277</v>
       </c>
       <c r="E163" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F163" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="G163" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5739,22 +5685,22 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>501</v>
+        <v>7048</v>
       </c>
       <c r="C164" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D164">
-        <v>16265</v>
+        <v>16278</v>
       </c>
       <c r="E164" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F164" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="G164" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5762,22 +5708,22 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>536</v>
+        <v>6970</v>
       </c>
       <c r="C165" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D165">
-        <v>16267</v>
+        <v>16284</v>
       </c>
       <c r="E165" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F165" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="G165" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5785,22 +5731,22 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>2070</v>
+        <v>2570</v>
       </c>
       <c r="C166" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D166">
-        <v>16269</v>
+        <v>16289</v>
       </c>
       <c r="E166" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F166" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="G166" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5808,22 +5754,22 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>2070</v>
+        <v>535</v>
       </c>
       <c r="C167" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D167">
-        <v>16270</v>
+        <v>16291</v>
       </c>
       <c r="E167" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F167" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="G167" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5831,22 +5777,22 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>2070</v>
+        <v>3865</v>
       </c>
       <c r="C168" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D168">
-        <v>16271</v>
+        <v>16293</v>
       </c>
       <c r="E168" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F168" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="G168" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5854,22 +5800,22 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>9325</v>
+        <v>3865</v>
       </c>
       <c r="C169" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D169">
-        <v>16277</v>
+        <v>16294</v>
       </c>
       <c r="E169" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F169" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="G169" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5877,160 +5823,22 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>6712</v>
+        <v>2120</v>
       </c>
       <c r="C170" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D170">
-        <v>16278</v>
+        <v>16311</v>
       </c>
       <c r="E170" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F170" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="G170" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" t="s">
-        <v>176</v>
-      </c>
-      <c r="B171">
-        <v>4195</v>
-      </c>
-      <c r="C171" t="s">
-        <v>182</v>
-      </c>
-      <c r="D171">
-        <v>16280</v>
-      </c>
-      <c r="E171" t="s">
-        <v>362</v>
-      </c>
-      <c r="F171" t="s">
-        <v>537</v>
-      </c>
-      <c r="G171" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" t="s">
-        <v>177</v>
-      </c>
-      <c r="B172">
-        <v>4195</v>
-      </c>
-      <c r="C172" t="s">
-        <v>182</v>
-      </c>
-      <c r="D172">
-        <v>16281</v>
-      </c>
-      <c r="E172" t="s">
-        <v>363</v>
-      </c>
-      <c r="F172" t="s">
-        <v>538</v>
-      </c>
-      <c r="G172" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" t="s">
-        <v>178</v>
-      </c>
-      <c r="B173">
-        <v>6638</v>
-      </c>
-      <c r="C173" t="s">
-        <v>182</v>
-      </c>
-      <c r="D173">
-        <v>16284</v>
-      </c>
-      <c r="E173" t="s">
-        <v>364</v>
-      </c>
-      <c r="F173" t="s">
-        <v>539</v>
-      </c>
-      <c r="G173" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" t="s">
-        <v>179</v>
-      </c>
-      <c r="B174">
-        <v>2447</v>
-      </c>
-      <c r="C174" t="s">
-        <v>182</v>
-      </c>
-      <c r="D174">
-        <v>16289</v>
-      </c>
-      <c r="E174" t="s">
-        <v>365</v>
-      </c>
-      <c r="F174" t="s">
-        <v>540</v>
-      </c>
-      <c r="G174" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
-        <v>180</v>
-      </c>
-      <c r="B175">
-        <v>2447</v>
-      </c>
-      <c r="C175" t="s">
-        <v>182</v>
-      </c>
-      <c r="D175">
-        <v>16290</v>
-      </c>
-      <c r="E175" t="s">
-        <v>366</v>
-      </c>
-      <c r="F175" t="s">
-        <v>541</v>
-      </c>
-      <c r="G175" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
-        <v>181</v>
-      </c>
-      <c r="B176">
-        <v>487</v>
-      </c>
-      <c r="C176" t="s">
-        <v>189</v>
-      </c>
-      <c r="D176">
-        <v>16291</v>
-      </c>
-      <c r="E176" t="s">
-        <v>367</v>
-      </c>
-      <c r="F176" t="s">
-        <v>542</v>
-      </c>
-      <c r="G176" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/data/procesados/drimel.xlsx
+++ b/data/procesados/drimel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="554">
   <si>
     <t>Nombre</t>
   </si>
@@ -178,6 +178,9 @@
     <t>HUGGIES TOALLA OLEO RNx48</t>
   </si>
   <si>
+    <t>PAMPERS SUPER XTR REG.Gx9</t>
+  </si>
+  <si>
     <t>PAMPERS PANTS PC Mx34</t>
   </si>
   <si>
@@ -481,6 +484,9 @@
     <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
   </si>
   <si>
+    <t>PAMPERS PREMIUM XTR RN x36</t>
+  </si>
+  <si>
     <t>PAMPERS BABYSAN MES XGx58</t>
   </si>
   <si>
@@ -496,12 +502,12 @@
     <t>ESTRELLA OLEO ALGODONx500</t>
   </si>
   <si>
-    <t>PAMPERS CONFORT XTR RN+ x36</t>
-  </si>
-  <si>
     <t>PAMPERS PREMIUM JUMBO Gx96</t>
   </si>
   <si>
+    <t>PAMPERS PREMIUM MES XXGx54</t>
+  </si>
+  <si>
     <t>HUGGIES TOALLA 4en1 x48</t>
   </si>
   <si>
@@ -526,6 +532,12 @@
     <t>PAMPERS CONFORT XTR JUMBO Gx110</t>
   </si>
   <si>
+    <t>PAMPERS CONFORT XTR MES Mx72</t>
+  </si>
+  <si>
+    <t>PAMPERS CONFORT XTR MES XXGx54</t>
+  </si>
+  <si>
     <t>PAMPERS PREMIUM JUMBO XXGx88</t>
   </si>
   <si>
@@ -544,6 +556,24 @@
     <t>HUGGIES CREMA PROTECTORAx80</t>
   </si>
   <si>
+    <t>PAMPERS TOTAL PROTECT XXGx34</t>
+  </si>
+  <si>
+    <t>PAMPERS BabyDry MES XXGx54</t>
+  </si>
+  <si>
+    <t>PAMPERS PREMIUM MES M x72</t>
+  </si>
+  <si>
+    <t>PAMPERS CONFORT XTR HIPER Px56</t>
+  </si>
+  <si>
+    <t>PAMPERS PREMIUM XTR RN+ x36</t>
+  </si>
+  <si>
+    <t>BABYSEC TOALLAS PREMIUMx50</t>
+  </si>
+  <si>
     <t>Pampers</t>
   </si>
   <si>
@@ -715,6 +745,9 @@
     <t>7794626997099</t>
   </si>
   <si>
+    <t>7500435183130</t>
+  </si>
+  <si>
     <t>7500435145930</t>
   </si>
   <si>
@@ -1018,6 +1051,9 @@
     <t>7500435189149</t>
   </si>
   <si>
+    <t>7500435132954</t>
+  </si>
+  <si>
     <t>7500435228558</t>
   </si>
   <si>
@@ -1033,12 +1069,12 @@
     <t>7790064104808</t>
   </si>
   <si>
-    <t>7500435188920</t>
-  </si>
-  <si>
     <t>7500435155953</t>
   </si>
   <si>
+    <t>7500435188906</t>
+  </si>
+  <si>
     <t>7794626011054</t>
   </si>
   <si>
@@ -1063,6 +1099,12 @@
     <t>7500435189132</t>
   </si>
   <si>
+    <t>7500435189095</t>
+  </si>
+  <si>
+    <t>7500435189125</t>
+  </si>
+  <si>
     <t>7500435222433</t>
   </si>
   <si>
@@ -1081,6 +1123,24 @@
     <t>7896018704411</t>
   </si>
   <si>
+    <t>7500435167970</t>
+  </si>
+  <si>
+    <t>7500435228725</t>
+  </si>
+  <si>
+    <t>7500435188883</t>
+  </si>
+  <si>
+    <t>7500435189040</t>
+  </si>
+  <si>
+    <t>7500435188753</t>
+  </si>
+  <si>
+    <t>7806500730514</t>
+  </si>
+  <si>
     <t>PAMPERS-CONFORT-XTR-HIPER-XXGx34</t>
   </si>
   <si>
@@ -1222,6 +1282,9 @@
     <t>HUGGIES-TOALLA-OLEO-RNx48</t>
   </si>
   <si>
+    <t>PAMPERS-SUPER-XTR-REG-Gx9</t>
+  </si>
+  <si>
     <t>PAMPERS-PANTS-PC-Mx34</t>
   </si>
   <si>
@@ -1525,6 +1588,9 @@
     <t>PAMPERS-CONFORT-XTR-JUMBO-XGx96</t>
   </si>
   <si>
+    <t>PAMPERS-PREMIUM-XTR-RN-x36</t>
+  </si>
+  <si>
     <t>PAMPERS-BABYSAN-MES-XGx58</t>
   </si>
   <si>
@@ -1540,12 +1606,12 @@
     <t>ESTRELLA-OLEO-ALGODONx500</t>
   </si>
   <si>
-    <t>PAMPERS-CONFORT-XTR-RN-x36</t>
-  </si>
-  <si>
     <t>PAMPERS-PREMIUM-JUMBO-Gx96</t>
   </si>
   <si>
+    <t>PAMPERS-PREMIUM-MES-XXGx54</t>
+  </si>
+  <si>
     <t>HUGGIES-TOALLA-4en1-x48</t>
   </si>
   <si>
@@ -1570,6 +1636,12 @@
     <t>PAMPERS-CONFORT-XTR-JUMBO-Gx110</t>
   </si>
   <si>
+    <t>PAMPERS-CONFORT-XTR-MES-Mx72</t>
+  </si>
+  <si>
+    <t>PAMPERS-CONFORT-XTR-MES-XXGx54</t>
+  </si>
+  <si>
     <t>PAMPERS-PREMIUM-JUMBO-XXGx88</t>
   </si>
   <si>
@@ -1586,6 +1658,21 @@
   </si>
   <si>
     <t>HUGGIES-CREMA-PROTECTORAx80</t>
+  </si>
+  <si>
+    <t>PAMPERS-TOTAL-PROTECT-XXGx34</t>
+  </si>
+  <si>
+    <t>PAMPERS-BabyDry-MES-XXGx54</t>
+  </si>
+  <si>
+    <t>PAMPERS-PREMIUM-MES-M-x72</t>
+  </si>
+  <si>
+    <t>PAMPERS-CONFORT-XTR-HIPER-Px56</t>
+  </si>
+  <si>
+    <t>BABYSEC-TOALLAS-PREMIUMx50</t>
   </si>
   <si>
     <t>Drimel</t>
@@ -1946,7 +2033,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1983,19 +2070,19 @@
         <v>3084</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D2">
         <v>872</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="G2" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2006,19 +2093,19 @@
         <v>2218</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D3">
         <v>908</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="G3" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2032,13 +2119,13 @@
         <v>923</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F4" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="G4" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2052,13 +2139,13 @@
         <v>924</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F5" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="G5" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2066,22 +2153,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3229</v>
+        <v>3357</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D6">
         <v>949</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="G6" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2089,22 +2176,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>3229</v>
+        <v>3357</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D7">
         <v>950</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="G7" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2112,22 +2199,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>3229</v>
+        <v>3357</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D8">
         <v>951</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F8" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="G8" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2138,19 +2225,19 @@
         <v>664</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D9">
         <v>959</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F9" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G9" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2161,19 +2248,19 @@
         <v>2755</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D10">
         <v>962</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="G10" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2184,19 +2271,19 @@
         <v>2755</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D11">
         <v>963</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F11" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="G11" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2207,19 +2294,19 @@
         <v>2755</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D12">
         <v>964</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F12" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="G12" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2230,19 +2317,19 @@
         <v>2755</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D13">
         <v>965</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="G13" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2253,19 +2340,19 @@
         <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D14">
         <v>992</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F14" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="G14" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2276,19 +2363,19 @@
         <v>1412</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D15">
         <v>1004</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="G15" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2299,19 +2386,19 @@
         <v>4375</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D16">
         <v>1036</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="G16" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2322,19 +2409,19 @@
         <v>4375</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D17">
         <v>1037</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="G17" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2345,19 +2432,19 @@
         <v>4375</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D18">
         <v>1038</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F18" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="G18" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2368,19 +2455,19 @@
         <v>4375</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D19">
         <v>1039</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F19" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="G19" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2391,19 +2478,19 @@
         <v>2200</v>
       </c>
       <c r="C20" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D20">
         <v>1041</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F20" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="G20" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2414,19 +2501,19 @@
         <v>3239</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D21">
         <v>1045</v>
       </c>
       <c r="E21" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F21" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="G21" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2437,19 +2524,19 @@
         <v>3239</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D22">
         <v>1046</v>
       </c>
       <c r="E22" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F22" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="G22" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2460,19 +2547,19 @@
         <v>3239</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D23">
         <v>1047</v>
       </c>
       <c r="E23" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="F23" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="G23" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2483,19 +2570,19 @@
         <v>3239</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D24">
         <v>1048</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="F24" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="G24" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2506,19 +2593,19 @@
         <v>1694</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D25">
         <v>1049</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="F25" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="G25" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2529,19 +2616,19 @@
         <v>2494</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D26">
         <v>1055</v>
       </c>
       <c r="E26" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="F26" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="G26" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2552,19 +2639,19 @@
         <v>3784</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D27">
         <v>1056</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="F27" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="G27" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2575,19 +2662,19 @@
         <v>1085</v>
       </c>
       <c r="C28" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D28">
         <v>1076</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="F28" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="G28" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2598,19 +2685,19 @@
         <v>475</v>
       </c>
       <c r="C29" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D29">
         <v>1077</v>
       </c>
       <c r="E29" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F29" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="G29" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2621,19 +2708,19 @@
         <v>837</v>
       </c>
       <c r="C30" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D30">
         <v>1078</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F30" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="G30" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2644,19 +2731,19 @@
         <v>1184</v>
       </c>
       <c r="C31" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D31">
         <v>1079</v>
       </c>
       <c r="E31" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="G31" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2667,19 +2754,19 @@
         <v>1240</v>
       </c>
       <c r="C32" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D32">
         <v>1080</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="F32" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="G32" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2690,19 +2777,19 @@
         <v>968</v>
       </c>
       <c r="C33" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D33">
         <v>1081</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="F33" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="G33" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2713,19 +2800,19 @@
         <v>1735</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D34">
         <v>1082</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="F34" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="G34" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2736,19 +2823,19 @@
         <v>1735</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D35">
         <v>1083</v>
       </c>
       <c r="E35" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="F35" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="G35" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2759,19 +2846,19 @@
         <v>3784</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D36">
         <v>1084</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="G36" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2782,19 +2869,19 @@
         <v>3784</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D37">
         <v>1085</v>
       </c>
       <c r="E37" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F37" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G37" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2805,19 +2892,19 @@
         <v>1967</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D38">
         <v>1091</v>
       </c>
       <c r="E38" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="F38" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="G38" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2828,19 +2915,19 @@
         <v>526</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D39">
         <v>1092</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F39" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="G39" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2854,13 +2941,13 @@
         <v>1166</v>
       </c>
       <c r="E40" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="F40" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="G40" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2874,13 +2961,13 @@
         <v>1168</v>
       </c>
       <c r="E41" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="F41" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="G41" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2891,19 +2978,19 @@
         <v>3186</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D42">
         <v>1211</v>
       </c>
       <c r="E42" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="F42" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G42" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2914,19 +3001,19 @@
         <v>3186</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D43">
         <v>1212</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F43" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G43" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2937,19 +3024,19 @@
         <v>3186</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D44">
         <v>1213</v>
       </c>
       <c r="E44" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="G44" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2960,19 +3047,19 @@
         <v>3994</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D45">
         <v>1293</v>
       </c>
       <c r="E45" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="G45" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2983,19 +3070,19 @@
         <v>889</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D46">
         <v>1318</v>
       </c>
       <c r="E46" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F46" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G46" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3006,19 +3093,19 @@
         <v>3186</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D47">
         <v>1321</v>
       </c>
       <c r="E47" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="G47" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3029,19 +3116,19 @@
         <v>931</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D48">
         <v>1350</v>
       </c>
       <c r="E48" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="F48" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="G48" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3049,22 +3136,22 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>2444</v>
+        <v>526</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D49">
-        <v>1367</v>
+        <v>1359</v>
       </c>
       <c r="E49" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F49" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="G49" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3072,22 +3159,22 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>429</v>
+        <v>2444</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D50">
-        <v>1393</v>
+        <v>1367</v>
       </c>
       <c r="E50" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F50" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="G50" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3095,22 +3182,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>374</v>
+        <v>451</v>
       </c>
       <c r="C51" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D51">
-        <v>1479</v>
+        <v>1393</v>
       </c>
       <c r="E51" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="G51" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3118,22 +3205,22 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>2218</v>
+        <v>374</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D52">
-        <v>1572</v>
+        <v>1479</v>
       </c>
       <c r="E52" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="F52" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="G52" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3144,19 +3231,19 @@
         <v>2218</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D53">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E53" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="F53" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="G53" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3164,22 +3251,22 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>526</v>
+        <v>2218</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D54">
-        <v>1586</v>
+        <v>1573</v>
       </c>
       <c r="E54" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="F54" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="G54" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3187,22 +3274,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>371</v>
+        <v>526</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D55">
-        <v>1709</v>
+        <v>1586</v>
       </c>
       <c r="E55" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="F55" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="G55" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3210,19 +3297,22 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>3105</v>
+        <v>371</v>
+      </c>
+      <c r="C56" t="s">
+        <v>192</v>
       </c>
       <c r="D56">
-        <v>1716</v>
+        <v>1709</v>
       </c>
       <c r="E56" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F56" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="G56" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3230,22 +3320,19 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>2223</v>
-      </c>
-      <c r="C57" t="s">
-        <v>178</v>
+        <v>3105</v>
       </c>
       <c r="D57">
-        <v>2734</v>
+        <v>1716</v>
       </c>
       <c r="E57" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F57" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="G57" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3253,22 +3340,22 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>526</v>
+        <v>2223</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D58">
-        <v>2774</v>
+        <v>2734</v>
       </c>
       <c r="E58" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="F58" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="G58" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3276,22 +3363,22 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>3865</v>
+        <v>526</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D59">
-        <v>2792</v>
+        <v>2774</v>
       </c>
       <c r="E59" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="F59" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="G59" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3299,22 +3386,22 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>2403</v>
+        <v>3865</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D60">
-        <v>2809</v>
+        <v>2792</v>
       </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F60" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="G60" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3322,22 +3409,22 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>197</v>
+        <v>2403</v>
       </c>
       <c r="C61" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D61">
-        <v>2820</v>
+        <v>2809</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F61" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="G61" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3345,22 +3432,22 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>1663</v>
+        <v>197</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D62">
-        <v>3533</v>
+        <v>2820</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F62" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="G62" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3368,22 +3455,22 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>3784</v>
+        <v>1663</v>
       </c>
       <c r="C63" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D63">
-        <v>5521</v>
+        <v>3533</v>
       </c>
       <c r="E63" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F63" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="G63" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3391,22 +3478,22 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>3239</v>
+        <v>3784</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D64">
-        <v>5522</v>
+        <v>5521</v>
       </c>
       <c r="E64" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="F64" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="G64" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3414,22 +3501,22 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>1512</v>
+        <v>3239</v>
       </c>
       <c r="C65" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D65">
-        <v>5659</v>
+        <v>5522</v>
       </c>
       <c r="E65" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="G65" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3437,22 +3524,22 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>3784</v>
+        <v>1512</v>
       </c>
       <c r="C66" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D66">
-        <v>5662</v>
+        <v>5659</v>
       </c>
       <c r="E66" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="G66" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3460,22 +3547,22 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>1663</v>
+        <v>3784</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D67">
-        <v>5695</v>
+        <v>5662</v>
       </c>
       <c r="E67" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F67" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="G67" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3483,22 +3570,22 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>2200</v>
+        <v>1663</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D68">
-        <v>5718</v>
+        <v>5695</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="F68" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="G68" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3506,22 +3593,22 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>562</v>
+        <v>2200</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D69">
-        <v>5865</v>
+        <v>5718</v>
       </c>
       <c r="E69" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="F69" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="G69" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3529,22 +3616,22 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>4375</v>
+        <v>562</v>
       </c>
       <c r="C70" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D70">
-        <v>6662</v>
+        <v>5865</v>
       </c>
       <c r="E70" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F70" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="G70" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3552,22 +3639,22 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>2200</v>
+        <v>4375</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D71">
-        <v>6663</v>
+        <v>6662</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F71" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="G71" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3575,22 +3662,22 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>842</v>
+        <v>2200</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D72">
-        <v>6759</v>
+        <v>6663</v>
       </c>
       <c r="E72" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F72" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="G72" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3601,19 +3688,19 @@
         <v>842</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D73">
-        <v>6760</v>
+        <v>6759</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F73" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="G73" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3624,19 +3711,19 @@
         <v>842</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D74">
-        <v>6761</v>
+        <v>6760</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F74" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="G74" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3644,22 +3731,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>544</v>
+        <v>842</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D75">
-        <v>6764</v>
+        <v>6761</v>
       </c>
       <c r="E75" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="F75" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="G75" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3670,19 +3757,19 @@
         <v>544</v>
       </c>
       <c r="C76" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D76">
-        <v>6765</v>
+        <v>6764</v>
       </c>
       <c r="E76" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F76" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="G76" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3690,22 +3777,22 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>842</v>
+        <v>544</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D77">
-        <v>6766</v>
+        <v>6765</v>
       </c>
       <c r="E77" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F77" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="G77" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3716,19 +3803,19 @@
         <v>842</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D78">
-        <v>6767</v>
+        <v>6766</v>
       </c>
       <c r="E78" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="F78" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="G78" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3736,22 +3823,22 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>544</v>
+        <v>842</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D79">
-        <v>6768</v>
+        <v>6767</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="F79" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="G79" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3762,19 +3849,19 @@
         <v>544</v>
       </c>
       <c r="C80" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D80">
-        <v>6769</v>
+        <v>6768</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F80" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="G80" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3782,22 +3869,22 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>2403</v>
+        <v>544</v>
       </c>
       <c r="C81" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D81">
-        <v>6770</v>
+        <v>6769</v>
       </c>
       <c r="E81" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F81" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="G81" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3805,22 +3892,22 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>3865</v>
+        <v>2403</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D82">
-        <v>6781</v>
+        <v>6770</v>
       </c>
       <c r="E82" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="F82" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="G82" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3831,19 +3918,19 @@
         <v>3865</v>
       </c>
       <c r="C83" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D83">
-        <v>6782</v>
+        <v>6781</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="F83" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="G83" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3854,19 +3941,19 @@
         <v>3865</v>
       </c>
       <c r="C84" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D84">
-        <v>6783</v>
+        <v>6782</v>
       </c>
       <c r="E84" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F84" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="G84" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3874,22 +3961,22 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>1663</v>
+        <v>3865</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D85">
-        <v>6789</v>
+        <v>6783</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="F85" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="G85" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3897,22 +3984,22 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>738</v>
+        <v>1663</v>
       </c>
       <c r="C86" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D86">
-        <v>6791</v>
+        <v>6789</v>
       </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="F86" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="G86" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3920,22 +4007,22 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>546</v>
+        <v>738</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D87">
-        <v>6795</v>
+        <v>6791</v>
       </c>
       <c r="E87" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="F87" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="G87" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3943,22 +4030,22 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D88">
-        <v>6796</v>
+        <v>6795</v>
       </c>
       <c r="E88" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F88" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="G88" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3969,19 +4056,19 @@
         <v>508</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D89">
-        <v>6797</v>
+        <v>6796</v>
       </c>
       <c r="E89" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F89" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="G89" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3992,19 +4079,19 @@
         <v>508</v>
       </c>
       <c r="C90" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D90">
-        <v>6798</v>
+        <v>6797</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="F90" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G90" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4015,19 +4102,19 @@
         <v>508</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D91">
-        <v>6799</v>
+        <v>6798</v>
       </c>
       <c r="E91" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="F91" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="G91" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4035,22 +4122,22 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>204</v>
+        <v>508</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D92">
-        <v>6808</v>
+        <v>6799</v>
       </c>
       <c r="E92" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="F92" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="G92" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4061,19 +4148,19 @@
         <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D93">
-        <v>6809</v>
+        <v>6808</v>
       </c>
       <c r="E93" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="F93" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="G93" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4081,22 +4168,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>738</v>
+        <v>204</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D94">
-        <v>6815</v>
+        <v>6809</v>
       </c>
       <c r="E94" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="F94" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="G94" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4104,22 +4191,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>2403</v>
+        <v>738</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D95">
-        <v>6847</v>
+        <v>6815</v>
       </c>
       <c r="E95" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F95" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="G95" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4130,19 +4217,19 @@
         <v>2403</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D96">
-        <v>6848</v>
+        <v>6847</v>
       </c>
       <c r="E96" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F96" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="G96" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4150,22 +4237,22 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>1448</v>
+        <v>2403</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D97">
-        <v>6849</v>
+        <v>6848</v>
       </c>
       <c r="E97" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F97" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="G97" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4173,22 +4260,22 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>678</v>
+        <v>1448</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D98">
-        <v>6852</v>
+        <v>6849</v>
       </c>
       <c r="E98" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="F98" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="G98" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4199,19 +4286,19 @@
         <v>678</v>
       </c>
       <c r="C99" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D99">
-        <v>6853</v>
+        <v>6852</v>
       </c>
       <c r="E99" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="F99" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="G99" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4219,22 +4306,22 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>508</v>
+        <v>678</v>
       </c>
       <c r="C100" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D100">
-        <v>6857</v>
+        <v>6853</v>
       </c>
       <c r="E100" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="F100" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="G100" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4245,19 +4332,19 @@
         <v>508</v>
       </c>
       <c r="C101" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D101">
-        <v>6858</v>
+        <v>6857</v>
       </c>
       <c r="E101" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F101" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="G101" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4268,19 +4355,19 @@
         <v>508</v>
       </c>
       <c r="C102" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D102">
-        <v>6859</v>
+        <v>6858</v>
       </c>
       <c r="E102" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F102" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="G102" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4291,19 +4378,19 @@
         <v>508</v>
       </c>
       <c r="C103" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D103">
-        <v>6860</v>
+        <v>6859</v>
       </c>
       <c r="E103" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F103" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="G103" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4314,19 +4401,19 @@
         <v>508</v>
       </c>
       <c r="C104" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D104">
-        <v>6861</v>
+        <v>6860</v>
       </c>
       <c r="E104" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="F104" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="G104" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4334,22 +4421,22 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>417</v>
+        <v>508</v>
       </c>
       <c r="C105" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D105">
-        <v>6875</v>
+        <v>6861</v>
       </c>
       <c r="E105" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F105" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="G105" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4357,22 +4444,22 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>204</v>
+        <v>417</v>
       </c>
       <c r="C106" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D106">
-        <v>6882</v>
+        <v>6875</v>
       </c>
       <c r="E106" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="F106" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="G106" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4380,22 +4467,22 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>429</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D107">
-        <v>6894</v>
+        <v>6882</v>
       </c>
       <c r="E107" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F107" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="G107" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4403,22 +4490,22 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="C108" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D108">
-        <v>6896</v>
+        <v>6894</v>
       </c>
       <c r="E108" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F108" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="G108" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4426,22 +4513,22 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="C109" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D109">
-        <v>6897</v>
+        <v>6896</v>
       </c>
       <c r="E109" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="F109" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="G109" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4449,22 +4536,22 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>903</v>
+        <v>451</v>
       </c>
       <c r="C110" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D110">
-        <v>6934</v>
+        <v>6897</v>
       </c>
       <c r="E110" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F110" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="G110" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4472,22 +4559,22 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>229</v>
+        <v>903</v>
       </c>
       <c r="C111" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D111">
-        <v>7674</v>
+        <v>6934</v>
       </c>
       <c r="E111" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F111" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="G111" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4495,22 +4582,22 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>559</v>
+        <v>229</v>
       </c>
       <c r="C112" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="D112">
-        <v>7675</v>
+        <v>7674</v>
       </c>
       <c r="E112" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="F112" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="G112" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4518,22 +4605,22 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>1240</v>
+        <v>559</v>
       </c>
       <c r="C113" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D113">
-        <v>7695</v>
+        <v>7675</v>
       </c>
       <c r="E113" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F113" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="G113" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4541,22 +4628,22 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>3084</v>
+        <v>1240</v>
       </c>
       <c r="C114" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D114">
-        <v>7781</v>
+        <v>7695</v>
       </c>
       <c r="E114" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F114" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="G114" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4564,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>1399</v>
+        <v>3084</v>
       </c>
       <c r="C115" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D115">
-        <v>7860</v>
+        <v>7781</v>
       </c>
       <c r="E115" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="F115" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="G115" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4590,19 +4677,19 @@
         <v>1399</v>
       </c>
       <c r="C116" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D116">
-        <v>7862</v>
+        <v>7860</v>
       </c>
       <c r="E116" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="F116" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="G116" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4613,19 +4700,19 @@
         <v>1399</v>
       </c>
       <c r="C117" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D117">
-        <v>7873</v>
+        <v>7862</v>
       </c>
       <c r="E117" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F117" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="G117" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4633,22 +4720,22 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>535</v>
+        <v>1399</v>
       </c>
       <c r="C118" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="D118">
-        <v>7927</v>
+        <v>7873</v>
       </c>
       <c r="E118" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F118" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="G118" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4656,22 +4743,22 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>678</v>
+        <v>535</v>
       </c>
       <c r="C119" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D119">
-        <v>7939</v>
+        <v>7927</v>
       </c>
       <c r="E119" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F119" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="G119" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4679,22 +4766,22 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>2218</v>
+        <v>678</v>
       </c>
       <c r="C120" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="D120">
-        <v>7943</v>
+        <v>7939</v>
       </c>
       <c r="E120" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="F120" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="G120" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4702,22 +4789,22 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>1663</v>
+        <v>2218</v>
       </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D121">
-        <v>7945</v>
+        <v>7943</v>
       </c>
       <c r="E121" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="F121" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="G121" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4725,22 +4812,22 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>2822</v>
+        <v>1663</v>
       </c>
       <c r="C122" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D122">
-        <v>7959</v>
+        <v>7945</v>
       </c>
       <c r="E122" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="F122" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="G122" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4748,22 +4835,22 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>2444</v>
+        <v>2822</v>
       </c>
       <c r="C123" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D123">
-        <v>7961</v>
+        <v>7959</v>
       </c>
       <c r="E123" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="F123" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="G123" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4771,22 +4858,22 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>5201</v>
+        <v>2444</v>
       </c>
       <c r="C124" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D124">
-        <v>7962</v>
+        <v>7961</v>
       </c>
       <c r="E124" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F124" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="G124" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4794,22 +4881,22 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>2444</v>
+        <v>5201</v>
       </c>
       <c r="C125" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D125">
-        <v>8283</v>
+        <v>7962</v>
       </c>
       <c r="E125" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="F125" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="G125" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4817,22 +4904,22 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>2822</v>
+        <v>2444</v>
       </c>
       <c r="C126" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D126">
-        <v>8284</v>
+        <v>8283</v>
       </c>
       <c r="E126" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="F126" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="G126" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4840,22 +4927,22 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>2291</v>
+        <v>2822</v>
       </c>
       <c r="C127" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D127">
-        <v>8294</v>
+        <v>8284</v>
       </c>
       <c r="E127" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="F127" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="G127" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4863,22 +4950,22 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>429</v>
+        <v>2291</v>
       </c>
       <c r="C128" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="D128">
-        <v>8504</v>
+        <v>8294</v>
       </c>
       <c r="E128" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="F128" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="G128" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4886,22 +4973,22 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>2291</v>
+        <v>451</v>
       </c>
       <c r="C129" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D129">
-        <v>8577</v>
+        <v>8504</v>
       </c>
       <c r="E129" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F129" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="G129" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4909,22 +4996,22 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>2263</v>
+        <v>2291</v>
       </c>
       <c r="C130" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D130">
-        <v>8700</v>
+        <v>8577</v>
       </c>
       <c r="E130" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F130" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="G130" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4935,19 +5022,19 @@
         <v>2263</v>
       </c>
       <c r="C131" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D131">
-        <v>8701</v>
+        <v>8700</v>
       </c>
       <c r="E131" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F131" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="G131" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4958,19 +5045,19 @@
         <v>2263</v>
       </c>
       <c r="C132" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D132">
-        <v>8702</v>
+        <v>8701</v>
       </c>
       <c r="E132" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="F132" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="G132" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4981,19 +5068,19 @@
         <v>2263</v>
       </c>
       <c r="C133" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D133">
-        <v>8703</v>
+        <v>8702</v>
       </c>
       <c r="E133" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="F133" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="G133" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5001,22 +5088,22 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>1399</v>
+        <v>2263</v>
       </c>
       <c r="C134" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D134">
-        <v>8710</v>
+        <v>8703</v>
       </c>
       <c r="E134" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="F134" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="G134" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5024,22 +5111,22 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>3018</v>
+        <v>1399</v>
       </c>
       <c r="C135" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D135">
-        <v>8748</v>
+        <v>8710</v>
       </c>
       <c r="E135" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="F135" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="G135" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5047,19 +5134,22 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>494</v>
+        <v>3018</v>
+      </c>
+      <c r="C136" t="s">
+        <v>186</v>
       </c>
       <c r="D136">
-        <v>8774</v>
+        <v>8748</v>
       </c>
       <c r="E136" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F136" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="G136" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -5067,22 +5157,19 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>1477</v>
-      </c>
-      <c r="C137" t="s">
-        <v>177</v>
+        <v>494</v>
       </c>
       <c r="D137">
-        <v>9453</v>
+        <v>8774</v>
       </c>
       <c r="E137" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="F137" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="G137" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -5090,22 +5177,22 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>2944</v>
+        <v>1477</v>
       </c>
       <c r="C138" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D138">
-        <v>9456</v>
+        <v>9453</v>
       </c>
       <c r="E138" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F138" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="G138" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5113,22 +5200,22 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>4895</v>
+        <v>3040</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D139">
-        <v>9517</v>
+        <v>9456</v>
       </c>
       <c r="E139" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F139" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="G139" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5136,22 +5223,22 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>294</v>
+        <v>4895</v>
       </c>
       <c r="C140" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D140">
-        <v>11961</v>
+        <v>9517</v>
       </c>
       <c r="E140" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="F140" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="G140" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -5159,22 +5246,22 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>2444</v>
+        <v>294</v>
       </c>
       <c r="C141" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="D141">
-        <v>12065</v>
+        <v>11961</v>
       </c>
       <c r="E141" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="F141" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="G141" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5182,19 +5269,22 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>294</v>
+        <v>2444</v>
+      </c>
+      <c r="C142" t="s">
+        <v>186</v>
       </c>
       <c r="D142">
-        <v>12112</v>
+        <v>12065</v>
       </c>
       <c r="E142" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="F142" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="G142" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5202,22 +5292,19 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>4100</v>
-      </c>
-      <c r="C143" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="D143">
-        <v>12412</v>
+        <v>12112</v>
       </c>
       <c r="E143" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="F143" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="G143" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5225,22 +5312,22 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>6608</v>
+        <v>4100</v>
       </c>
       <c r="C144" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D144">
-        <v>12414</v>
+        <v>12412</v>
       </c>
       <c r="E144" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F144" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="G144" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5251,19 +5338,19 @@
         <v>6608</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D145">
-        <v>12415</v>
+        <v>12414</v>
       </c>
       <c r="E145" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F145" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="G145" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5274,19 +5361,19 @@
         <v>6608</v>
       </c>
       <c r="C146" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D146">
-        <v>12416</v>
+        <v>12415</v>
       </c>
       <c r="E146" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F146" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="G146" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5294,22 +5381,22 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>9791</v>
+        <v>6608</v>
       </c>
       <c r="C147" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D147">
-        <v>12419</v>
+        <v>12416</v>
       </c>
       <c r="E147" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="F147" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="G147" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5320,19 +5407,19 @@
         <v>9791</v>
       </c>
       <c r="C148" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D148">
-        <v>12420</v>
+        <v>12419</v>
       </c>
       <c r="E148" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="F148" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="G148" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5340,22 +5427,22 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>7048</v>
+        <v>9791</v>
       </c>
       <c r="C149" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D149">
-        <v>12518</v>
+        <v>12420</v>
       </c>
       <c r="E149" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F149" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="G149" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5363,22 +5450,22 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>4100</v>
+        <v>7048</v>
       </c>
       <c r="C150" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D150">
-        <v>13016</v>
+        <v>12518</v>
       </c>
       <c r="E150" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F150" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="G150" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5386,22 +5473,22 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>1627</v>
+        <v>1950</v>
       </c>
       <c r="C151" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D151">
-        <v>14517</v>
+        <v>12972</v>
       </c>
       <c r="E151" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F151" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="G151" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5409,22 +5496,22 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>2291</v>
+        <v>4100</v>
       </c>
       <c r="C152" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D152">
-        <v>15310</v>
+        <v>13016</v>
       </c>
       <c r="E152" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="F152" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="G152" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5432,22 +5519,22 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>1617</v>
+        <v>1627</v>
       </c>
       <c r="C153" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D153">
-        <v>15371</v>
+        <v>14517</v>
       </c>
       <c r="E153" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="F153" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="G153" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5455,22 +5542,22 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>976</v>
+        <v>2291</v>
       </c>
       <c r="C154" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D154">
-        <v>15761</v>
+        <v>15310</v>
       </c>
       <c r="E154" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F154" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="G154" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5478,22 +5565,22 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>1571</v>
+        <v>1617</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D155">
-        <v>15773</v>
+        <v>15371</v>
       </c>
       <c r="E155" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F155" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="G155" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5501,22 +5588,22 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>6970</v>
+        <v>976</v>
       </c>
       <c r="C156" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D156">
-        <v>15777</v>
+        <v>15761</v>
       </c>
       <c r="E156" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F156" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
       <c r="G156" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5524,22 +5611,22 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>635</v>
+        <v>6970</v>
       </c>
       <c r="C157" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D157">
-        <v>15953</v>
+        <v>15777</v>
       </c>
       <c r="E157" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="F157" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="G157" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5547,22 +5634,22 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>1865</v>
+        <v>4895</v>
       </c>
       <c r="C158" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D158">
-        <v>16262</v>
+        <v>15778</v>
       </c>
       <c r="E158" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="F158" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="G158" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5570,22 +5657,22 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>526</v>
+        <v>635</v>
       </c>
       <c r="C159" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D159">
-        <v>16265</v>
+        <v>15953</v>
       </c>
       <c r="E159" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F159" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="G159" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5593,22 +5680,22 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>562</v>
+        <v>1865</v>
       </c>
       <c r="C160" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D160">
-        <v>16267</v>
+        <v>16262</v>
       </c>
       <c r="E160" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F160" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="G160" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5616,22 +5703,22 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>2110</v>
+        <v>526</v>
       </c>
       <c r="C161" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D161">
-        <v>16270</v>
+        <v>16265</v>
       </c>
       <c r="E161" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F161" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="G161" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5639,22 +5726,22 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>2110</v>
+        <v>562</v>
       </c>
       <c r="C162" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D162">
-        <v>16271</v>
+        <v>16267</v>
       </c>
       <c r="E162" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F162" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="G162" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5662,22 +5749,22 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>9791</v>
+        <v>2110</v>
       </c>
       <c r="C163" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D163">
-        <v>16277</v>
+        <v>16270</v>
       </c>
       <c r="E163" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F163" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="G163" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5685,22 +5772,22 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>7048</v>
+        <v>2110</v>
       </c>
       <c r="C164" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D164">
-        <v>16278</v>
+        <v>16271</v>
       </c>
       <c r="E164" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F164" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
       <c r="G164" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5708,22 +5795,22 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>6970</v>
+        <v>9791</v>
       </c>
       <c r="C165" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D165">
-        <v>16284</v>
+        <v>16277</v>
       </c>
       <c r="E165" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="F165" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="G165" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5731,22 +5818,22 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>2570</v>
+        <v>7048</v>
       </c>
       <c r="C166" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D166">
-        <v>16289</v>
+        <v>16278</v>
       </c>
       <c r="E166" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F166" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="G166" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5754,22 +5841,22 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>535</v>
+        <v>4405</v>
       </c>
       <c r="C167" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D167">
-        <v>16291</v>
+        <v>16280</v>
       </c>
       <c r="E167" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="F167" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="G167" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5777,22 +5864,22 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>3865</v>
+        <v>4405</v>
       </c>
       <c r="C168" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D168">
-        <v>16293</v>
+        <v>16281</v>
       </c>
       <c r="E168" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F168" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="G168" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5800,22 +5887,22 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>3865</v>
+        <v>6970</v>
       </c>
       <c r="C169" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D169">
-        <v>16294</v>
+        <v>16284</v>
       </c>
       <c r="E169" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="F169" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G169" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5823,22 +5910,252 @@
         <v>175</v>
       </c>
       <c r="B170">
+        <v>2570</v>
+      </c>
+      <c r="C170" t="s">
+        <v>186</v>
+      </c>
+      <c r="D170">
+        <v>16289</v>
+      </c>
+      <c r="E170" t="s">
+        <v>364</v>
+      </c>
+      <c r="F170" t="s">
+        <v>543</v>
+      </c>
+      <c r="G170" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>176</v>
+      </c>
+      <c r="B171">
+        <v>535</v>
+      </c>
+      <c r="C171" t="s">
+        <v>193</v>
+      </c>
+      <c r="D171">
+        <v>16291</v>
+      </c>
+      <c r="E171" t="s">
+        <v>365</v>
+      </c>
+      <c r="F171" t="s">
+        <v>544</v>
+      </c>
+      <c r="G171" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172">
+        <v>3865</v>
+      </c>
+      <c r="C172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D172">
+        <v>16293</v>
+      </c>
+      <c r="E172" t="s">
+        <v>366</v>
+      </c>
+      <c r="F172" t="s">
+        <v>545</v>
+      </c>
+      <c r="G172" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173">
+        <v>3865</v>
+      </c>
+      <c r="C173" t="s">
+        <v>193</v>
+      </c>
+      <c r="D173">
+        <v>16294</v>
+      </c>
+      <c r="E173" t="s">
+        <v>367</v>
+      </c>
+      <c r="F173" t="s">
+        <v>546</v>
+      </c>
+      <c r="G173" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>179</v>
+      </c>
+      <c r="B174">
         <v>2120</v>
       </c>
-      <c r="C170" t="s">
-        <v>178</v>
-      </c>
-      <c r="D170">
+      <c r="C174" t="s">
+        <v>188</v>
+      </c>
+      <c r="D174">
         <v>16311</v>
       </c>
-      <c r="E170" t="s">
-        <v>354</v>
-      </c>
-      <c r="F170" t="s">
-        <v>523</v>
-      </c>
-      <c r="G170" t="s">
+      <c r="E174" t="s">
+        <v>368</v>
+      </c>
+      <c r="F174" t="s">
+        <v>547</v>
+      </c>
+      <c r="G174" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>180</v>
+      </c>
+      <c r="B175">
+        <v>2110</v>
+      </c>
+      <c r="C175" t="s">
+        <v>186</v>
+      </c>
+      <c r="D175">
+        <v>16580</v>
+      </c>
+      <c r="E175" t="s">
+        <v>369</v>
+      </c>
+      <c r="F175" t="s">
+        <v>548</v>
+      </c>
+      <c r="G175" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>181</v>
+      </c>
+      <c r="B176">
+        <v>6608</v>
+      </c>
+      <c r="C176" t="s">
+        <v>186</v>
+      </c>
+      <c r="D176">
+        <v>16583</v>
+      </c>
+      <c r="E176" t="s">
+        <v>370</v>
+      </c>
+      <c r="F176" t="s">
+        <v>549</v>
+      </c>
+      <c r="G176" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>182</v>
+      </c>
+      <c r="B177">
+        <v>4895</v>
+      </c>
+      <c r="C177" t="s">
+        <v>186</v>
+      </c>
+      <c r="D177">
+        <v>16584</v>
+      </c>
+      <c r="E177" t="s">
+        <v>371</v>
+      </c>
+      <c r="F177" t="s">
+        <v>550</v>
+      </c>
+      <c r="G177" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>183</v>
+      </c>
+      <c r="B178">
+        <v>2501</v>
+      </c>
+      <c r="C178" t="s">
+        <v>186</v>
+      </c>
+      <c r="D178">
+        <v>16586</v>
+      </c>
+      <c r="E178" t="s">
+        <v>372</v>
+      </c>
+      <c r="F178" t="s">
+        <v>551</v>
+      </c>
+      <c r="G178" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>184</v>
+      </c>
+      <c r="B179">
+        <v>1950</v>
+      </c>
+      <c r="C179" t="s">
+        <v>186</v>
+      </c>
+      <c r="D179">
+        <v>16588</v>
+      </c>
+      <c r="E179" t="s">
+        <v>373</v>
+      </c>
+      <c r="F179" t="s">
         <v>524</v>
+      </c>
+      <c r="G179" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>185</v>
+      </c>
+      <c r="B180">
+        <v>629</v>
+      </c>
+      <c r="C180" t="s">
+        <v>187</v>
+      </c>
+      <c r="D180">
+        <v>16594</v>
+      </c>
+      <c r="E180" t="s">
+        <v>374</v>
+      </c>
+      <c r="F180" t="s">
+        <v>552</v>
+      </c>
+      <c r="G180" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/data/procesados/drimel.xlsx
+++ b/data/procesados/drimel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3547</v>
+        <v>3481</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3547</v>
+        <v>3481</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -539,28 +539,24 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BABYSEC PREMIUM HIPER Mx48</t>
+          <t>SELEC.EST.SUPER XGx58</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2735</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Babysec</t>
-        </is>
-      </c>
+        <v>3740</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7790250047346</t>
+          <t>0008213</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-HIPER-Mx48</t>
+          <t>SELEC-EST-SUPER-XGx58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -572,24 +568,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SELEC.EST.SUPER XGx58</t>
+          <t>SELEC.EST.SUPER XXGx56</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3561</v>
+        <v>3740</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0008213</t>
+          <t>0008214</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>SELEC-EST-SUPER-XGx58</t>
+          <t>SELEC-EST-SUPER-XXGx56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -601,24 +597,28 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SELEC.EST.SUPER XXGx56</t>
+          <t>BABYSEC PREMIUM JUMBO Gx60</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3561</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>3910</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Babysec</t>
+        </is>
+      </c>
       <c r="D6" t="n">
-        <v>924</v>
+        <v>949</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0008214</t>
+          <t>7790250047247</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SELEC-EST-SUPER-XXGx56</t>
+          <t>BABYSEC-PREMIUM-JUMBO-Gx60</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -630,11 +630,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BABYSEC PREMIUM JUMBO Gx60</t>
+          <t>BABYSEC PREMIUM JUMBO XGx48</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3980</v>
+        <v>3910</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7790250047247</t>
+          <t>7790250913146</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-JUMBO-Gx60</t>
+          <t>BABYSEC-PREMIUM-JUMBO-XGx48</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -663,11 +663,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BABYSEC PREMIUM JUMBO XGx48</t>
+          <t>BABYSEC PREMIUM JUMBO XXGx44</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3980</v>
+        <v>3910</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -675,16 +675,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7790250913146</t>
+          <t>7790250913153</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-JUMBO-XGx48</t>
+          <t>BABYSEC-PREMIUM-JUMBO-XXGx44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -696,28 +696,28 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BABYSEC PREMIUM JUMBO XXGx44</t>
+          <t>HUGGIES TOALLA TRIPLE PROTECCIONx80</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3980</v>
+        <v>795</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7790250913153</t>
+          <t>7794626011030</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-JUMBO-XXGx44</t>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx80</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -729,28 +729,28 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HUGGIES TOALLA TRIPLE PROTECCIONx80</t>
+          <t>BABYSEC ULTRA JUMBO Mx68</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795</v>
+        <v>3269</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7794626011030</t>
+          <t>77902500244536</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx80</t>
+          <t>BABYSEC-ULTRA-JUMBO-Mx68</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -762,11 +762,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA JUMBO Mx68</t>
+          <t>BABYSEC ULTRA JUMBO Gx60</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3383</v>
+        <v>3269</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -774,16 +774,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>77902500244536</t>
+          <t>7790250044543</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-JUMBO-Mx68</t>
+          <t>BABYSEC-ULTRA-JUMBO-Gx60</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -795,11 +795,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA JUMBO Gx60</t>
+          <t>BABYSEC ULTRA JUMBO XGx52</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3383</v>
+        <v>3269</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -807,16 +807,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7790250044543</t>
+          <t>7790250044550</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-JUMBO-Gx60</t>
+          <t>BABYSEC-ULTRA-JUMBO-XGx52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -828,11 +828,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA JUMBO XGx52</t>
+          <t>BABYSEC ULTRA JUMBO XXGx50</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3383</v>
+        <v>3269</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>7790250044550</t>
+          <t>7790250044567</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-JUMBO-XGx52</t>
+          <t>BABYSEC-ULTRA-JUMBO-XXGx50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -861,28 +861,28 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA JUMBO XXGx50</t>
+          <t>UPA TOALLAS HUMEDASx100</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3383</v>
+        <v>484</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Upa</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>965</v>
+        <v>992</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7790250044567</t>
+          <t>7798045280169</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-JUMBO-XXGx50</t>
+          <t>UPA-TOALLAS-HUMEDASx100</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -894,28 +894,28 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UPA TOALLAS HUMEDASx100</t>
+          <t>HUGGIES SUPREME AHORRO Mx68</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>306</v>
+        <v>5493</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Upa</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>992</v>
+        <v>1036</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7798045280169</t>
+          <t>7794626010095</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UPA-TOALLAS-HUMEDASx100</t>
+          <t>HUGGIES-SUPREME-AHORRO-Mx68</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -927,11 +927,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME AHORRO Mx68</t>
+          <t>HUGGIES SUPREME AHORRO Gx60</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5782</v>
+        <v>5493</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -939,16 +939,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7794626010095</t>
+          <t>7794626012334</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-AHORRO-Mx68</t>
+          <t>HUGGIES-SUPREME-AHORRO-Gx60</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -960,11 +960,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME AHORRO Gx60</t>
+          <t>HUGGIES SUPREME AHORRO XGx52</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5782</v>
+        <v>5493</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7794626012334</t>
+          <t>7794626010118</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-AHORRO-Gx60</t>
+          <t>HUGGIES-SUPREME-AHORRO-XGx52</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -993,11 +993,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME AHORRO XGx52</t>
+          <t>HUGGIES SUPREME AHORRO XXGx50</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5782</v>
+        <v>5493</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7794626010118</t>
+          <t>7794626010125</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-AHORRO-XGx52</t>
+          <t>HUGGIES-SUPREME-AHORRO-XXGx50</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1026,28 +1026,28 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME AHORRO XXGx50</t>
+          <t>DUFFY PAÑAL PREMIUM Mx52</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5782</v>
+        <v>3226</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7794626010125</t>
+          <t>7798350082021</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-AHORRO-XXGx50</t>
+          <t>DUFFY-PA-AL-PREMIUM-Mx52</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1059,28 +1059,28 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL PREMIUM Mx52</t>
+          <t>HUGGIES PROTECT AHORRO Mx68</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2901</v>
+        <v>4151</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>7798350082021</t>
+          <t>7794626010170</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-PREMIUM-Mx52</t>
+          <t>HUGGIES-PROTECT-AHORRO-Mx68</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1092,11 +1092,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT AHORRO Mx68</t>
+          <t>HUGGIES PROTECT AHORRO Gx60</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4370</v>
+        <v>4151</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1104,16 +1104,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>7794626010170</t>
+          <t>7794626010187</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-AHORRO-Mx68</t>
+          <t>HUGGIES-PROTECT-AHORRO-Gx60</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1125,11 +1125,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT AHORRO Gx60</t>
+          <t>HUGGIES PROTECT AHORRO XGx52</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4370</v>
+        <v>4151</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1137,16 +1137,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7794626010187</t>
+          <t>7794626010194</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-AHORRO-Gx60</t>
+          <t>HUGGIES-PROTECT-AHORRO-XGx52</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1158,11 +1158,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT AHORRO XGx52</t>
+          <t>HUGGIES PROTECT AHORRO XXGx50</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4370</v>
+        <v>4151</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1170,16 +1170,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7794626010194</t>
+          <t>7794626011948</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-AHORRO-XGx52</t>
+          <t>HUGGIES-PROTECT-AHORRO-XXGx50</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1191,11 +1191,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT AHORRO XXGx50</t>
+          <t>HUGGIES PROTECT Px50</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4370</v>
+        <v>2489</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7794626011948</t>
+          <t>7794626010460</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-AHORRO-XXGx50</t>
+          <t>HUGGIES-PROTECT-Px50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1224,11 +1224,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT Px50</t>
+          <t>HUGGIES SUPREME Px50</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2490</v>
+        <v>3279</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1236,16 +1236,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7794626010460</t>
+          <t>7794626010439</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-Px50</t>
+          <t>HUGGIES-SUPREME-Px50</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1257,11 +1257,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME Px50</t>
+          <t>HUGGIES FLEXI COMFORT AHORRO XXGx50</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3280</v>
+        <v>4817</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7794626010439</t>
+          <t>7794626010620</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-Px50</t>
+          <t>HUGGIES-FLEXI-COMFORT-AHORRO-XXGx50</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1290,11 +1290,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HUGGIES FLEXI COMFORT AHORRO XXGx50</t>
+          <t>HUGGIES PROTECT Px30</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4817</v>
+        <v>1656</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1302,16 +1302,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1056</v>
+        <v>1076</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7794626010620</t>
+          <t>7794626010453</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-AHORRO-XXGx50</t>
+          <t>HUGGIES-PROTECT-Px30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1323,11 +1323,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT Px30</t>
+          <t>HUGGIES TOALLA TRIPLE PROTECCIONx48</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1656</v>
+        <v>583</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1335,16 +1335,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7794626010453</t>
+          <t>7794626011023</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-Px30</t>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx48</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1356,11 +1356,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HUGGIES TOALLA TRIPLE PROTECCIONx48</t>
+          <t>HUGGIES TOALLA TRIPLE PROTECCIONx96</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>568</v>
+        <v>1002</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1368,16 +1368,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>7794626011023</t>
+          <t>7794626011047</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx48</t>
+          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx96</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1389,11 +1389,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HUGGIES TOALLA TRIPLE PROTECCIONx96</t>
+          <t>HUGGIES CLASSIC MEGA Px30</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1002</v>
+        <v>1656</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1401,16 +1401,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>7794626011047</t>
+          <t>7794626010378</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>HUGGIES-TOALLA-TRIPLE-PROTECCIONx96</t>
+          <t>HUGGIES-CLASSIC-MEGA-Px30</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1422,11 +1422,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC MEGA Px30</t>
+          <t>HUGGIES SUPREME RNx17</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1656</v>
+        <v>1585</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1434,16 +1434,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7794626010378</t>
+          <t>7794626010392</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-MEGA-Px30</t>
+          <t>HUGGIES-SUPREME-RNx17</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1455,11 +1455,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME RNx17</t>
+          <t>HUGGIES FLEXI COMFORT RNx34</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1585</v>
+        <v>2243</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1467,16 +1467,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>7794626010392</t>
+          <t>7794626010651</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-RNx17</t>
+          <t>HUGGIES-FLEXI-COMFORT-RNx34</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HUGGIES FLEXI COMFORT RNx34</t>
+          <t>HUGGIES FLEXI COMFORT Px30</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1500,16 +1500,16 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>7794626010651</t>
+          <t>7794626010668</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-RNx34</t>
+          <t>HUGGIES-FLEXI-COMFORT-Px30</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1521,11 +1521,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HUGGIES FLEXI COMFORT Px30</t>
+          <t>HUGGIES FLEXI COMFORT Mx68</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2243</v>
+        <v>4817</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1533,16 +1533,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7794626010668</t>
+          <t>7794626010590</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-Px30</t>
+          <t>HUGGIES-FLEXI-COMFORT-Mx68</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1554,7 +1554,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HUGGIES FLEXI COMFORT Mx68</t>
+          <t>HUGGIES FLEXI COMFORT Gx60</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1566,16 +1566,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>7794626010590</t>
+          <t>7794626010606</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-Mx68</t>
+          <t>HUGGIES-FLEXI-COMFORT-Gx60</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1587,11 +1587,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HUGGIES FLEXI COMFORT Gx60</t>
+          <t>HUGGIES SUPREME RNx34</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4817</v>
+        <v>2755</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1599,16 +1599,16 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>7794626010606</t>
+          <t>7794626010415</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-Gx60</t>
+          <t>HUGGIES-SUPREME-RNx34</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1620,11 +1620,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME RNx34</t>
+          <t>HUGGIES FLEXI COMFORT Px50</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2755</v>
+        <v>2857</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1632,16 +1632,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>7794626010415</t>
+          <t>7794626010675</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-RNx34</t>
+          <t>HUGGIES-FLEXI-COMFORT-Px50</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1653,28 +1653,28 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HUGGIES FLEXI COMFORT Px50</t>
+          <t>PAMPERS SUPER XTR REG.XGx8</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2857</v>
+        <v>594</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7794626010675</t>
+          <t>7500435168694</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-Px50</t>
+          <t>PAMPERS-SUPER-XTR-REG-XGx8</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1686,28 +1686,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER XTR REG.XGx8</t>
+          <t>SELEC.EST.HIPER Gx40</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>606</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Pampers</t>
-        </is>
-      </c>
+        <v>2287</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>1092</v>
+        <v>1166</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7500435168694</t>
+          <t>1512</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-REG-XGx8</t>
+          <t>SELEC-EST-HIPER-Gx40</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1719,24 +1715,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SELEC.EST.HIPER Gx40</t>
+          <t>SELEC.EST.HIPER XXGx34</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2178</v>
+        <v>2287</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1512</t>
+          <t>1514</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>SELEC-EST-HIPER-Gx40</t>
+          <t>SELEC-EST-HIPER-XXGx34</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1748,24 +1744,28 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SELEC.EST.HIPER XXGx34</t>
+          <t>HUGGIES CLASSIC AHORRO Gx60</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2178</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>4005</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Huggies</t>
+        </is>
+      </c>
       <c r="D41" t="n">
-        <v>1168</v>
+        <v>1211</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>7794626009969</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SELEC-EST-HIPER-XXGx34</t>
+          <t>HUGGIES-CLASSIC-AHORRO-Gx60</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1777,11 +1777,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC AHORRO Gx60</t>
+          <t>HUGGIES CLASSIC AHORRO XGx52</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4216</v>
+        <v>4005</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1789,16 +1789,16 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>7794626009969</t>
+          <t>7794626009976</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-AHORRO-Gx60</t>
+          <t>HUGGIES-CLASSIC-AHORRO-XGx52</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1810,11 +1810,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC AHORRO XGx52</t>
+          <t>HUGGIES CLASSIC AHORRO XXGx50</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4216</v>
+        <v>4005</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1822,16 +1822,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>7794626009976</t>
+          <t>7794626009983</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-AHORRO-XGx52</t>
+          <t>HUGGIES-CLASSIC-AHORRO-XXGx50</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1843,28 +1843,28 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC AHORRO XXGx50</t>
+          <t>PAMPERS PREMIUM HIPER XGx36</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4216</v>
+        <v>4509</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1213</v>
+        <v>1293</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7794626009983</t>
+          <t>7500435183444</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-AHORRO-XXGx50</t>
+          <t>PAMPERS-PREMIUM-HIPER-XGx36</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1876,28 +1876,28 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM HIPER XGx36</t>
+          <t>HUGGIES TOALLA 4en1 DISNEY x80</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4594</v>
+        <v>1148</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1293</v>
+        <v>1318</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7500435183444</t>
+          <t>7794626011061</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-HIPER-XGx36</t>
+          <t>HUGGIES-TOALLA-4en1-DISNEY-x80</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1909,11 +1909,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HUGGIES TOALLA 4en1 DISNEY x80</t>
+          <t>HUGGIES CLASSIC AHORRO Mx68</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1110</v>
+        <v>4005</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>7794626011061</t>
+          <t>7794626996863</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>HUGGIES-TOALLA-4en1-DISNEY-x80</t>
+          <t>HUGGIES-CLASSIC-AHORRO-Mx68</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1942,28 +1942,28 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC AHORRO Mx68</t>
+          <t>PAMPERS SUPER XTR REG.Gx9</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4216</v>
+        <v>594</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1321</v>
+        <v>1359</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7794626996863</t>
+          <t>7500435183130</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-AHORRO-Mx68</t>
+          <t>PAMPERS-SUPER-XTR-REG-Gx9</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1975,11 +1975,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER XTR REG.Gx9</t>
+          <t>PAMPERS PANTS PC Mx34</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>606</v>
+        <v>2951</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1987,16 +1987,16 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1359</v>
+        <v>1367</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>7500435183130</t>
+          <t>7500435145930</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-REG-Gx9</t>
+          <t>PAMPERS-PANTS-PC-Mx34</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2008,28 +2008,28 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS PC Mx34</t>
+          <t>BABYSEC ULTRA REGULAR XXGx8</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2811</v>
+        <v>509</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1367</v>
+        <v>1393</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>7500435145930</t>
+          <t>7790250044246</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-PC-Mx34</t>
+          <t>BABYSEC-ULTRA-REGULAR-XXGx8</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2041,28 +2041,28 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA REGULAR XXGx8</t>
+          <t>DONCELLA HISOPOSx100</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Doncella</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1393</v>
+        <v>1479</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>7790250044246</t>
+          <t>7790940801067</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-XXGx8</t>
+          <t>DONCELLA-HISOPOSx100</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2074,28 +2074,28 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DONCELLA HISOPOSx100</t>
+          <t>BABYSEC PREMIUM HIPER Gx40</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>490</v>
+        <v>2687</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Doncella</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1479</v>
+        <v>1572</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>7790940801067</t>
+          <t>7790250047353</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>DONCELLA-HISOPOSx100</t>
+          <t>BABYSEC-PREMIUM-HIPER-Gx40</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2107,11 +2107,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BABYSEC PREMIUM HIPER Gx40</t>
+          <t>BABYSEC PREMIUM HIPER XGx32</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2735</v>
+        <v>2687</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>7790250047353</t>
+          <t>7790250047360</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-HIPER-Gx40</t>
+          <t>BABYSEC-PREMIUM-HIPER-XGx32</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2140,28 +2140,28 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BABYSEC PREMIUM HIPER XGx32</t>
+          <t>PAMPERS SUPER XTR REG.Mx10</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2735</v>
+        <v>594</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1573</v>
+        <v>1586</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7790250047360</t>
+          <t>7500435183123</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-HIPER-XGx32</t>
+          <t>PAMPERS-SUPER-XTR-REG-Mx10</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2173,28 +2173,28 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER XTR REG.Mx10</t>
+          <t>KIMBIES TOALLAS HUMEDASx48</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>606</v>
+        <v>455</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Kimbies</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1586</v>
+        <v>1709</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>7500435183123</t>
+          <t>7794626997617</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-REG-Mx10</t>
+          <t>KIMBIES-TOALLAS-HUMEDASx48</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2206,28 +2206,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KIMBIES TOALLAS HUMEDASx48</t>
+          <t>SELEC.EST.SUPER JUNIORx50</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>444</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Kimbies</t>
-        </is>
-      </c>
+        <v>3740</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>1709</v>
+        <v>1716</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7794626997617</t>
+          <t>08122</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>KIMBIES-TOALLAS-HUMEDASx48</t>
+          <t>SELEC-EST-SUPER-JUNIORx50</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2239,24 +2235,28 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SELEC.EST.SUPER JUNIORx50</t>
+          <t>HUGGIES SUPREME Px30</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3561</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>2755</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Huggies</t>
+        </is>
+      </c>
       <c r="D56" t="n">
-        <v>1716</v>
+        <v>2734</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>08122</t>
+          <t>7794626010422</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SELEC-EST-SUPER-JUNIORx50</t>
+          <t>HUGGIES-SUPREME-Px30</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2268,28 +2268,28 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME Px30</t>
+          <t>ESTRELLA PAÑAL SUPER JUNIORx50</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2755</v>
+        <v>4639</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2734</v>
+        <v>2792</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>7794626010422</t>
+          <t>7790064104983</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-Px30</t>
+          <t>ESTRELLA-PA-AL-SUPER-JUNIORx50</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2301,28 +2301,28 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER XTR REG.Px12</t>
+          <t>ESTRELLA PAÑAL HIPER Mx44</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>606</v>
+        <v>2838</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2774</v>
+        <v>2809</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>7500435183116</t>
+          <t>7790064104969</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-REG-Px12</t>
+          <t>ESTRELLA-PA-AL-HIPER-Mx44</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2334,28 +2334,28 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL SUPER JUNIORx50</t>
+          <t>HUGGIES JABON SUAVE x75</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4675</v>
+        <v>262</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2792</v>
+        <v>2820</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>7790064104983</t>
+          <t>7896018704398</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-SUPER-JUNIORx50</t>
+          <t>HUGGIES-JABON-SUAVE-x75</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2367,28 +2367,28 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL HIPER Mx44</t>
+          <t>BABYSEC ULTRA HIPER Vrom XGx28</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2859</v>
+        <v>2056</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2809</v>
+        <v>3533</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7790064104969</t>
+          <t>7790250044598</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-Mx44</t>
+          <t>BABYSEC-ULTRA-HIPER-Vrom-XGx28</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2400,11 +2400,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HUGGIES JABON SUAVE x75</t>
+          <t>HUGGIES FLEXI COMFORT AHORRO XXXGx48</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>256</v>
+        <v>4817</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2412,16 +2412,16 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2820</v>
+        <v>5521</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7896018704398</t>
+          <t>7794626012082</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>HUGGIES-JABON-SUAVE-x75</t>
+          <t>HUGGIES-FLEXI-COMFORT-AHORRO-XXXGx48</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2433,28 +2433,28 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA HIPER Vrom XGx28</t>
+          <t>HUGGIES PROTECT AHORRO XXXGx48</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1988</v>
+        <v>4151</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3533</v>
+        <v>5522</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>7790250044598</t>
+          <t>7794626011955</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-HIPER-Vrom-XGx28</t>
+          <t>HUGGIES-PROTECT-AHORRO-XXXGx48</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2466,11 +2466,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HUGGIES FLEXI COMFORT AHORRO XXXGx48</t>
+          <t>HUGGIES SUPREME PREMATUROSx30</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4817</v>
+        <v>1974</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2478,16 +2478,16 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5521</v>
+        <v>5659</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>7794626012082</t>
+          <t>7794626007149</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-AHORRO-XXXGx48</t>
+          <t>HUGGIES-SUPREME-PREMATUROSx30</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2499,11 +2499,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT AHORRO XXXGx48</t>
+          <t>HUGGIES FLEXI COMFORT XGx52</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4370</v>
+        <v>4817</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5522</v>
+        <v>5662</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>7794626011955</t>
+          <t>7794626010613</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-AHORRO-XXXGx48</t>
+          <t>HUGGIES-FLEXI-COMFORT-XGx52</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2532,28 +2532,28 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME PREMATUROSx30</t>
+          <t>BABYSEC ULTRA HIPER Vrom Gx36</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1974</v>
+        <v>2056</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5659</v>
+        <v>5695</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>7794626007149</t>
+          <t>7790250044406</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-PREMATUROSx30</t>
+          <t>BABYSEC-ULTRA-HIPER-Vrom-Gx36</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2565,28 +2565,28 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HUGGIES FLEXI COMFORT XGx52</t>
+          <t>DUFFY PAÑAL PREMIUM XGx32</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4817</v>
+        <v>3226</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5662</v>
+        <v>5718</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>7794626010613</t>
+          <t>7798350080195</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>HUGGIES-FLEXI-COMFORT-XGx52</t>
+          <t>DUFFY-PA-AL-PREMIUM-XGx32</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2598,28 +2598,28 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA HIPER Vrom Gx36</t>
+          <t>HUGGIES SUPREME AHORRO XXXG x48</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1988</v>
+        <v>5493</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5695</v>
+        <v>6662</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7790250044406</t>
+          <t>7794626012365</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-HIPER-Vrom-Gx36</t>
+          <t>HUGGIES-SUPREME-AHORRO-XXXG-x48</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2631,11 +2631,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL PREMIUM XGx32</t>
+          <t>DUFFY PAÑAL PREMIUM Gx36</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2901</v>
+        <v>3226</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2643,16 +2643,16 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>5718</v>
+        <v>6663</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>7798350080195</t>
+          <t>7798350082366</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-PREMIUM-XGx32</t>
+          <t>DUFFY-PA-AL-PREMIUM-Gx36</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2664,28 +2664,28 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME AHORRO XXXG x48</t>
+          <t>ESTRELLA ACONDICIONADOR SUAVESx400</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>5782</v>
+        <v>1013</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6662</v>
+        <v>6759</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>7794626012365</t>
+          <t>7790064007093</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-AHORRO-XXXG-x48</t>
+          <t>ESTRELLA-ACONDICIONADOR-SUAVESx400</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2697,28 +2697,28 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL PREMIUM Gx36</t>
+          <t>ESTRELLA ACONDICIONADOR CLAROSx400</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2901</v>
+        <v>1013</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6663</v>
+        <v>6760</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>7798350082366</t>
+          <t>7790064007109</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-PREMIUM-Gx36</t>
+          <t>ESTRELLA-ACONDICIONADOR-CLAROSx400</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2730,11 +2730,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ESTRELLA ACONDICIONADOR SUAVESx400</t>
+          <t>ESTRELLA ACONDICIONADOR EQUILIBRIOx400</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>969</v>
+        <v>1013</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2742,16 +2742,16 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>6759</v>
+        <v>6761</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>7790064007093</t>
+          <t>7790064007116</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ESTRELLA-ACONDICIONADOR-SUAVESx400</t>
+          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx400</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2763,11 +2763,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ESTRELLA ACONDICIONADOR CLAROSx400</t>
+          <t>ESTRELLA SHAMPOO CLAROSx400</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>969</v>
+        <v>1013</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2775,16 +2775,16 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>6760</v>
+        <v>6766</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>7790064007109</t>
+          <t>7790064007079</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ESTRELLA-ACONDICIONADOR-CLAROSx400</t>
+          <t>ESTRELLA-SHAMPOO-CLAROSx400</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2796,11 +2796,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ESTRELLA ACONDICIONADOR EQUILIBRIOx400</t>
+          <t>ESTRELLA ACONDICIONADOR SUAVESx200</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>969</v>
+        <v>655</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2808,16 +2808,16 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6761</v>
+        <v>6768</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>7790064007116</t>
+          <t>7790064007031</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx400</t>
+          <t>ESTRELLA-ACONDICIONADOR-SUAVESx200</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2829,11 +2829,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ESTRELLA SHAMPOO EQULIBRIOx200</t>
+          <t>ESTRELLA ACONDICIONADOR EQUILIBRIOx200</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>626</v>
+        <v>655</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2841,16 +2841,16 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>6765</v>
+        <v>6769</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>7790064007024</t>
+          <t>7790064007055</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ESTRELLA-SHAMPOO-EQULIBRIOx200</t>
+          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx200</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -2862,11 +2862,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ESTRELLA SHAMPOO CLAROSx400</t>
+          <t>ESTRELLA PAÑAL HIPER Gx40</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>969</v>
+        <v>2838</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2874,16 +2874,16 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6766</v>
+        <v>6770</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>7790064007079</t>
+          <t>7790064004238</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ESTRELLA-SHAMPOO-CLAROSx400</t>
+          <t>ESTRELLA-PA-AL-HIPER-Gx40</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2895,11 +2895,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ESTRELLA ACONDICIONADOR SUAVESx200</t>
+          <t>ESTRELLA PAÑAL SUPER Gx68</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>626</v>
+        <v>4639</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2907,16 +2907,16 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6768</v>
+        <v>6781</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>7790064007031</t>
+          <t>7790064004207</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ESTRELLA-ACONDICIONADOR-SUAVESx200</t>
+          <t>ESTRELLA-PA-AL-SUPER-Gx68</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2928,11 +2928,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ESTRELLA ACONDICIONADOR EQUILIBRIOx200</t>
+          <t>ESTRELLA PAÑAL SUPER XGx58</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>626</v>
+        <v>4639</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2940,16 +2940,16 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6769</v>
+        <v>6782</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7790064007055</t>
+          <t>7790064004214</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ESTRELLA-ACONDICIONADOR-EQUILIBRIOx200</t>
+          <t>ESTRELLA-PA-AL-SUPER-XGx58</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -2961,28 +2961,28 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL HIPER Gx40</t>
+          <t>BABYSEC ULTRA HIPER Vrom Mx44</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2859</v>
+        <v>2056</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6770</v>
+        <v>6789</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>7790064004238</t>
+          <t>7790250044574</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-Gx40</t>
+          <t>BABYSEC-ULTRA-HIPER-Vrom-Mx44</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -2994,11 +2994,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL SUPER Gx68</t>
+          <t>ESTRELLA OLEO MANZANILLAx250</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4675</v>
+        <v>887</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -3006,16 +3006,16 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6781</v>
+        <v>6791</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>7790064004207</t>
+          <t>7790064104822</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-SUPER-Gx68</t>
+          <t>ESTRELLA-OLEO-MANZANILLAx250</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3027,28 +3027,28 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL SUPER XGx58</t>
+          <t>HUGGIES PROTECT REG. Px8</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4675</v>
+        <v>691</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6782</v>
+        <v>6795</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>7790064004214</t>
+          <t>7794626010446</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-SUPER-XGx58</t>
+          <t>HUGGIES-PROTECT-REG-Px8</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3060,28 +3060,28 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA HIPER Vrom Mx44</t>
+          <t>HUGGIES PROTECT REG. Mx8</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1988</v>
+        <v>691</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>6789</v>
+        <v>6796</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7790250044574</t>
+          <t>7794626999758</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-HIPER-Vrom-Mx44</t>
+          <t>HUGGIES-PROTECT-REG-Mx8</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3093,28 +3093,28 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ESTRELLA OLEO MANZANILLAx250</t>
+          <t>HUGGIES PROTECT REG. Gx8</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>849</v>
+        <v>691</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>6791</v>
+        <v>6797</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>7790064104822</t>
+          <t>7794626999765</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ESTRELLA-OLEO-MANZANILLAx250</t>
+          <t>HUGGIES-PROTECT-REG-Gx8</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3126,7 +3126,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT REG. Px8</t>
+          <t>HUGGIES PROTECT REG. XGx8</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3138,16 +3138,16 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>6795</v>
+        <v>6798</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>7794626010446</t>
+          <t>7794626999772</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-REG-Px8</t>
+          <t>HUGGIES-PROTECT-REG-XGx8</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3159,7 +3159,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT REG. Mx8</t>
+          <t>HUGGIES PROTECT REG. XXGx8</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3171,16 +3171,16 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6796</v>
+        <v>6799</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>7794626999758</t>
+          <t>7794626999789</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-REG-Mx8</t>
+          <t>HUGGIES-PROTECT-REG-XXGx8</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3192,28 +3192,28 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT REG. Gx8</t>
+          <t>ESTRELLA JABON BABY GLICERINA</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>691</v>
+        <v>246</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>6797</v>
+        <v>6808</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>7794626999765</t>
+          <t>7790064104525</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-REG-Gx8</t>
+          <t>ESTRELLA-JABON-BABY-GLICERINA</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3225,28 +3225,28 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT REG. XGx8</t>
+          <t>ESTRELLA JABON BABY SUAVIDAD</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>691</v>
+        <v>246</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>6798</v>
+        <v>6809</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>7794626999772</t>
+          <t>7790064104501</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-REG-XGx8</t>
+          <t>ESTRELLA-JABON-BABY-SUAVIDAD</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3258,28 +3258,28 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HUGGIES PROTECT REG. XXGx8</t>
+          <t>ESTRELLA HISOPOSx100</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>691</v>
+        <v>554</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>6799</v>
+        <v>6814</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>7794626999789</t>
+          <t>7790064104662</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>HUGGIES-PROTECT-REG-XXGx8</t>
+          <t>ESTRELLA-HISOPOSx100</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3291,11 +3291,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ESTRELLA JABON BABY GLICERINA</t>
+          <t>ESTRELLA OLEO ALOEx250</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>236</v>
+        <v>887</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3303,16 +3303,16 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6808</v>
+        <v>6815</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>7790064104525</t>
+          <t>7790064104846</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ESTRELLA-JABON-BABY-GLICERINA</t>
+          <t>ESTRELLA-OLEO-ALOEx250</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3324,11 +3324,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ESTRELLA JABON BABY SUAVIDAD</t>
+          <t>ESTRELLA TOALLAS HUMEDAS CUIDADOx50</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>236</v>
+        <v>643</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>6809</v>
+        <v>6816</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>7790064104501</t>
+          <t>7790064104686</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ESTRELLA-JABON-BABY-SUAVIDAD</t>
+          <t>ESTRELLA-TOALLAS-HUMEDAS-CUIDADOx50</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3357,11 +3357,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ESTRELLA HISOPOSx100</t>
+          <t>ESTRELLA PAÑAL HIPER XGx36</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>530</v>
+        <v>2838</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3369,16 +3369,16 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>6814</v>
+        <v>6847</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>7790064104662</t>
+          <t>7790064004085</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ESTRELLA-HISOPOSx100</t>
+          <t>ESTRELLA-PA-AL-HIPER-XGx36</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3390,11 +3390,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ESTRELLA OLEO ALOEx250</t>
+          <t>ESTRELLA PAÑAL HIPER XXGx34</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>849</v>
+        <v>2838</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3402,16 +3402,16 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>6815</v>
+        <v>6848</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>7790064104846</t>
+          <t>7790064004139</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ESTRELLA-OLEO-ALOEx250</t>
+          <t>ESTRELLA-PA-AL-HIPER-XXGx34</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3423,11 +3423,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ESTRELLA TOALLAS HUMEDAS CUIDADOx50</t>
+          <t>ESTRELLA PAÑAL MEGA Px30</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>656</v>
+        <v>1741</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3435,16 +3435,16 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>6816</v>
+        <v>6849</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>7790064104686</t>
+          <t>7790064004023</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ESTRELLA-TOALLAS-HUMEDAS-CUIDADOx50</t>
+          <t>ESTRELLA-PA-AL-MEGA-Px30</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3456,11 +3456,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL HIPER XGx36</t>
+          <t>ESTRELLA PAÑAL REGULAR Mx9</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2859</v>
+        <v>774</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3468,16 +3468,16 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>6847</v>
+        <v>6850</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>7790064004085</t>
+          <t>7790064004030</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-XGx36</t>
+          <t>ESTRELLA-PA-AL-REGULAR-Mx9</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3489,11 +3489,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL HIPER XXGx34</t>
+          <t>ESTRELLA PAÑAL REGULAR XGx8</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2859</v>
+        <v>774</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3501,16 +3501,16 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>6848</v>
+        <v>6852</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>7790064004139</t>
+          <t>7790064004078</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-HIPER-XXGx34</t>
+          <t>ESTRELLA-PA-AL-REGULAR-XGx8</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3522,11 +3522,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL MEGA Px30</t>
+          <t>ESTRELLA PAÑAL REGULAR XXGx8</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1666</v>
+        <v>774</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3534,16 +3534,16 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6849</v>
+        <v>6853</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>7790064004023</t>
+          <t>7790064004092</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-MEGA-Px30</t>
+          <t>ESTRELLA-PA-AL-REGULAR-XXGx8</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3555,28 +3555,28 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL REGULAR XGx8</t>
+          <t>HUGGIES CLASSIC REG. Px8</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>779</v>
+        <v>691</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6852</v>
+        <v>6857</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>7790064004078</t>
+          <t>7794626996917</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-REGULAR-XGx8</t>
+          <t>HUGGIES-CLASSIC-REG-Px8</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -3588,28 +3588,28 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL REGULAR XXGx8</t>
+          <t>HUGGIES CLASSIC REG. Mx8</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>779</v>
+        <v>691</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6853</v>
+        <v>6858</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>7790064004092</t>
+          <t>7794626996931</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-REGULAR-XXGx8</t>
+          <t>HUGGIES-CLASSIC-REG-Mx8</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -3621,7 +3621,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC REG. Px8</t>
+          <t>HUGGIES CLASSIC REG. Gx8</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3633,16 +3633,16 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>6857</v>
+        <v>6859</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>7794626996917</t>
+          <t>7794626996900</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-REG-Px8</t>
+          <t>HUGGIES-CLASSIC-REG-Gx8</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3654,7 +3654,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC REG. Mx8</t>
+          <t>HUGGIES CLASSIC REG. XGx8</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3666,16 +3666,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>6858</v>
+        <v>6860</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>7794626996931</t>
+          <t>7794626009181</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-REG-Mx8</t>
+          <t>HUGGIES-CLASSIC-REG-XGx8</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3687,7 +3687,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC REG. Gx8</t>
+          <t>HUGGIES CLASSIC REG. XXGx8</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3699,16 +3699,16 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6859</v>
+        <v>6861</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>7794626996900</t>
+          <t>7794626009563</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-REG-Gx8</t>
+          <t>HUGGIES-CLASSIC-REG-XXGx8</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -3720,28 +3720,28 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC REG. XGx8</t>
+          <t>ESTRELLA POMPONES x50</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>691</v>
+        <v>502</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>6860</v>
+        <v>6875</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>7794626009181</t>
+          <t>7790064002029</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-REG-XGx8</t>
+          <t>ESTRELLA-POMPONES-x50</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3753,28 +3753,28 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HUGGIES CLASSIC REG. XXGx8</t>
+          <t>ESTRELLA JABON BABY DUERME FELIZ</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>691</v>
+        <v>246</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>6861</v>
+        <v>6882</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>7794626009563</t>
+          <t>7790064104518</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>HUGGIES-CLASSIC-REG-XXGx8</t>
+          <t>ESTRELLA-JABON-BABY-DUERME-FELIZ</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -3786,28 +3786,28 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ESTRELLA POMPONES x50</t>
+          <t>BABYSEC ULTRA REGULAR Px12</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>6875</v>
+        <v>6894</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>7790064002029</t>
+          <t>7790250044208</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ESTRELLA-POMPONES-x50</t>
+          <t>BABYSEC-ULTRA-REGULAR-Px12</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -3819,28 +3819,28 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ESTRELLA JABON BABY DUERME FELIZ</t>
+          <t>BABYSEC ULTRA REGULAR Gx8</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>236</v>
+        <v>509</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>6882</v>
+        <v>6896</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>7790064104518</t>
+          <t>7790250041887</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ESTRELLA-JABON-BABY-DUERME-FELIZ</t>
+          <t>BABYSEC-ULTRA-REGULAR-Gx8</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -3852,11 +3852,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA REGULAR Px12</t>
+          <t>BABYSEC ULTRA REGULAR XGx8</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3864,16 +3864,16 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>6894</v>
+        <v>6897</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>7790250044208</t>
+          <t>7790250044239</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-Px12</t>
+          <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -3885,28 +3885,28 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA REGULAR Gx8</t>
+          <t>ESTRELLA PAÑOS MAXI ALGODONx50</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>526</v>
+        <v>1085</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>6896</v>
+        <v>6934</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>7790250041887</t>
+          <t>7790064002173</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-Gx8</t>
+          <t>ESTRELLA-PA-OS-MAXI-ALGODONx50</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -3918,28 +3918,28 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA REGULAR XGx8</t>
+          <t>HUGGIES TOALLA FROZENx48</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>526</v>
+        <v>686</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>6897</v>
+        <v>7675</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>7790250044239</t>
+          <t>7794626012594</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-XGx8</t>
+          <t>HUGGIES-TOALLA-FROZENx48</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -3951,28 +3951,28 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑOS MAXI ALGODONx50</t>
+          <t>HUGGIES SUPREME Px17</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1039</v>
+        <v>1585</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6934</v>
+        <v>7695</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>7790064002173</t>
+          <t>7794626010408</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-OS-MAXI-ALGODONx50</t>
+          <t>HUGGIES-SUPREME-Px17</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -3984,28 +3984,28 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HUGGIES TOALLA FROZENx48</t>
+          <t>PAMPERS CONFORT XTR HIPER XGx36</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>668</v>
+        <v>3481</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>7675</v>
+        <v>7781</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>7794626012594</t>
+          <t>7500435189071</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>HUGGIES-TOALLA-FROZENx48</t>
+          <t>PAMPERS-CONFORT-XTR-HIPER-XGx36</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4017,28 +4017,28 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HUGGIES SUPREME Px17</t>
+          <t>BABYSEC PREMIUM TRI-PACK Px30</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1585</v>
+        <v>1532</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>7695</v>
+        <v>7837</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>7794626010408</t>
+          <t>7790250047148</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>HUGGIES-SUPREME-Px17</t>
+          <t>BABYSEC-PREMIUM-TRI-PACK-Px30</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4050,28 +4050,28 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR HIPER XGx36</t>
+          <t>DUFFY PAÑAL HIPER Mx38</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3547</v>
+        <v>1983</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>7781</v>
+        <v>7860</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>7500435189071</t>
+          <t>7798350082380</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-HIPER-XGx36</t>
+          <t>DUFFY-PA-AL-HIPER-Mx38</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4083,28 +4083,28 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BABYSEC PREMIUM TRI-PACK Px30</t>
+          <t>DUFFY PAÑAL HIPER XXGx26</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1194</v>
+        <v>1983</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>7837</v>
+        <v>7862</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>7790250047148</t>
+          <t>7798350081260</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-TRI-PACK-Px30</t>
+          <t>DUFFY-PA-AL-HIPER-XXGx26</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4116,11 +4116,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL HIPER Mx38</t>
+          <t>DUFFY PAÑAL HIPER XGx28</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1824</v>
+        <v>1983</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -4128,16 +4128,16 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>7860</v>
+        <v>7873</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>7798350082380</t>
+          <t>7798350081284</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-HIPER-Mx38</t>
+          <t>DUFFY-PA-AL-HIPER-XGx28</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4149,28 +4149,28 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL HIPER XXGx26</t>
+          <t>ESTRELLA TOALLAS HUMEDAS SENSIBLEx50</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1824</v>
+        <v>643</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>7862</v>
+        <v>7927</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>7798350081260</t>
+          <t>7790064104693</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-HIPER-XXGx26</t>
+          <t>ESTRELLA-TOALLAS-HUMEDAS-SENSIBLEx50</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4182,28 +4182,28 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL HIPER XGx28</t>
+          <t>ESTRELLA HISOPOS BOLSAx125</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1824</v>
+        <v>533</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>7873</v>
+        <v>7936</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>7798350081284</t>
+          <t>7790064104709</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-HIPER-XGx28</t>
+          <t>ESTRELLA-HISOPOS-BOLSAx125</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4215,11 +4215,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ESTRELLA TOALLAS HUMEDAS SENSIBLEx50</t>
+          <t>ESTRELLA PAÑAL REGULAR Gx9</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>656</v>
+        <v>774</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -4227,16 +4227,16 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>7927</v>
+        <v>7939</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>7790064104693</t>
+          <t>7790064004054</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ESTRELLA-TOALLAS-HUMEDAS-SENSIBLEx50</t>
+          <t>ESTRELLA-PA-AL-REGULAR-Gx9</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4248,28 +4248,28 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ESTRELLA HISOPOS BOLSAx125</t>
+          <t>BABYSEC PREMIUM HIPER XXGx30</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>509</v>
+        <v>2687</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7936</v>
+        <v>7943</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>7790064104709</t>
+          <t>7790250047377</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ESTRELLA-HISOPOS-BOLSAx125</t>
+          <t>BABYSEC-PREMIUM-HIPER-XXGx30</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4281,28 +4281,28 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL REGULAR Gx9</t>
+          <t>BABYSEC ULTRA HIPER Vrom XXGx26</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>779</v>
+        <v>2056</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>7939</v>
+        <v>7945</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>7790064004054</t>
+          <t>7790250044604</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-REGULAR-Gx9</t>
+          <t>BABYSEC-ULTRA-HIPER-Vrom-XXGx26</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4314,28 +4314,28 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BABYSEC PREMIUM HIPER XXGx30</t>
+          <t>PAMPERS PANTS CS HIPER Gx40</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2735</v>
+        <v>3555</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>7943</v>
+        <v>7959</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>7790250047377</t>
+          <t>7500435189620</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>BABYSEC-PREMIUM-HIPER-XXGx30</t>
+          <t>PAMPERS-PANTS-CS-HIPER-Gx40</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4347,28 +4347,28 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA HIPER Vrom XXGx26</t>
+          <t>PAMPERS PANTS PC Gx30</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1988</v>
+        <v>2951</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>7945</v>
+        <v>7961</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>7790250044604</t>
+          <t>7500435178303</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-HIPER-Vrom-XXGx26</t>
+          <t>PAMPERS-PANTS-PC-Gx30</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4380,11 +4380,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS CS HIPER Gx40</t>
+          <t>PAMPERS PANTS PC MES Gx64</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3244</v>
+        <v>6280</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -4392,16 +4392,16 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>7959</v>
+        <v>7962</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>7500435189620</t>
+          <t>7500435141246</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-CS-HIPER-Gx40</t>
+          <t>PAMPERS-PANTS-PC-MES-Gx64</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4413,11 +4413,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS PC Gx30</t>
+          <t>PAMPERS PANTS PC XGx26</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2811</v>
+        <v>2951</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -4425,16 +4425,16 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>7961</v>
+        <v>8283</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>7500435178303</t>
+          <t>7500435189583</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-PC-Gx30</t>
+          <t>PAMPERS-PANTS-PC-XGx26</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4446,11 +4446,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS PC MES Gx64</t>
+          <t>PAMPERS PANTS CS HIPER XGx34</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5981</v>
+        <v>3555</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -4458,16 +4458,16 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>7962</v>
+        <v>8284</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>7500435141246</t>
+          <t>7500435189613</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-PC-MES-Gx64</t>
+          <t>PAMPERS-PANTS-CS-HIPER-XGx34</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4479,28 +4479,28 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS PC XGx26</t>
+          <t>HUGGIES PLUS PROTECT Gx40</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2811</v>
+        <v>3175</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>8283</v>
+        <v>8294</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>7500435189583</t>
+          <t>7794626011887</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-PC-XGx26</t>
+          <t>HUGGIES-PLUS-PROTECT-Gx40</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4512,28 +4512,28 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS CS HIPER XGx34</t>
+          <t>BABYSEC ULTRA REGULAR Mx8</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3244</v>
+        <v>509</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>8284</v>
+        <v>8504</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>7500435189613</t>
+          <t>7790250913306</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-CS-HIPER-XGx34</t>
+          <t>BABYSEC-ULTRA-REGULAR-Mx8</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4545,7 +4545,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HUGGIES PLUS PROTECT Gx40</t>
+          <t>HUGGIES PLUS PROTECT XGx32</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4557,16 +4557,16 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>8294</v>
+        <v>8577</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>7794626011887</t>
+          <t>7794626011894</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>HUGGIES-PLUS-PROTECT-Gx40</t>
+          <t>HUGGIES-PLUS-PROTECT-XGx32</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4578,28 +4578,28 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BABYSEC ULTRA REGULAR Mx8</t>
+          <t>DUFFY PAÑAL AHORRO Mx52</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>526</v>
+        <v>3208</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>8504</v>
+        <v>8700</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>7790250913306</t>
+          <t>7798350082526</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>BABYSEC-ULTRA-REGULAR-Mx8</t>
+          <t>DUFFY-PA-AL-AHORRO-Mx52</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4611,28 +4611,28 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HUGGIES PLUS PROTECT XGx32</t>
+          <t>DUFFY PAÑAL AHORRO Gx48</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3175</v>
+        <v>3208</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>8577</v>
+        <v>8701</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>7794626011894</t>
+          <t>7798350082489</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>HUGGIES-PLUS-PROTECT-XGx32</t>
+          <t>DUFFY-PA-AL-AHORRO-Gx48</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4644,11 +4644,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL AHORRO Mx52</t>
+          <t>DUFFY PAÑAL AHORRO XGx44</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2952</v>
+        <v>3208</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -4656,16 +4656,16 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>8700</v>
+        <v>8702</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>7798350082526</t>
+          <t>7798350084445</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-AHORRO-Mx52</t>
+          <t>DUFFY-PA-AL-AHORRO-XGx44</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4677,11 +4677,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL AHORRO Gx48</t>
+          <t>DUFFY PAÑAL AHORRO XXGx42</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2952</v>
+        <v>3208</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>8701</v>
+        <v>8703</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>7798350082489</t>
+          <t>7798350085428</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-AHORRO-Gx48</t>
+          <t>DUFFY-PA-AL-AHORRO-XXGx42</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4710,11 +4710,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL AHORRO XGx44</t>
+          <t>DUFFY PAÑAL HIPER Gx32</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2952</v>
+        <v>1983</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -4722,16 +4722,16 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>8702</v>
+        <v>8710</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>7798350084445</t>
+          <t>7798350082328</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-AHORRO-XGx44</t>
+          <t>DUFFY-PA-AL-HIPER-Gx32</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4743,28 +4743,28 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL AHORRO XXGx42</t>
+          <t>PAMPERS PANTS CS HIPER XXGx32</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>2952</v>
+        <v>3555</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>8703</v>
+        <v>8748</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>7798350085428</t>
+          <t>7500435207577</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-AHORRO-XXGx42</t>
+          <t>PAMPERS-PANTS-CS-HIPER-XXGx32</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4776,28 +4776,24 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL HIPER Gx32</t>
+          <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1824</v>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Duffy</t>
-        </is>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>8710</v>
+        <v>8774</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>7798350082328</t>
+          <t>7791274198359</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-HIPER-Gx32</t>
+          <t>AVENGERS-SPIDERMAN-SHAMPOOx200</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4809,28 +4805,28 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>PAMPERS PANTS CS HIPER XXGx32</t>
+          <t>BABYSEC RECIEN NACIDOx20</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3470</v>
+        <v>1628</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>8748</v>
+        <v>9453</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>7500435207577</t>
+          <t>7502247331549</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>PAMPERS-PANTS-CS-HIPER-XXGx32</t>
+          <t>BABYSEC-RECIEN-NACIDOx20</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -4842,24 +4838,28 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AVENGERS SPIDERMAN SHAMPOOx200</t>
+          <t>BABYSEC SUPER PREMIUM Gx44</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>598</v>
-      </c>
-      <c r="C135" t="inlineStr"/>
+        <v>3493</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Babysec</t>
+        </is>
+      </c>
       <c r="D135" t="n">
-        <v>8774</v>
+        <v>9456</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>7791274198359</t>
+          <t>7730219049028</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>AVENGERS-SPIDERMAN-SHAMPOOx200</t>
+          <t>BABYSEC-SUPER-PREMIUM-Gx44</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -4871,28 +4871,28 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BABYSEC RECIEN NACIDOx20</t>
+          <t>PAMPERS PREMIUM MES XGx58</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1698</v>
+        <v>5525</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>9453</v>
+        <v>9517</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>7502247331549</t>
+          <t>7500435188897</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>BABYSEC-RECIEN-NACIDOx20</t>
+          <t>PAMPERS-PREMIUM-MES-XGx58</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -4904,28 +4904,28 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BABYSEC SUPER PREMIUM Gx44</t>
+          <t>DEYSE OLEO CALCAREOx250</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3496</v>
+        <v>354</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Deyse</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>9456</v>
+        <v>11961</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>7730219049028</t>
+          <t>7797273000280</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>BABYSEC-SUPER-PREMIUM-Gx44</t>
+          <t>DEYSE-OLEO-CALCAREOx250</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -4937,28 +4937,24 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM MES XGx58</t>
+          <t>ST VALLEY HISOPOS x100</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>5630</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Pampers</t>
-        </is>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>9517</v>
+        <v>12112</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>7500435188897</t>
+          <t>7791274200861</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-MES-XGx58</t>
+          <t>ST-VALLEY-HISOPOS-x100</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -4970,28 +4966,28 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>DEYSE OLEO CALCAREOx250</t>
+          <t>PAMPERS BABYSAN MES Gx72</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>354</v>
+        <v>4627</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Deyse</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>11961</v>
+        <v>12410</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>7797273000280</t>
+          <t>7500435228534</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>DEYSE-OLEO-CALCAREOx250</t>
+          <t>PAMPERS-BABYSAN-MES-Gx72</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5003,24 +4999,28 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ST VALLEY HISOPOS x100</t>
+          <t>PAMPERS BABYSAN MES XXGx54</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>378</v>
-      </c>
-      <c r="C140" t="inlineStr"/>
+        <v>4627</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Pampers</t>
+        </is>
+      </c>
       <c r="D140" t="n">
-        <v>12112</v>
+        <v>12412</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>7791274200861</t>
+          <t>7500435228565</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ST-VALLEY-HISOPOS-x100</t>
+          <t>PAMPERS-BABYSAN-MES-XXGx54</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5032,11 +5032,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES Gx72</t>
+          <t>PAMPERS BabyDry MES Mx72</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4714</v>
+        <v>7458</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>12410</v>
+        <v>12414</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>7500435228534</t>
+          <t>7500435228701</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>PAMPERS-BABYSAN-MES-Gx72</t>
+          <t>PAMPERS-BabyDry-MES-Mx72</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5065,11 +5065,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XXGx54</t>
+          <t>PAMPERS BabyDry MES Gx72</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4714</v>
+        <v>7458</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -5077,16 +5077,16 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>12412</v>
+        <v>12415</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>7500435228565</t>
+          <t>7500435228695</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>PAMPERS-BABYSAN-MES-XXGx54</t>
+          <t>PAMPERS-BabyDry-MES-Gx72</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5098,11 +5098,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES Mx72</t>
+          <t>PAMPERS BabyDry MES XGx58</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>7599</v>
+        <v>7458</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -5110,16 +5110,16 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>12414</v>
+        <v>12416</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>7500435228701</t>
+          <t>7500435228718</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-MES-Mx72</t>
+          <t>PAMPERS-BabyDry-MES-XGx58</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5131,11 +5131,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES Gx72</t>
+          <t>PAMPERS BabyDry JUMBO XGx96</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>7599</v>
+        <v>11052</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -5143,16 +5143,16 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>12415</v>
+        <v>12419</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>7500435228695</t>
+          <t>7500435228671</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-MES-Gx72</t>
+          <t>PAMPERS-BabyDry-JUMBO-XGx96</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5164,11 +5164,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES XGx58</t>
+          <t>PAMPERS BabyDry JUMBO XXGx88</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>7599</v>
+        <v>11052</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -5176,16 +5176,16 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>12416</v>
+        <v>12420</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>7500435228718</t>
+          <t>7500435228688</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-MES-XGx58</t>
+          <t>PAMPERS-BabyDry-JUMBO-XXGx88</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5197,11 +5197,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO XGx96</t>
+          <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>11260</v>
+        <v>8089</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -5209,16 +5209,16 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>12419</v>
+        <v>12518</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>7500435228671</t>
+          <t>7500435189149</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-JUMBO-XGx96</t>
+          <t>PAMPERS-CONFORT-XTR-JUMBO-XGx96</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5230,28 +5230,28 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO XXGx88</t>
+          <t>ESTRELLA OLEO ALGODONx950</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>11260</v>
+        <v>1956</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>12420</v>
+        <v>14517</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>7500435228688</t>
+          <t>7790064104815</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-JUMBO-XXGx88</t>
+          <t>ESTRELLA-OLEO-ALGODONx950</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5263,11 +5263,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR JUMBO XGx96</t>
+          <t>PAMPERS BABYSAN Px52</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>8105</v>
+        <v>3314</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -5275,16 +5275,16 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>12518</v>
+        <v>14542</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>7500435189149</t>
+          <t>7500435230506</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-JUMBO-XGx96</t>
+          <t>PAMPERS-BABYSAN-Px52</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5296,11 +5296,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM XTR RN x36</t>
+          <t>PAMPERS PREMIUM Px36</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2269</v>
+        <v>2324</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -5308,16 +5308,16 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>12972</v>
+        <v>14556</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>7500435132954</t>
+          <t>7500435183406</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-XTR-RN-x36</t>
+          <t>PAMPERS-PREMIUM-Px36</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5329,28 +5329,28 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES XGx58</t>
+          <t>HUGGIES PLUS PROTECT XXGx30</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4714</v>
+        <v>3175</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13016</v>
+        <v>15310</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>7500435228558</t>
+          <t>7794626011900</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>PAMPERS-BABYSAN-MES-XGx58</t>
+          <t>HUGGIES-PLUS-PROTECT-XXGx30</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5362,28 +5362,28 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ESTRELLA OLEO ALGODONx950</t>
+          <t>DUFFY PAÑAL HIPER Px44</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1871</v>
+        <v>2332</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Duffy</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>14517</v>
+        <v>15371</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>7790064104815</t>
+          <t>7798350084322</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ESTRELLA-OLEO-ALGODONx950</t>
+          <t>DUFFY-PA-AL-HIPER-Px44</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5395,28 +5395,28 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN Px52</t>
+          <t>ESTRELLA OLEO ALGODONx500</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3320</v>
+        <v>1174</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>14542</v>
+        <v>15761</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>7500435230506</t>
+          <t>7790064104808</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>PAMPERS-BABYSAN-Px52</t>
+          <t>ESTRELLA-OLEO-ALGODONx500</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5428,11 +5428,11 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM Px36</t>
+          <t>PAMPERS BabyDry Px56</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2269</v>
+        <v>3744</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -5440,16 +5440,16 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>14556</v>
+        <v>15764</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>7500435183406</t>
+          <t>7500435228756</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-Px36</t>
+          <t>PAMPERS-BabyDry-Px56</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5461,28 +5461,28 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HUGGIES PLUS PROTECT XXGx30</t>
+          <t>PAMPERS PREMIUM HIPER XXGx34</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3175</v>
+        <v>4509</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>15310</v>
+        <v>15779</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>7794626011900</t>
+          <t>7500435182881</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>HUGGIES-PLUS-PROTECT-XXGx30</t>
+          <t>PAMPERS-PREMIUM-HIPER-XXGx34</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5494,28 +5494,28 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DUFFY PAÑAL HIPER Px44</t>
+          <t>HUGGIES TOALLA 4en1 x48</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>2110</v>
+        <v>792</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>15371</v>
+        <v>15953</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>7798350084322</t>
+          <t>7794626011054</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>DUFFY-PA-AL-HIPER-Px44</t>
+          <t>HUGGIES-TOALLA-4en1-x48</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5527,28 +5527,28 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ESTRELLA OLEO ALGODONx500</t>
+          <t>HUGGIES TOALLA PUROx48</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1123</v>
+        <v>1264</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>15761</v>
+        <v>15956</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>7790064104808</t>
+          <t>7794626007217</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>ESTRELLA-OLEO-ALGODONx500</t>
+          <t>HUGGIES-TOALLA-PUROx48</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5560,11 +5560,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry Px56</t>
+          <t>PAMPERS SUPER XTR ULTRA XGx32</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3814</v>
+        <v>2421</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -5572,16 +5572,16 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>15764</v>
+        <v>16262</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>7500435228756</t>
+          <t>7500435189286</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-Px56</t>
+          <t>PAMPERS-SUPER-XTR-ULTRA-XGx32</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5593,11 +5593,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM HIPER XXGx34</t>
+          <t>PAMPERS SUPER XTR REG.XXGx8</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4594</v>
+        <v>594</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -5605,16 +5605,16 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>15779</v>
+        <v>16265</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>7500435182881</t>
+          <t>7500435168687</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-HIPER-XXGx34</t>
+          <t>PAMPERS-SUPER-XTR-REG-XXGx8</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5626,28 +5626,28 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HUGGIES TOALLA 4en1 x48</t>
+          <t>PAMPERS CONFORT XTR REG.XXGx8</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>792</v>
+        <v>635</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>15953</v>
+        <v>16267</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>7794626011054</t>
+          <t>750043588982</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>HUGGIES-TOALLA-4en1-x48</t>
+          <t>PAMPERS-CONFORT-XTR-REG-XXGx8</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5659,28 +5659,28 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HUGGIES TOALLA PUROx48</t>
+          <t>PAMPERS BabyDry JUMBO Gx110</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1231</v>
+        <v>11052</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>15956</v>
+        <v>16277</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>7794626007217</t>
+          <t>7500435228664</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>HUGGIES-TOALLA-PUROx48</t>
+          <t>PAMPERS-BabyDry-JUMBO-Gx110</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5692,11 +5692,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER XTR ULTRA XGx32</t>
+          <t>PAMPERS CONFORT XTR JUMBO Gx110</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2145</v>
+        <v>8089</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -5704,16 +5704,16 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>16262</v>
+        <v>16278</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>7500435189286</t>
+          <t>7500435189132</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-ULTRA-XGx32</t>
+          <t>PAMPERS-CONFORT-XTR-JUMBO-Gx110</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -5725,11 +5725,11 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER XTR REG.XXGx8</t>
+          <t>PAMPERS CONFORT XTR MES XXGx54</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>606</v>
+        <v>5718</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -5737,16 +5737,16 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>16265</v>
+        <v>16281</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>7500435168687</t>
+          <t>7500435189125</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-XTR-REG-XXGx8</t>
+          <t>PAMPERS-CONFORT-XTR-MES-XXGx54</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -5758,28 +5758,28 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR REG.XXGx8</t>
+          <t>ESTRELLA PAÑAL NEW SUPER XXGx50</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>647</v>
+        <v>4639</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>16267</v>
+        <v>16293</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>750043588982</t>
+          <t>7790064005525</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-REG-XXGx8</t>
+          <t>ESTRELLA-PA-AL-NEW-SUPER-XXGx50</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -5791,28 +5791,28 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>PAMPERS TOTAL PROTECT XGx36</t>
+          <t>ESTRELLA PAÑAL NEW SUPER Gx60</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2426</v>
+        <v>4639</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>16271</v>
+        <v>16294</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>7500435167963</t>
+          <t>7790064005501</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>PAMPERS-TOTAL-PROTECT-XGx36</t>
+          <t>ESTRELLA-PA-AL-NEW-SUPER-Gx60</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -5824,11 +5824,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry JUMBO Gx110</t>
+          <t>PAMPERS TOTAL PROTECT XXGx34</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>11260</v>
+        <v>2740</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -5836,16 +5836,16 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>16277</v>
+        <v>16580</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>7500435228664</t>
+          <t>7500435167970</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-JUMBO-Gx110</t>
+          <t>PAMPERS-TOTAL-PROTECT-XXGx34</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -5857,11 +5857,11 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR JUMBO Gx110</t>
+          <t>PAMPERS BabyDry MES XXGx54</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>8105</v>
+        <v>7458</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -5869,16 +5869,16 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>16278</v>
+        <v>16583</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>7500435189132</t>
+          <t>7500435228725</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-JUMBO-Gx110</t>
+          <t>PAMPERS-BabyDry-MES-XXGx54</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -5890,28 +5890,28 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR MES XXGx54</t>
+          <t>BABYSEC TOALLAS PREMIUMx50</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>5066</v>
+        <v>797</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Babysec</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>16281</v>
+        <v>16594</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>7500435189125</t>
+          <t>7806500730514</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-MES-XXGx54</t>
+          <t>BABYSEC-TOALLAS-PREMIUMx50</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -5923,11 +5923,11 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PAMPERS SUPER HYP XGx36</t>
+          <t>PAMPERS BabyDRY RN x36</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2955</v>
+        <v>2661</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -5935,16 +5935,16 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>16289</v>
+        <v>16683</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>7500435205344</t>
+          <t>7500435230513</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>PAMPERS-SUPER-HYP-XGx36</t>
+          <t>PAMPERS-BabyDRY-RN-x36</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -5956,28 +5956,28 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL NEW SUPER XXGx50</t>
+          <t>HUGGIES TOALLAS PROTECCION PLUSx48</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>4675</v>
+        <v>670</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>16293</v>
+        <v>16702</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>7790064005525</t>
+          <t>7794626013225</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-NEW-SUPER-XXGx50</t>
+          <t>HUGGIES-TOALLAS-PROTECCION-PLUSx48</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -5989,28 +5989,28 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ESTRELLA PAÑAL NEW SUPER Gx60</t>
+          <t>CARICIA PANAL XXGx22</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>4675</v>
+        <v>1412</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Caricia</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>16294</v>
+        <v>16790</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>7790064005501</t>
+          <t>7790250094180</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>ESTRELLA-PA-AL-NEW-SUPER-Gx60</t>
+          <t>CARICIA-PANAL-XXGx22</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6022,28 +6022,28 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>HUGGIES CREMA PROTECTORAx80</t>
+          <t>ESTRELLA TOALLAS HUMEDAS RELAJANTEx50</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2682</v>
+        <v>643</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Huggies</t>
+          <t>Estrella</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>16311</v>
+        <v>17043</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>7896018704411</t>
+          <t>7790064104679</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>HUGGIES-CREMA-PROTECTORAx80</t>
+          <t>ESTRELLA-TOALLAS-HUMEDAS-RELAJANTEx50</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6055,11 +6055,11 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PAMPERS TOTAL PROTECT XXGx34</t>
+          <t>PAMPERS BabyDry HIPER Gx44</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2426</v>
+        <v>4616</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>16580</v>
+        <v>17214</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>7500435167970</t>
+          <t>7500435228732</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>PAMPERS-TOTAL-PROTECT-XXGx34</t>
+          <t>PAMPERS-BabyDry-HIPER-Gx44</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6088,11 +6088,11 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry MES XXGx54</t>
+          <t>PAMPERS BabyDry HIPER XGx36</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>7599</v>
+        <v>4616</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -6100,16 +6100,16 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>16583</v>
+        <v>17219</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>7500435228725</t>
+          <t>7500435228763</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-MES-XXGx54</t>
+          <t>PAMPERS-BabyDry-HIPER-XGx36</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6121,11 +6121,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM MES M x72</t>
+          <t>PAMPERS BABYSAN MES Mx72</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>5630</v>
+        <v>4627</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -6133,16 +6133,16 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>16584</v>
+        <v>17236</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>7500435188883</t>
+          <t>750043522851</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-MES-M-x72</t>
+          <t>PAMPERS-BABYSAN-MES-Mx72</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6154,11 +6154,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>PAMPERS CONFORT XTR HIPER Px56</t>
+          <t>PAMPERS PREMIUM MES Gx72</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2877</v>
+        <v>5525</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -6166,16 +6166,16 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>16586</v>
+        <v>17237</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>7500435189040</t>
+          <t>7500435188876</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>PAMPERS-CONFORT-XTR-HIPER-Px56</t>
+          <t>PAMPERS-PREMIUM-MES-Gx72</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6187,11 +6187,11 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM XTR RN+ x36</t>
+          <t>PAMPERS PREMIUM JUMBO Gx96</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2269</v>
+        <v>7999</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -6199,16 +6199,16 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>16588</v>
+        <v>17239</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>7500435188753</t>
+          <t>7500435155953</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-XTR-RN-x36</t>
+          <t>PAMPERS-PREMIUM-JUMBO-Gx96</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6220,28 +6220,28 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BABYSEC TOALLAS PREMIUMx50</t>
+          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>770</v>
+        <v>7999</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Babysec</t>
+          <t>Pampers</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>16594</v>
+        <v>17244</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>7806500730514</t>
+          <t>7500435222433</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>BABYSEC-TOALLAS-PREMIUMx50</t>
+          <t>PAMPERS-PREMIUM-JUMBO-XXGx88</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6253,28 +6253,24 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDRY RN x36</t>
+          <t>SELEC.EST.HIPER XGx36</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>2667</v>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Pampers</t>
-        </is>
-      </c>
+        <v>2287</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>16683</v>
+        <v>17325</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>7500435230513</t>
+          <t>1513</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDRY-RN-x36</t>
+          <t>SELEC-EST-HIPER-XGx36</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6286,28 +6282,24 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM XTR RN+ x56</t>
+          <t>SELEC.EST.HIPER Mx44</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3210</v>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Pampers</t>
-        </is>
-      </c>
+        <v>2287</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>16688</v>
+        <v>17326</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>7500435188760</t>
+          <t>1511</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-XTR-RN-x56</t>
+          <t>SELEC-EST-HIPER-Mx44</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6319,28 +6311,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HUGGIES TOALLAS PROTECCION PLUSx48</t>
+          <t>SELEC.EST.SUPER Gx60</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>670</v>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Huggies</t>
-        </is>
-      </c>
+        <v>3740</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>16702</v>
+        <v>17329</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>7794626013225</t>
+          <t>0008281</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>HUGGIES-TOALLAS-PROTECCION-PLUSx48</t>
+          <t>SELEC-EST-SUPER-Gx60</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6352,28 +6340,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>CARICIA PANAL XXGx22</t>
+          <t>SELEC.EST.HIPER JUNIORx30</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>1346</v>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Caricia</t>
-        </is>
-      </c>
+        <v>2287</v>
+      </c>
+      <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>16790</v>
+        <v>17330</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>7790250094180</t>
+          <t>0008138</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>CARICIA-PANAL-XXGx22</t>
+          <t>SELEC-EST-HIPER-JUNIORx30</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6385,28 +6369,28 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ESTRELLA TOALLAS HUMEDAS RELAJANTEx50</t>
+          <t>CANDY TOALLAS HUMEDAS OLEO x50</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>656</v>
+        <v>280</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Estrella</t>
+          <t>Candy</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>17043</v>
+        <v>17440</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>7790064104679</t>
+          <t>7798269140218</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>ESTRELLA-TOALLAS-HUMEDAS-RELAJANTEx50</t>
+          <t>CANDY-TOALLAS-HUMEDAS-OLEO-x50</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6418,28 +6402,28 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry HIPER Mx52</t>
+          <t>CANDY TOALLAS HUMEDAS PREMIUM ALOEx50</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>4702</v>
+        <v>349</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Candy</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>17209</v>
+        <v>17442</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>7500435228749</t>
+          <t>7798269140188</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-HIPER-Mx52</t>
+          <t>CANDY-TOALLAS-HUMEDAS-PREMIUM-ALOEx50</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6451,28 +6435,28 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry HIPER Gx44</t>
+          <t>CANDY OLEO CALCAREO x500</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>4702</v>
+        <v>1033</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Candy</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>17214</v>
+        <v>17444</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>7500435228732</t>
+          <t>7798269140041</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-HIPER-Gx44</t>
+          <t>CANDY-OLEO-CALCAREO-x500</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6484,28 +6468,28 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry HIPER XGx36</t>
+          <t>HUGGIES ULTRACONFORT AHORRO Mx68</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>4702</v>
+        <v>6295</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>17219</v>
+        <v>17536</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>7500435228763</t>
+          <t>7794626013652</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-HIPER-XGx36</t>
+          <t>HUGGIES-ULTRACONFORT-AHORRO-Mx68</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -6517,28 +6501,28 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>PAMPERS BabyDry HIPER XXGx34</t>
+          <t>HUGGIES ULTRACONFORT AHORRO XXGx50</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>4702</v>
+        <v>6295</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Pampers</t>
+          <t>Huggies</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>17221</v>
+        <v>17538</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>7500435228770</t>
+          <t>7794626013683</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>PAMPERS-BabyDry-HIPER-XXGx34</t>
+          <t>HUGGIES-ULTRACONFORT-AHORRO-XXGx50</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6550,11 +6534,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>PAMPERS BABYSAN MES Mx72</t>
+          <t>PAMPERS SUPER HIPER Mx52</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>4714</v>
+        <v>2901</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -6562,16 +6546,16 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>17236</v>
+        <v>17543</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>750043522851</t>
+          <t>7500435219723</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>PAMPERS-BABYSAN-MES-Mx72</t>
+          <t>PAMPERS-SUPER-HIPER-Mx52</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -6583,11 +6567,11 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM MES Gx72</t>
+          <t>PAMPERS SUPER HIPER XXGx34</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>5630</v>
+        <v>2901</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -6595,16 +6579,16 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>17237</v>
+        <v>17544</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>7500435188876</t>
+          <t>7500435205351</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-MES-Gx72</t>
+          <t>PAMPERS-SUPER-HIPER-XXGx34</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -6616,11 +6600,11 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO Gx96</t>
+          <t>PAMPERS SUPER HIPER Gx44</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>8015</v>
+        <v>2901</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -6628,16 +6612,16 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>17239</v>
+        <v>17545</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>7500435155953</t>
+          <t>7500435205320</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-JUMBO-Gx96</t>
+          <t>PAMPERS-SUPER-HIPER-Gx44</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -6649,11 +6633,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM MES XXGx54</t>
+          <t>PAMPERS CONFORT XTR REG.XGx8</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>5630</v>
+        <v>635</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -6661,16 +6645,16 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>17242</v>
+        <v>17546</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>7500435188906</t>
+          <t>7500435188975</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-MES-XXGx54</t>
+          <t>PAMPERS-CONFORT-XTR-REG-XGx8</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -6682,11 +6666,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PAMPERS PREMIUM JUMBO XXGx88</t>
+          <t>PAMPERS BABYSAN REG. Px12</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>8015</v>
+        <v>892</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -6694,16 +6678,16 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>17244</v>
+        <v>17550</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>7500435222433</t>
+          <t>7500435228633</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>PAMPERS-PREMIUM-JUMBO-XXGx88</t>
+          <t>PAMPERS-BABYSAN-REG-Px12</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -6715,24 +6699,28 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SELEC.EST.HIPER XGx36</t>
+          <t>PAMPERS BABYSAN REG. Gx9</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2178</v>
-      </c>
-      <c r="C192" t="inlineStr"/>
+        <v>892</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Pampers</t>
+        </is>
+      </c>
       <c r="D192" t="n">
-        <v>17325</v>
+        <v>17551</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>1513</t>
+          <t>7500435228619</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>SELEC-EST-HIPER-XGx36</t>
+          <t>PAMPERS-BABYSAN-REG-Gx9</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -6744,24 +6732,28 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SELEC.EST.HIPER Mx44</t>
+          <t>PAMPERS BABYSAN REG. Mx10</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2178</v>
-      </c>
-      <c r="C193" t="inlineStr"/>
+        <v>892</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Pampers</t>
+        </is>
+      </c>
       <c r="D193" t="n">
-        <v>17326</v>
+        <v>17558</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>1511</t>
+          <t>7500435228626</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>SELEC-EST-HIPER-Mx44</t>
+          <t>PAMPERS-BABYSAN-REG-Mx10</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -6773,24 +6765,28 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SELEC.EST.SUPER Gx60</t>
+          <t>PAMPERS BABYSAN REG. XGx8</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>3561</v>
-      </c>
-      <c r="C194" t="inlineStr"/>
+        <v>892</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Pampers</t>
+        </is>
+      </c>
       <c r="D194" t="n">
-        <v>17329</v>
+        <v>17559</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>0008281</t>
+          <t>7500435228640</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>SELEC-EST-SUPER-Gx60</t>
+          <t>PAMPERS-BABYSAN-REG-XGx8</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -6802,27 +6798,258 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SELEC.EST.HIPER JUNIORx30</t>
+          <t>PAMPERS BABYSAN REG. XXGx8</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2178</v>
-      </c>
-      <c r="C195" t="inlineStr"/>
+        <v>892</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Pampers</t>
+        </is>
+      </c>
       <c r="D195" t="n">
-        <v>17330</v>
+        <v>17560</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>0008138</t>
+          <t>7500435228657</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>SELEC-EST-HIPER-JUNIORx30</t>
+          <t>PAMPERS-BABYSAN-REG-XXGx8</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
+        <is>
+          <t>Drimel</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>HUGGIES FLEXI COMFORT RNx17</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1291</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Huggies</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>17654</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>7794626010644</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>HUGGIES-FLEXI-COMFORT-RNx17</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Drimel</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BABYSEC SUPER PREMIUM XGx36</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>3493</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Babysec</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>17922</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>7730219049035</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>BABYSEC-SUPER-PREMIUM-XGx36</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Drimel</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>PAMPERS PANTS PC MES XXGx52</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>6280</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Pampers</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>18036</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>7500435189668</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>PAMPERS-PANTS-PC-MES-XXGx52</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Drimel</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>PAMPERS PANTS PC MES XGx52</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>6280</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Pampers</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>18037</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>7500435189651</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>PAMPERS-PANTS-PC-MES-XGx52</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Drimel</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>PAMPERS PANTS PC XXGx24</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2951</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Pampers</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>18059</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>7500435178327</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>PAMPERS-PANTS-PC-XXGx24</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Drimel</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>PAMPERS SUPER XTR ULTRA Mx48</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>2421</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Pampers</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>18062</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>7500435189262</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>PAMPERS-SUPER-XTR-ULTRA-Mx48</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Drimel</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>VERITAS FECULA BEBEx180</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>727</v>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="n">
+        <v>18084</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>7791520009774</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>VERITAS-FECULA-BEBEx180</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
         <is>
           <t>Drimel</t>
         </is>
